--- a/data/2017-2018_NSLP-CE-addresses.xlsx
+++ b/data/2017-2018_NSLP-CE-addresses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rperez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rperez\Documents\R\R Saves\Projects\nslp-locations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C125DA-4B59-4FA4-9581-7BF2AB939D39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B754797-8CB3-4797-913A-29E47D07BB43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FFCFCCD-7F78-4FFD-8862-1045A35D6407}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FFCFCCD-7F78-4FFD-8862-1045A35D6407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7809,9 +7809,6 @@
     <t>704 TOLIVER ST HWY 171, BYNUM, TX</t>
   </si>
   <si>
-    <t>PRIVATE RD FOX LN #100, CADDO MILLS, TX</t>
-  </si>
-  <si>
     <t>4205 WILDCAT DR, CORPUS CHRISTI, TX</t>
   </si>
   <si>
@@ -7968,9 +7965,6 @@
     <t>1500 W MAIN ST, CLARKSVILLE, TX</t>
   </si>
   <si>
-    <t>FIFTH &amp; VINE, CLAUDE, TX</t>
-  </si>
-  <si>
     <t>2145 West Nasa Blvd, Webster, TX</t>
   </si>
   <si>
@@ -8652,9 +8646,6 @@
     <t>304 W 3RD, GROOM, TX</t>
   </si>
   <si>
-    <t>CORNER 207 N MAIN ST, GROVETON, TX</t>
-  </si>
-  <si>
     <t>601 GARRETT ST, GRUVER, TX</t>
   </si>
   <si>
@@ -9219,9 +9210,6 @@
     <t>12168 HWY 79 WEST, JEWETT, TX</t>
   </si>
   <si>
-    <t># 1 TIGER ALLEY, LEONARD, TX</t>
-  </si>
-  <si>
     <t>704 11TH ST, LEVELLAND, TX</t>
   </si>
   <si>
@@ -9261,9 +9249,6 @@
     <t>6586 FM 1130, ORANGE, TX</t>
   </si>
   <si>
-    <t>PO Box 6000, LITTLE ELM, TX</t>
-  </si>
-  <si>
     <t>905 KENTUCKY AVE, SAN ANTONIO, TX</t>
   </si>
   <si>
@@ -9438,21 +9423,12 @@
     <t>525 BLUEBONNET PKWY, MCGREGOR, TX</t>
   </si>
   <si>
-    <t>#1 DUVALL ST, MCKINNEY, TX</t>
-  </si>
-  <si>
-    <t>4TH &amp; ROWE ST, MCLEAN, TX</t>
-  </si>
-  <si>
     <t>604 4TH ST, MEADOW, TX</t>
   </si>
   <si>
     <t>3200 Oates Drive, Mesquite, TX</t>
   </si>
   <si>
-    <t>ONE BOBCAT LN, MEDINA, TX</t>
-  </si>
-  <si>
     <t>8449 F M 471 South, CASTROVILLE, TX</t>
   </si>
   <si>
@@ -9735,9 +9711,6 @@
     <t>631 N HOLLY, OAKWOOD, TX</t>
   </si>
   <si>
-    <t>One Owl Square, ODEM, TX</t>
-  </si>
-  <si>
     <t>2412 61ST ST, GALVESTON, TX</t>
   </si>
   <si>
@@ -9750,9 +9723,6 @@
     <t>809 W HAMILTON, OLNEY, TX</t>
   </si>
   <si>
-    <t>7 TH &amp; AVE G, OLTON, TX</t>
-  </si>
-  <si>
     <t>134 N FM 356, ONALASKA, TX</t>
   </si>
   <si>
@@ -9768,9 +9738,6 @@
     <t>7625 CORTLAND AVE, DALLAS, TX</t>
   </si>
   <si>
-    <t>Our Lady of Victory Catholic School, FORT WORTH , TX</t>
-  </si>
-  <si>
     <t>501 E. Henderson St., OVERTON, TX</t>
   </si>
   <si>
@@ -10317,9 +10284,6 @@
     <t>140 E PANHANDLE, SLATON, TX</t>
   </si>
   <si>
-    <t>#1 GREYHOUND LN, SLIDELL, TX</t>
-  </si>
-  <si>
     <t>5765 E STATE HWY 294, ELKHART, TX</t>
   </si>
   <si>
@@ -10413,9 +10377,6 @@
     <t>635 BONHAM ST, COLUMBUS, TX</t>
   </si>
   <si>
-    <t>St. George Catholic School, FORT WORTH, TX</t>
-  </si>
-  <si>
     <t>4118 S BONHAM, AMARILLO, TX</t>
   </si>
   <si>
@@ -10689,9 +10650,6 @@
     <t>201 N CAROLINA, TROUP, TX</t>
   </si>
   <si>
-    <t>#1 TROJAN RD, TROY, TX</t>
-  </si>
-  <si>
     <t>702 NW 8TH ST, TULIA, TX</t>
   </si>
   <si>
@@ -10842,9 +10800,6 @@
     <t>609 15TH ST, WELLINGTON, TX</t>
   </si>
   <si>
-    <t>5TH &amp; TERRY, WELLMAN, TX</t>
-  </si>
-  <si>
     <t>160 RUSK AVE, WELLS, TX</t>
   </si>
   <si>
@@ -10875,9 +10830,6 @@
     <t>244 Lynch Avenue, WESTHOFF, TX</t>
   </si>
   <si>
-    <t>HWY 320/CR3000, WESTPHALIA, TX</t>
-  </si>
-  <si>
     <t>4524 W OAK STREET, PALESTINE, TX</t>
   </si>
   <si>
@@ -11017,6 +10969,54 @@
   </si>
   <si>
     <t>Zip</t>
+  </si>
+  <si>
+    <t>100 Fox Ln, CADDO MILLS, TX</t>
+  </si>
+  <si>
+    <t>509 High St, CLAUDE, TX</t>
+  </si>
+  <si>
+    <t>207 N MAIN ST, GROVETON, TX</t>
+  </si>
+  <si>
+    <t>1 TIGER ALLEY, LEONARD, TX</t>
+  </si>
+  <si>
+    <t>300 Lobo Lane, LITTLE ELM, TX</t>
+  </si>
+  <si>
+    <t>1 DUVALL ST, MCKINNEY, TX</t>
+  </si>
+  <si>
+    <t>600 N Rowe St., MCLEAN, TX</t>
+  </si>
+  <si>
+    <t>1 BOBCAT LN, MEDINA, TX</t>
+  </si>
+  <si>
+    <t>1 Owl Sq, ODEM, TX</t>
+  </si>
+  <si>
+    <t>3320 Hemphill St, FORT WORTH , TX</t>
+  </si>
+  <si>
+    <t>700 AVE G, OLTON, TX</t>
+  </si>
+  <si>
+    <t>1 GREYHOUND LN, SLIDELL, TX</t>
+  </si>
+  <si>
+    <t>824 Hudgins Ave, FORT WORTH, TX</t>
+  </si>
+  <si>
+    <t>1 TROJAN RD, TROY, TX</t>
+  </si>
+  <si>
+    <t>505 Terry Ave., WELLMAN, TX</t>
+  </si>
+  <si>
+    <t>124 County Road 3000, Lott, TX</t>
   </si>
 </sst>
 </file>
@@ -11370,12 +11370,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EF6FB8-D97B-467F-832B-701A0516C47D}">
   <dimension ref="A1:F1231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1189" sqref="B1189"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -11389,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3661</v>
+        <v>3645</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -14586,7 +14588,7 @@
         <v>188</v>
       </c>
       <c r="B161" t="s">
-        <v>2592</v>
+        <v>3646</v>
       </c>
       <c r="C161" t="s">
         <v>1409</v>
@@ -14606,7 +14608,7 @@
         <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C162" t="s">
         <v>1410</v>
@@ -14626,7 +14628,7 @@
         <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C163" t="s">
         <v>1411</v>
@@ -14646,7 +14648,7 @@
         <v>191</v>
       </c>
       <c r="B164" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C164" t="s">
         <v>1412</v>
@@ -14666,7 +14668,7 @@
         <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C165" t="s">
         <v>1413</v>
@@ -14686,7 +14688,7 @@
         <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="C166" t="s">
         <v>1414</v>
@@ -14706,7 +14708,7 @@
         <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="C167" t="s">
         <v>1415</v>
@@ -14726,7 +14728,7 @@
         <v>195</v>
       </c>
       <c r="B168" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C168" t="s">
         <v>1416</v>
@@ -14746,7 +14748,7 @@
         <v>196</v>
       </c>
       <c r="B169" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C169" t="s">
         <v>1417</v>
@@ -14766,7 +14768,7 @@
         <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C170" t="s">
         <v>1418</v>
@@ -14786,7 +14788,7 @@
         <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C171">
         <v>79932</v>
@@ -14806,7 +14808,7 @@
         <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C172" t="s">
         <v>1419</v>
@@ -14826,7 +14828,7 @@
         <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C173" t="s">
         <v>1420</v>
@@ -14846,7 +14848,7 @@
         <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C174" t="s">
         <v>1421</v>
@@ -14866,7 +14868,7 @@
         <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C175" t="s">
         <v>1422</v>
@@ -14886,7 +14888,7 @@
         <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C176" t="s">
         <v>1423</v>
@@ -14906,7 +14908,7 @@
         <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C177" t="s">
         <v>1424</v>
@@ -14926,7 +14928,7 @@
         <v>205</v>
       </c>
       <c r="B178" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C178" t="s">
         <v>1425</v>
@@ -14946,7 +14948,7 @@
         <v>206</v>
       </c>
       <c r="B179" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C179" t="s">
         <v>1426</v>
@@ -14966,7 +14968,7 @@
         <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C180">
         <v>75104</v>
@@ -14986,7 +14988,7 @@
         <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="C181" t="s">
         <v>1427</v>
@@ -15006,7 +15008,7 @@
         <v>209</v>
       </c>
       <c r="B182" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C182" t="s">
         <v>1428</v>
@@ -15026,7 +15028,7 @@
         <v>210</v>
       </c>
       <c r="B183" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="C183" t="s">
         <v>1429</v>
@@ -15046,7 +15048,7 @@
         <v>211</v>
       </c>
       <c r="B184" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C184" t="s">
         <v>1430</v>
@@ -15066,7 +15068,7 @@
         <v>212</v>
       </c>
       <c r="B185" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C185" t="s">
         <v>1431</v>
@@ -15086,7 +15088,7 @@
         <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C186" t="s">
         <v>1432</v>
@@ -15106,7 +15108,7 @@
         <v>214</v>
       </c>
       <c r="B187" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C187" t="s">
         <v>1433</v>
@@ -15126,7 +15128,7 @@
         <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C188" t="s">
         <v>1434</v>
@@ -15146,7 +15148,7 @@
         <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C189" t="s">
         <v>1435</v>
@@ -15166,7 +15168,7 @@
         <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C190" t="s">
         <v>1436</v>
@@ -15186,7 +15188,7 @@
         <v>218</v>
       </c>
       <c r="B191" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C191" t="s">
         <v>1437</v>
@@ -15206,7 +15208,7 @@
         <v>219</v>
       </c>
       <c r="B192" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C192" t="s">
         <v>1438</v>
@@ -15226,7 +15228,7 @@
         <v>220</v>
       </c>
       <c r="B193" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C193" t="s">
         <v>1439</v>
@@ -15246,7 +15248,7 @@
         <v>221</v>
       </c>
       <c r="B194" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C194" t="s">
         <v>1440</v>
@@ -15266,7 +15268,7 @@
         <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C195" t="s">
         <v>1441</v>
@@ -15286,7 +15288,7 @@
         <v>223</v>
       </c>
       <c r="B196" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C196" t="s">
         <v>1442</v>
@@ -15306,7 +15308,7 @@
         <v>224</v>
       </c>
       <c r="B197" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C197" t="s">
         <v>1443</v>
@@ -15326,7 +15328,7 @@
         <v>225</v>
       </c>
       <c r="B198" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C198" t="s">
         <v>1444</v>
@@ -15346,7 +15348,7 @@
         <v>226</v>
       </c>
       <c r="B199" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C199" t="s">
         <v>1445</v>
@@ -15366,7 +15368,7 @@
         <v>227</v>
       </c>
       <c r="B200" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C200">
         <v>79423</v>
@@ -15386,7 +15388,7 @@
         <v>228</v>
       </c>
       <c r="B201" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C201" t="s">
         <v>1446</v>
@@ -15406,7 +15408,7 @@
         <v>229</v>
       </c>
       <c r="B202" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C202" t="s">
         <v>1447</v>
@@ -15426,7 +15428,7 @@
         <v>230</v>
       </c>
       <c r="B203" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C203" t="s">
         <v>1448</v>
@@ -15446,7 +15448,7 @@
         <v>231</v>
       </c>
       <c r="B204" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C204" t="s">
         <v>1449</v>
@@ -15466,7 +15468,7 @@
         <v>232</v>
       </c>
       <c r="B205" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="C205" t="s">
         <v>1450</v>
@@ -15486,7 +15488,7 @@
         <v>233</v>
       </c>
       <c r="B206" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C206" t="s">
         <v>1451</v>
@@ -15506,7 +15508,7 @@
         <v>234</v>
       </c>
       <c r="B207" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C207" t="s">
         <v>1452</v>
@@ -15526,7 +15528,7 @@
         <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C208" t="s">
         <v>1453</v>
@@ -15546,7 +15548,7 @@
         <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C209" t="s">
         <v>1454</v>
@@ -15566,7 +15568,7 @@
         <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C210" t="s">
         <v>1455</v>
@@ -15586,7 +15588,7 @@
         <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C211" t="s">
         <v>1456</v>
@@ -15606,7 +15608,7 @@
         <v>239</v>
       </c>
       <c r="B212" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C212" t="s">
         <v>1457</v>
@@ -15626,7 +15628,7 @@
         <v>240</v>
       </c>
       <c r="B213" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C213" t="s">
         <v>1458</v>
@@ -15646,7 +15648,7 @@
         <v>241</v>
       </c>
       <c r="B214" t="s">
-        <v>2645</v>
+        <v>3647</v>
       </c>
       <c r="C214" t="s">
         <v>1459</v>
@@ -15666,7 +15668,7 @@
         <v>242</v>
       </c>
       <c r="B215" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="C215" t="s">
         <v>1460</v>
@@ -15686,7 +15688,7 @@
         <v>243</v>
       </c>
       <c r="B216" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="C216" t="s">
         <v>1461</v>
@@ -15706,7 +15708,7 @@
         <v>244</v>
       </c>
       <c r="B217" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="C217" t="s">
         <v>1462</v>
@@ -15726,7 +15728,7 @@
         <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="C218" t="s">
         <v>1463</v>
@@ -15746,7 +15748,7 @@
         <v>246</v>
       </c>
       <c r="B219" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="C219" t="s">
         <v>1464</v>
@@ -15766,7 +15768,7 @@
         <v>247</v>
       </c>
       <c r="B220" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="C220" t="s">
         <v>1465</v>
@@ -15786,7 +15788,7 @@
         <v>248</v>
       </c>
       <c r="B221" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="C221" t="s">
         <v>1466</v>
@@ -15806,7 +15808,7 @@
         <v>249</v>
       </c>
       <c r="B222" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="C222" t="s">
         <v>1467</v>
@@ -15826,7 +15828,7 @@
         <v>250</v>
       </c>
       <c r="B223" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="C223" t="s">
         <v>1468</v>
@@ -15846,7 +15848,7 @@
         <v>251</v>
       </c>
       <c r="B224" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="C224" t="s">
         <v>1469</v>
@@ -15866,7 +15868,7 @@
         <v>252</v>
       </c>
       <c r="B225" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="C225" t="s">
         <v>1470</v>
@@ -15886,7 +15888,7 @@
         <v>253</v>
       </c>
       <c r="B226" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="C226" t="s">
         <v>1471</v>
@@ -15906,7 +15908,7 @@
         <v>254</v>
       </c>
       <c r="B227" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="C227" t="s">
         <v>1472</v>
@@ -15926,7 +15928,7 @@
         <v>255</v>
       </c>
       <c r="B228" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="C228" t="s">
         <v>1473</v>
@@ -15946,7 +15948,7 @@
         <v>256</v>
       </c>
       <c r="B229" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="C229" t="s">
         <v>1474</v>
@@ -15966,7 +15968,7 @@
         <v>257</v>
       </c>
       <c r="B230" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="C230" t="s">
         <v>1475</v>
@@ -15986,7 +15988,7 @@
         <v>258</v>
       </c>
       <c r="B231" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="C231" t="s">
         <v>1476</v>
@@ -16006,7 +16008,7 @@
         <v>259</v>
       </c>
       <c r="B232" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C232" t="s">
         <v>1477</v>
@@ -16026,7 +16028,7 @@
         <v>260</v>
       </c>
       <c r="B233" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="C233" t="s">
         <v>1478</v>
@@ -16046,7 +16048,7 @@
         <v>261</v>
       </c>
       <c r="B234" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="C234" t="s">
         <v>1479</v>
@@ -16066,7 +16068,7 @@
         <v>262</v>
       </c>
       <c r="B235" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="C235" t="s">
         <v>1480</v>
@@ -16086,7 +16088,7 @@
         <v>263</v>
       </c>
       <c r="B236" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="C236" t="s">
         <v>1481</v>
@@ -16106,7 +16108,7 @@
         <v>264</v>
       </c>
       <c r="B237" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="C237" t="s">
         <v>1482</v>
@@ -16126,7 +16128,7 @@
         <v>265</v>
       </c>
       <c r="B238" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="C238" t="s">
         <v>1483</v>
@@ -16146,7 +16148,7 @@
         <v>266</v>
       </c>
       <c r="B239" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="C239" t="s">
         <v>1484</v>
@@ -16166,7 +16168,7 @@
         <v>267</v>
       </c>
       <c r="B240" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="C240" t="s">
         <v>1485</v>
@@ -16186,7 +16188,7 @@
         <v>268</v>
       </c>
       <c r="B241" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="C241" t="s">
         <v>1486</v>
@@ -16206,7 +16208,7 @@
         <v>269</v>
       </c>
       <c r="B242" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="C242" t="s">
         <v>1487</v>
@@ -16226,7 +16228,7 @@
         <v>270</v>
       </c>
       <c r="B243" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="C243" t="s">
         <v>1488</v>
@@ -16246,7 +16248,7 @@
         <v>271</v>
       </c>
       <c r="B244" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="C244" t="s">
         <v>1489</v>
@@ -16266,7 +16268,7 @@
         <v>272</v>
       </c>
       <c r="B245" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="C245" t="s">
         <v>1490</v>
@@ -16286,7 +16288,7 @@
         <v>273</v>
       </c>
       <c r="B246" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="C246" t="s">
         <v>1491</v>
@@ -16306,7 +16308,7 @@
         <v>274</v>
       </c>
       <c r="B247" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="C247" t="s">
         <v>1492</v>
@@ -16326,7 +16328,7 @@
         <v>275</v>
       </c>
       <c r="B248" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="C248" t="s">
         <v>1493</v>
@@ -16346,7 +16348,7 @@
         <v>276</v>
       </c>
       <c r="B249" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="C249" t="s">
         <v>1494</v>
@@ -16366,7 +16368,7 @@
         <v>277</v>
       </c>
       <c r="B250" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="C250" t="s">
         <v>1495</v>
@@ -16386,7 +16388,7 @@
         <v>278</v>
       </c>
       <c r="B251" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="C251" t="s">
         <v>1496</v>
@@ -16406,7 +16408,7 @@
         <v>279</v>
       </c>
       <c r="B252" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="C252" t="s">
         <v>1497</v>
@@ -16426,7 +16428,7 @@
         <v>280</v>
       </c>
       <c r="B253" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="C253" t="s">
         <v>1498</v>
@@ -16446,7 +16448,7 @@
         <v>281</v>
       </c>
       <c r="B254" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="C254" t="s">
         <v>1499</v>
@@ -16466,7 +16468,7 @@
         <v>282</v>
       </c>
       <c r="B255" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="C255" t="s">
         <v>1500</v>
@@ -16486,7 +16488,7 @@
         <v>283</v>
       </c>
       <c r="B256" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="C256" t="s">
         <v>1501</v>
@@ -16506,7 +16508,7 @@
         <v>284</v>
       </c>
       <c r="B257" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="C257" t="s">
         <v>1502</v>
@@ -16526,7 +16528,7 @@
         <v>285</v>
       </c>
       <c r="B258" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="C258" t="s">
         <v>1503</v>
@@ -16546,7 +16548,7 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="C259" t="s">
         <v>1504</v>
@@ -16566,7 +16568,7 @@
         <v>287</v>
       </c>
       <c r="B260" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="C260" t="s">
         <v>1505</v>
@@ -16586,7 +16588,7 @@
         <v>288</v>
       </c>
       <c r="B261" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="C261" t="s">
         <v>1506</v>
@@ -16606,7 +16608,7 @@
         <v>289</v>
       </c>
       <c r="B262" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="C262" t="s">
         <v>1507</v>
@@ -16626,7 +16628,7 @@
         <v>290</v>
       </c>
       <c r="B263" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="C263" t="s">
         <v>1508</v>
@@ -16646,7 +16648,7 @@
         <v>291</v>
       </c>
       <c r="B264" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="C264" t="s">
         <v>1509</v>
@@ -16666,7 +16668,7 @@
         <v>292</v>
       </c>
       <c r="B265" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="C265" t="s">
         <v>1510</v>
@@ -16686,7 +16688,7 @@
         <v>293</v>
       </c>
       <c r="B266" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="C266" t="s">
         <v>1511</v>
@@ -16706,7 +16708,7 @@
         <v>294</v>
       </c>
       <c r="B267" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="C267" t="s">
         <v>1512</v>
@@ -16726,7 +16728,7 @@
         <v>295</v>
       </c>
       <c r="B268" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="C268" t="s">
         <v>1513</v>
@@ -16746,7 +16748,7 @@
         <v>296</v>
       </c>
       <c r="B269" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="C269" t="s">
         <v>1514</v>
@@ -16766,7 +16768,7 @@
         <v>297</v>
       </c>
       <c r="B270" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="C270" t="s">
         <v>1515</v>
@@ -16786,7 +16788,7 @@
         <v>298</v>
       </c>
       <c r="B271" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="C271" t="s">
         <v>1516</v>
@@ -16806,7 +16808,7 @@
         <v>299</v>
       </c>
       <c r="B272" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="C272" t="s">
         <v>1517</v>
@@ -16826,7 +16828,7 @@
         <v>300</v>
       </c>
       <c r="B273" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="C273" t="s">
         <v>1518</v>
@@ -16846,7 +16848,7 @@
         <v>301</v>
       </c>
       <c r="B274" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="C274">
         <v>77430</v>
@@ -16866,7 +16868,7 @@
         <v>302</v>
       </c>
       <c r="B275" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="C275">
         <v>77534</v>
@@ -16886,7 +16888,7 @@
         <v>303</v>
       </c>
       <c r="B276" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="C276" t="s">
         <v>1519</v>
@@ -16906,7 +16908,7 @@
         <v>304</v>
       </c>
       <c r="B277" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="C277" t="s">
         <v>1520</v>
@@ -16926,7 +16928,7 @@
         <v>305</v>
       </c>
       <c r="B278" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="C278" t="s">
         <v>1521</v>
@@ -16946,7 +16948,7 @@
         <v>306</v>
       </c>
       <c r="B279" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="C279" t="s">
         <v>1522</v>
@@ -16966,7 +16968,7 @@
         <v>307</v>
       </c>
       <c r="B280" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="C280" t="s">
         <v>1523</v>
@@ -16986,7 +16988,7 @@
         <v>308</v>
       </c>
       <c r="B281" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="C281" t="s">
         <v>1524</v>
@@ -17006,7 +17008,7 @@
         <v>309</v>
       </c>
       <c r="B282" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="C282" t="s">
         <v>1525</v>
@@ -17026,7 +17028,7 @@
         <v>310</v>
       </c>
       <c r="B283" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="C283" t="s">
         <v>1526</v>
@@ -17046,7 +17048,7 @@
         <v>311</v>
       </c>
       <c r="B284" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="C284" t="s">
         <v>1527</v>
@@ -17066,7 +17068,7 @@
         <v>312</v>
       </c>
       <c r="B285" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="C285" t="s">
         <v>1528</v>
@@ -17086,7 +17088,7 @@
         <v>313</v>
       </c>
       <c r="B286" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="C286" t="s">
         <v>1529</v>
@@ -17106,7 +17108,7 @@
         <v>314</v>
       </c>
       <c r="B287" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="C287" t="s">
         <v>1530</v>
@@ -17126,7 +17128,7 @@
         <v>315</v>
       </c>
       <c r="B288" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="C288" t="s">
         <v>1531</v>
@@ -17146,7 +17148,7 @@
         <v>316</v>
       </c>
       <c r="B289" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="C289" t="s">
         <v>1532</v>
@@ -17166,7 +17168,7 @@
         <v>317</v>
       </c>
       <c r="B290" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="C290" t="s">
         <v>1533</v>
@@ -17186,7 +17188,7 @@
         <v>318</v>
       </c>
       <c r="B291" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="C291" t="s">
         <v>1534</v>
@@ -17206,7 +17208,7 @@
         <v>319</v>
       </c>
       <c r="B292" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="C292" t="s">
         <v>1535</v>
@@ -17226,7 +17228,7 @@
         <v>320</v>
       </c>
       <c r="B293" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="C293" t="s">
         <v>1536</v>
@@ -17246,7 +17248,7 @@
         <v>321</v>
       </c>
       <c r="B294" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="C294" t="s">
         <v>1537</v>
@@ -17266,7 +17268,7 @@
         <v>322</v>
       </c>
       <c r="B295" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C295" t="s">
         <v>1538</v>
@@ -17286,7 +17288,7 @@
         <v>323</v>
       </c>
       <c r="B296" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="C296" t="s">
         <v>1539</v>
@@ -17306,7 +17308,7 @@
         <v>324</v>
       </c>
       <c r="B297" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="C297" t="s">
         <v>1540</v>
@@ -17326,7 +17328,7 @@
         <v>325</v>
       </c>
       <c r="B298" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="C298" t="s">
         <v>1541</v>
@@ -17346,7 +17348,7 @@
         <v>326</v>
       </c>
       <c r="B299" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="C299" t="s">
         <v>1542</v>
@@ -17366,7 +17368,7 @@
         <v>327</v>
       </c>
       <c r="B300" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="C300" t="s">
         <v>1543</v>
@@ -17386,7 +17388,7 @@
         <v>328</v>
       </c>
       <c r="B301" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="C301" t="s">
         <v>1544</v>
@@ -17406,7 +17408,7 @@
         <v>329</v>
       </c>
       <c r="B302" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="C302" t="s">
         <v>1545</v>
@@ -17426,7 +17428,7 @@
         <v>330</v>
       </c>
       <c r="B303" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="C303" t="s">
         <v>1546</v>
@@ -17446,7 +17448,7 @@
         <v>331</v>
       </c>
       <c r="B304" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="C304" t="s">
         <v>1547</v>
@@ -17466,7 +17468,7 @@
         <v>332</v>
       </c>
       <c r="B305" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C305" t="s">
         <v>1548</v>
@@ -17486,7 +17488,7 @@
         <v>333</v>
       </c>
       <c r="B306" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="C306" t="s">
         <v>1549</v>
@@ -17506,7 +17508,7 @@
         <v>334</v>
       </c>
       <c r="B307" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="C307" t="s">
         <v>1550</v>
@@ -17526,7 +17528,7 @@
         <v>335</v>
       </c>
       <c r="B308" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="C308" t="s">
         <v>1551</v>
@@ -17546,7 +17548,7 @@
         <v>336</v>
       </c>
       <c r="B309" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="C309" t="s">
         <v>1552</v>
@@ -17566,7 +17568,7 @@
         <v>337</v>
       </c>
       <c r="B310" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="C310" t="s">
         <v>1553</v>
@@ -17586,7 +17588,7 @@
         <v>338</v>
       </c>
       <c r="B311" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="C311" t="s">
         <v>1554</v>
@@ -17606,7 +17608,7 @@
         <v>339</v>
       </c>
       <c r="B312" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="C312" t="s">
         <v>1555</v>
@@ -17626,7 +17628,7 @@
         <v>340</v>
       </c>
       <c r="B313" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="C313" t="s">
         <v>1556</v>
@@ -17646,7 +17648,7 @@
         <v>341</v>
       </c>
       <c r="B314" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="C314" t="s">
         <v>1557</v>
@@ -17666,7 +17668,7 @@
         <v>342</v>
       </c>
       <c r="B315" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="C315" t="s">
         <v>1558</v>
@@ -17686,7 +17688,7 @@
         <v>343</v>
       </c>
       <c r="B316" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="C316" t="s">
         <v>1559</v>
@@ -17706,7 +17708,7 @@
         <v>344</v>
       </c>
       <c r="B317" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="C317" t="s">
         <v>1560</v>
@@ -17726,7 +17728,7 @@
         <v>345</v>
       </c>
       <c r="B318" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="C318" t="s">
         <v>1561</v>
@@ -17746,7 +17748,7 @@
         <v>346</v>
       </c>
       <c r="B319" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="C319" t="s">
         <v>1562</v>
@@ -17766,7 +17768,7 @@
         <v>347</v>
       </c>
       <c r="B320" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="C320" t="s">
         <v>1563</v>
@@ -17786,7 +17788,7 @@
         <v>348</v>
       </c>
       <c r="B321" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="C321" t="s">
         <v>1564</v>
@@ -17806,7 +17808,7 @@
         <v>349</v>
       </c>
       <c r="B322" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="C322" t="s">
         <v>1565</v>
@@ -17826,7 +17828,7 @@
         <v>350</v>
       </c>
       <c r="B323" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="C323" t="s">
         <v>1566</v>
@@ -17846,7 +17848,7 @@
         <v>351</v>
       </c>
       <c r="B324" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="C324" t="s">
         <v>1567</v>
@@ -17866,7 +17868,7 @@
         <v>352</v>
       </c>
       <c r="B325" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C325" t="s">
         <v>1568</v>
@@ -17886,7 +17888,7 @@
         <v>353</v>
       </c>
       <c r="B326" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="C326" t="s">
         <v>1569</v>
@@ -17906,7 +17908,7 @@
         <v>354</v>
       </c>
       <c r="B327" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="C327" t="s">
         <v>1570</v>
@@ -17926,7 +17928,7 @@
         <v>355</v>
       </c>
       <c r="B328" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="C328" t="s">
         <v>1571</v>
@@ -17946,7 +17948,7 @@
         <v>356</v>
       </c>
       <c r="B329" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="C329" t="s">
         <v>1572</v>
@@ -17966,7 +17968,7 @@
         <v>357</v>
       </c>
       <c r="B330" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="C330" t="s">
         <v>1573</v>
@@ -17986,7 +17988,7 @@
         <v>358</v>
       </c>
       <c r="B331" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="C331" t="s">
         <v>1574</v>
@@ -18006,7 +18008,7 @@
         <v>359</v>
       </c>
       <c r="B332" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="C332" t="s">
         <v>1575</v>
@@ -18026,7 +18028,7 @@
         <v>360</v>
       </c>
       <c r="B333" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="C333" t="s">
         <v>1576</v>
@@ -18046,7 +18048,7 @@
         <v>361</v>
       </c>
       <c r="B334" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="C334" t="s">
         <v>1577</v>
@@ -18066,7 +18068,7 @@
         <v>362</v>
       </c>
       <c r="B335" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="C335" t="s">
         <v>1578</v>
@@ -18086,7 +18088,7 @@
         <v>363</v>
       </c>
       <c r="B336" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="C336" t="s">
         <v>1579</v>
@@ -18106,7 +18108,7 @@
         <v>364</v>
       </c>
       <c r="B337" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="C337" t="s">
         <v>1580</v>
@@ -18126,7 +18128,7 @@
         <v>365</v>
       </c>
       <c r="B338" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="C338" t="s">
         <v>1581</v>
@@ -18146,7 +18148,7 @@
         <v>366</v>
       </c>
       <c r="B339" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="C339" t="s">
         <v>1582</v>
@@ -18166,7 +18168,7 @@
         <v>367</v>
       </c>
       <c r="B340" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="C340" t="s">
         <v>1583</v>
@@ -18186,7 +18188,7 @@
         <v>368</v>
       </c>
       <c r="B341" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="C341" t="s">
         <v>1584</v>
@@ -18206,7 +18208,7 @@
         <v>369</v>
       </c>
       <c r="B342" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="C342" t="s">
         <v>1585</v>
@@ -18226,7 +18228,7 @@
         <v>370</v>
       </c>
       <c r="B343" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="C343" t="s">
         <v>1586</v>
@@ -18246,7 +18248,7 @@
         <v>371</v>
       </c>
       <c r="B344" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="C344" t="s">
         <v>1587</v>
@@ -18266,7 +18268,7 @@
         <v>372</v>
       </c>
       <c r="B345" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="C345" t="s">
         <v>1588</v>
@@ -18286,7 +18288,7 @@
         <v>373</v>
       </c>
       <c r="B346" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="C346" t="s">
         <v>1589</v>
@@ -18306,7 +18308,7 @@
         <v>374</v>
       </c>
       <c r="B347" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="C347" t="s">
         <v>1590</v>
@@ -18326,7 +18328,7 @@
         <v>375</v>
       </c>
       <c r="B348" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="C348" t="s">
         <v>1591</v>
@@ -18346,7 +18348,7 @@
         <v>376</v>
       </c>
       <c r="B349" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="C349" t="s">
         <v>1592</v>
@@ -18366,7 +18368,7 @@
         <v>377</v>
       </c>
       <c r="B350" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="C350" t="s">
         <v>1593</v>
@@ -18386,7 +18388,7 @@
         <v>378</v>
       </c>
       <c r="B351" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="C351" t="s">
         <v>1594</v>
@@ -18406,7 +18408,7 @@
         <v>379</v>
       </c>
       <c r="B352" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="C352" t="s">
         <v>1595</v>
@@ -18426,7 +18428,7 @@
         <v>380</v>
       </c>
       <c r="B353" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="C353" t="s">
         <v>1596</v>
@@ -18446,7 +18448,7 @@
         <v>381</v>
       </c>
       <c r="B354" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="C354" t="s">
         <v>1597</v>
@@ -18466,7 +18468,7 @@
         <v>382</v>
       </c>
       <c r="B355" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="C355" t="s">
         <v>1598</v>
@@ -18486,7 +18488,7 @@
         <v>383</v>
       </c>
       <c r="B356" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="C356" t="s">
         <v>1599</v>
@@ -18506,7 +18508,7 @@
         <v>384</v>
       </c>
       <c r="B357" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="C357" t="s">
         <v>1600</v>
@@ -18526,7 +18528,7 @@
         <v>385</v>
       </c>
       <c r="B358" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="C358" t="s">
         <v>1601</v>
@@ -18546,7 +18548,7 @@
         <v>386</v>
       </c>
       <c r="B359" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="C359" t="s">
         <v>1602</v>
@@ -18566,7 +18568,7 @@
         <v>387</v>
       </c>
       <c r="B360" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="C360" t="s">
         <v>1603</v>
@@ -18586,7 +18588,7 @@
         <v>388</v>
       </c>
       <c r="B361" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="C361" t="s">
         <v>1604</v>
@@ -18606,7 +18608,7 @@
         <v>389</v>
       </c>
       <c r="B362" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="C362" t="s">
         <v>1605</v>
@@ -18626,7 +18628,7 @@
         <v>390</v>
       </c>
       <c r="B363" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="C363" t="s">
         <v>1606</v>
@@ -18646,7 +18648,7 @@
         <v>391</v>
       </c>
       <c r="B364" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="C364" t="s">
         <v>1607</v>
@@ -18666,7 +18668,7 @@
         <v>392</v>
       </c>
       <c r="B365" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="C365" t="s">
         <v>1608</v>
@@ -18686,7 +18688,7 @@
         <v>393</v>
       </c>
       <c r="B366" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="C366" t="s">
         <v>1609</v>
@@ -18706,7 +18708,7 @@
         <v>394</v>
       </c>
       <c r="B367" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="C367" t="s">
         <v>1610</v>
@@ -18726,7 +18728,7 @@
         <v>395</v>
       </c>
       <c r="B368" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="C368" t="s">
         <v>1611</v>
@@ -18746,7 +18748,7 @@
         <v>396</v>
       </c>
       <c r="B369" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="C369" t="s">
         <v>1612</v>
@@ -18766,7 +18768,7 @@
         <v>397</v>
       </c>
       <c r="B370" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="C370" t="s">
         <v>1613</v>
@@ -18786,7 +18788,7 @@
         <v>398</v>
       </c>
       <c r="B371" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="C371" t="s">
         <v>1614</v>
@@ -18806,7 +18808,7 @@
         <v>399</v>
       </c>
       <c r="B372" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="C372" t="s">
         <v>1615</v>
@@ -18826,7 +18828,7 @@
         <v>400</v>
       </c>
       <c r="B373" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="C373" t="s">
         <v>1616</v>
@@ -18846,7 +18848,7 @@
         <v>401</v>
       </c>
       <c r="B374" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="C374" t="s">
         <v>1617</v>
@@ -18866,7 +18868,7 @@
         <v>402</v>
       </c>
       <c r="B375" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="C375" t="s">
         <v>1618</v>
@@ -18886,7 +18888,7 @@
         <v>403</v>
       </c>
       <c r="B376" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C376" t="s">
         <v>1619</v>
@@ -18906,7 +18908,7 @@
         <v>404</v>
       </c>
       <c r="B377" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="C377" t="s">
         <v>1620</v>
@@ -18926,7 +18928,7 @@
         <v>405</v>
       </c>
       <c r="B378" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="C378" t="s">
         <v>1621</v>
@@ -18946,7 +18948,7 @@
         <v>406</v>
       </c>
       <c r="B379" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="C379" t="s">
         <v>1622</v>
@@ -18966,7 +18968,7 @@
         <v>407</v>
       </c>
       <c r="B380" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="C380" t="s">
         <v>1623</v>
@@ -18986,7 +18988,7 @@
         <v>408</v>
       </c>
       <c r="B381" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="C381" t="s">
         <v>1624</v>
@@ -19006,7 +19008,7 @@
         <v>409</v>
       </c>
       <c r="B382" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="C382" t="s">
         <v>1625</v>
@@ -19026,7 +19028,7 @@
         <v>410</v>
       </c>
       <c r="B383" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="C383" t="s">
         <v>1626</v>
@@ -19046,7 +19048,7 @@
         <v>411</v>
       </c>
       <c r="B384" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="C384" t="s">
         <v>1627</v>
@@ -19066,7 +19068,7 @@
         <v>412</v>
       </c>
       <c r="B385" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="C385" t="s">
         <v>1628</v>
@@ -19086,7 +19088,7 @@
         <v>413</v>
       </c>
       <c r="B386" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="C386" t="s">
         <v>1629</v>
@@ -19106,7 +19108,7 @@
         <v>414</v>
       </c>
       <c r="B387" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="C387" t="s">
         <v>1630</v>
@@ -19126,7 +19128,7 @@
         <v>415</v>
       </c>
       <c r="B388" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="C388" t="s">
         <v>1631</v>
@@ -19146,7 +19148,7 @@
         <v>416</v>
       </c>
       <c r="B389" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="C389" t="s">
         <v>1632</v>
@@ -19166,7 +19168,7 @@
         <v>417</v>
       </c>
       <c r="B390" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="C390" t="s">
         <v>1633</v>
@@ -19186,7 +19188,7 @@
         <v>418</v>
       </c>
       <c r="B391" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="C391" t="s">
         <v>1634</v>
@@ -19206,7 +19208,7 @@
         <v>419</v>
       </c>
       <c r="B392" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="C392" t="s">
         <v>1635</v>
@@ -19226,7 +19228,7 @@
         <v>420</v>
       </c>
       <c r="B393" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="C393" t="s">
         <v>1636</v>
@@ -19246,7 +19248,7 @@
         <v>421</v>
       </c>
       <c r="B394" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="C394" t="s">
         <v>1637</v>
@@ -19266,7 +19268,7 @@
         <v>422</v>
       </c>
       <c r="B395" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="C395" t="s">
         <v>1638</v>
@@ -19286,7 +19288,7 @@
         <v>423</v>
       </c>
       <c r="B396" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="C396" t="s">
         <v>1639</v>
@@ -19306,7 +19308,7 @@
         <v>424</v>
       </c>
       <c r="B397" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="C397" t="s">
         <v>1640</v>
@@ -19326,7 +19328,7 @@
         <v>425</v>
       </c>
       <c r="B398" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="C398" t="s">
         <v>1641</v>
@@ -19346,7 +19348,7 @@
         <v>426</v>
       </c>
       <c r="B399" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="C399" t="s">
         <v>1642</v>
@@ -19366,7 +19368,7 @@
         <v>427</v>
       </c>
       <c r="B400" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C400" t="s">
         <v>1643</v>
@@ -19386,7 +19388,7 @@
         <v>428</v>
       </c>
       <c r="B401" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="C401" t="s">
         <v>1644</v>
@@ -19406,7 +19408,7 @@
         <v>429</v>
       </c>
       <c r="B402" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="C402" t="s">
         <v>1645</v>
@@ -19426,7 +19428,7 @@
         <v>430</v>
       </c>
       <c r="B403" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="C403" t="s">
         <v>1646</v>
@@ -19446,7 +19448,7 @@
         <v>431</v>
       </c>
       <c r="B404" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="C404" t="s">
         <v>1647</v>
@@ -19466,7 +19468,7 @@
         <v>432</v>
       </c>
       <c r="B405" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="C405" t="s">
         <v>1648</v>
@@ -19486,7 +19488,7 @@
         <v>433</v>
       </c>
       <c r="B406" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="C406" t="s">
         <v>1649</v>
@@ -19506,7 +19508,7 @@
         <v>434</v>
       </c>
       <c r="B407" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="C407" t="s">
         <v>1650</v>
@@ -19526,7 +19528,7 @@
         <v>435</v>
       </c>
       <c r="B408" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="C408" t="s">
         <v>1651</v>
@@ -19546,7 +19548,7 @@
         <v>436</v>
       </c>
       <c r="B409" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="C409" t="s">
         <v>1652</v>
@@ -19566,7 +19568,7 @@
         <v>437</v>
       </c>
       <c r="B410" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="C410" t="s">
         <v>1653</v>
@@ -19586,7 +19588,7 @@
         <v>438</v>
       </c>
       <c r="B411" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="C411" t="s">
         <v>1654</v>
@@ -19606,7 +19608,7 @@
         <v>439</v>
       </c>
       <c r="B412" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="C412" t="s">
         <v>1655</v>
@@ -19626,7 +19628,7 @@
         <v>440</v>
       </c>
       <c r="B413" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="C413">
         <v>76043</v>
@@ -19646,7 +19648,7 @@
         <v>441</v>
       </c>
       <c r="B414" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="C414" t="s">
         <v>1656</v>
@@ -19666,7 +19668,7 @@
         <v>442</v>
       </c>
       <c r="B415" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="C415" t="s">
         <v>1657</v>
@@ -19686,7 +19688,7 @@
         <v>443</v>
       </c>
       <c r="B416" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="C416">
         <v>75233</v>
@@ -19706,7 +19708,7 @@
         <v>444</v>
       </c>
       <c r="B417" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="C417">
         <v>76844</v>
@@ -19726,7 +19728,7 @@
         <v>445</v>
       </c>
       <c r="B418" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C418" t="s">
         <v>1658</v>
@@ -19746,7 +19748,7 @@
         <v>446</v>
       </c>
       <c r="B419" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="C419" t="s">
         <v>1659</v>
@@ -19766,7 +19768,7 @@
         <v>447</v>
       </c>
       <c r="B420" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C420" t="s">
         <v>1660</v>
@@ -19786,7 +19788,7 @@
         <v>448</v>
       </c>
       <c r="B421" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="C421" t="s">
         <v>1661</v>
@@ -19806,7 +19808,7 @@
         <v>449</v>
       </c>
       <c r="B422" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="C422" t="s">
         <v>1662</v>
@@ -19826,7 +19828,7 @@
         <v>450</v>
       </c>
       <c r="B423" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="C423" t="s">
         <v>1663</v>
@@ -19846,7 +19848,7 @@
         <v>451</v>
       </c>
       <c r="B424" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="C424" t="s">
         <v>1664</v>
@@ -19866,7 +19868,7 @@
         <v>452</v>
       </c>
       <c r="B425" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="C425" t="s">
         <v>1665</v>
@@ -19886,7 +19888,7 @@
         <v>453</v>
       </c>
       <c r="B426" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="C426" t="s">
         <v>1666</v>
@@ -19906,7 +19908,7 @@
         <v>454</v>
       </c>
       <c r="B427" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="C427" t="s">
         <v>1667</v>
@@ -19926,7 +19928,7 @@
         <v>455</v>
       </c>
       <c r="B428" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="C428" t="s">
         <v>1668</v>
@@ -19946,7 +19948,7 @@
         <v>456</v>
       </c>
       <c r="B429" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="C429" t="s">
         <v>1669</v>
@@ -19966,7 +19968,7 @@
         <v>457</v>
       </c>
       <c r="B430" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="C430" t="s">
         <v>1670</v>
@@ -19986,7 +19988,7 @@
         <v>458</v>
       </c>
       <c r="B431" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="C431" t="s">
         <v>1671</v>
@@ -20006,7 +20008,7 @@
         <v>459</v>
       </c>
       <c r="B432" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="C432" t="s">
         <v>1672</v>
@@ -20026,7 +20028,7 @@
         <v>460</v>
       </c>
       <c r="B433" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C433" t="s">
         <v>1673</v>
@@ -20046,7 +20048,7 @@
         <v>461</v>
       </c>
       <c r="B434" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C434" t="s">
         <v>1674</v>
@@ -20066,7 +20068,7 @@
         <v>462</v>
       </c>
       <c r="B435" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="C435" t="s">
         <v>1675</v>
@@ -20086,7 +20088,7 @@
         <v>463</v>
       </c>
       <c r="B436" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="C436">
         <v>78215</v>
@@ -20106,7 +20108,7 @@
         <v>464</v>
       </c>
       <c r="B437" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="C437" t="s">
         <v>1676</v>
@@ -20126,7 +20128,7 @@
         <v>465</v>
       </c>
       <c r="B438" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="C438" t="s">
         <v>1677</v>
@@ -20146,7 +20148,7 @@
         <v>466</v>
       </c>
       <c r="B439" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="C439" t="s">
         <v>1678</v>
@@ -20166,7 +20168,7 @@
         <v>467</v>
       </c>
       <c r="B440" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C440" t="s">
         <v>1679</v>
@@ -20186,7 +20188,7 @@
         <v>468</v>
       </c>
       <c r="B441" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="C441" t="s">
         <v>1680</v>
@@ -20206,7 +20208,7 @@
         <v>469</v>
       </c>
       <c r="B442" t="s">
-        <v>2873</v>
+        <v>3648</v>
       </c>
       <c r="C442" t="s">
         <v>1681</v>
@@ -20226,7 +20228,7 @@
         <v>470</v>
       </c>
       <c r="B443" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="C443" t="s">
         <v>1682</v>
@@ -20246,7 +20248,7 @@
         <v>471</v>
       </c>
       <c r="B444" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="C444" t="s">
         <v>1683</v>
@@ -20266,7 +20268,7 @@
         <v>472</v>
       </c>
       <c r="B445" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="C445" t="s">
         <v>1684</v>
@@ -20286,7 +20288,7 @@
         <v>473</v>
       </c>
       <c r="B446" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="C446" t="s">
         <v>1685</v>
@@ -20306,7 +20308,7 @@
         <v>474</v>
       </c>
       <c r="B447" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="C447" t="s">
         <v>1686</v>
@@ -20326,7 +20328,7 @@
         <v>475</v>
       </c>
       <c r="B448" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="C448" t="s">
         <v>1687</v>
@@ -20346,7 +20348,7 @@
         <v>476</v>
       </c>
       <c r="B449" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="C449" t="s">
         <v>1688</v>
@@ -20366,7 +20368,7 @@
         <v>477</v>
       </c>
       <c r="B450" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="C450">
         <v>77964</v>
@@ -20386,7 +20388,7 @@
         <v>478</v>
       </c>
       <c r="B451" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C451" t="s">
         <v>1689</v>
@@ -20406,7 +20408,7 @@
         <v>479</v>
       </c>
       <c r="B452" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="C452" t="s">
         <v>1690</v>
@@ -20426,7 +20428,7 @@
         <v>480</v>
       </c>
       <c r="B453" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="C453" t="s">
         <v>1691</v>
@@ -20446,7 +20448,7 @@
         <v>481</v>
       </c>
       <c r="B454" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="C454" t="s">
         <v>1692</v>
@@ -20466,7 +20468,7 @@
         <v>482</v>
       </c>
       <c r="B455" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="C455" t="s">
         <v>1693</v>
@@ -20486,7 +20488,7 @@
         <v>483</v>
       </c>
       <c r="B456" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="C456" t="s">
         <v>1694</v>
@@ -20506,7 +20508,7 @@
         <v>484</v>
       </c>
       <c r="B457" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="C457" t="s">
         <v>1695</v>
@@ -20526,7 +20528,7 @@
         <v>485</v>
       </c>
       <c r="B458" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C458" t="s">
         <v>1696</v>
@@ -20546,7 +20548,7 @@
         <v>486</v>
       </c>
       <c r="B459" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="C459" t="s">
         <v>1697</v>
@@ -20566,7 +20568,7 @@
         <v>487</v>
       </c>
       <c r="B460" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="C460" t="s">
         <v>1698</v>
@@ -20586,7 +20588,7 @@
         <v>488</v>
       </c>
       <c r="B461" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="C461" t="s">
         <v>1699</v>
@@ -20606,7 +20608,7 @@
         <v>489</v>
       </c>
       <c r="B462" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="C462" t="s">
         <v>1700</v>
@@ -20626,7 +20628,7 @@
         <v>490</v>
       </c>
       <c r="B463" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="C463" t="s">
         <v>1701</v>
@@ -20646,7 +20648,7 @@
         <v>491</v>
       </c>
       <c r="B464" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="C464" t="s">
         <v>1702</v>
@@ -20666,7 +20668,7 @@
         <v>492</v>
       </c>
       <c r="B465" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="C465" t="s">
         <v>1703</v>
@@ -20686,7 +20688,7 @@
         <v>492</v>
       </c>
       <c r="B466" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="C466" t="s">
         <v>1703</v>
@@ -20706,7 +20708,7 @@
         <v>492</v>
       </c>
       <c r="B467" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="C467" t="s">
         <v>1703</v>
@@ -20726,7 +20728,7 @@
         <v>492</v>
       </c>
       <c r="B468" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="C468" t="s">
         <v>1703</v>
@@ -20746,7 +20748,7 @@
         <v>492</v>
       </c>
       <c r="B469" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="C469" t="s">
         <v>1703</v>
@@ -20766,7 +20768,7 @@
         <v>492</v>
       </c>
       <c r="B470" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="C470" t="s">
         <v>1703</v>
@@ -20786,7 +20788,7 @@
         <v>492</v>
       </c>
       <c r="B471" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="C471" t="s">
         <v>1704</v>
@@ -20806,7 +20808,7 @@
         <v>493</v>
       </c>
       <c r="B472" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="C472" t="s">
         <v>1705</v>
@@ -20826,7 +20828,7 @@
         <v>494</v>
       </c>
       <c r="B473" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="C473" t="s">
         <v>1706</v>
@@ -20846,7 +20848,7 @@
         <v>495</v>
       </c>
       <c r="B474" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C474" t="s">
         <v>1707</v>
@@ -20866,7 +20868,7 @@
         <v>496</v>
       </c>
       <c r="B475" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="C475" t="s">
         <v>1708</v>
@@ -20886,7 +20888,7 @@
         <v>497</v>
       </c>
       <c r="B476" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="C476" t="s">
         <v>1709</v>
@@ -20906,7 +20908,7 @@
         <v>498</v>
       </c>
       <c r="B477" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="C477" t="s">
         <v>1710</v>
@@ -20926,7 +20928,7 @@
         <v>499</v>
       </c>
       <c r="B478" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C478" t="s">
         <v>1711</v>
@@ -20946,7 +20948,7 @@
         <v>500</v>
       </c>
       <c r="B479" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="C479" t="s">
         <v>1712</v>
@@ -20966,7 +20968,7 @@
         <v>501</v>
       </c>
       <c r="B480" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="C480" t="s">
         <v>1713</v>
@@ -20986,7 +20988,7 @@
         <v>502</v>
       </c>
       <c r="B481" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C481" t="s">
         <v>1714</v>
@@ -21006,7 +21008,7 @@
         <v>503</v>
       </c>
       <c r="B482" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="C482" t="s">
         <v>1715</v>
@@ -21026,7 +21028,7 @@
         <v>504</v>
       </c>
       <c r="B483" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="C483" t="s">
         <v>1716</v>
@@ -21046,7 +21048,7 @@
         <v>505</v>
       </c>
       <c r="B484" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="C484" t="s">
         <v>1717</v>
@@ -21066,7 +21068,7 @@
         <v>506</v>
       </c>
       <c r="B485" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="C485" t="s">
         <v>1718</v>
@@ -21086,7 +21088,7 @@
         <v>507</v>
       </c>
       <c r="B486" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="C486" t="s">
         <v>1719</v>
@@ -21106,7 +21108,7 @@
         <v>508</v>
       </c>
       <c r="B487" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="C487" t="s">
         <v>1720</v>
@@ -21126,7 +21128,7 @@
         <v>509</v>
       </c>
       <c r="B488" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="C488" t="s">
         <v>1721</v>
@@ -21146,7 +21148,7 @@
         <v>510</v>
       </c>
       <c r="B489" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="C489" t="s">
         <v>1722</v>
@@ -21166,7 +21168,7 @@
         <v>511</v>
       </c>
       <c r="B490" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="C490" t="s">
         <v>1723</v>
@@ -21186,7 +21188,7 @@
         <v>512</v>
       </c>
       <c r="B491" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="C491" t="s">
         <v>1724</v>
@@ -21206,7 +21208,7 @@
         <v>513</v>
       </c>
       <c r="B492" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="C492" t="s">
         <v>1725</v>
@@ -21226,7 +21228,7 @@
         <v>514</v>
       </c>
       <c r="B493" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="C493" t="s">
         <v>1726</v>
@@ -21246,7 +21248,7 @@
         <v>515</v>
       </c>
       <c r="B494" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="C494" t="s">
         <v>1727</v>
@@ -21266,7 +21268,7 @@
         <v>516</v>
       </c>
       <c r="B495" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="C495" t="s">
         <v>1728</v>
@@ -21286,7 +21288,7 @@
         <v>517</v>
       </c>
       <c r="B496" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="C496" t="s">
         <v>1729</v>
@@ -21306,7 +21308,7 @@
         <v>518</v>
       </c>
       <c r="B497" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="C497" t="s">
         <v>1730</v>
@@ -21326,7 +21328,7 @@
         <v>519</v>
       </c>
       <c r="B498" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="C498" t="s">
         <v>1731</v>
@@ -21346,7 +21348,7 @@
         <v>520</v>
       </c>
       <c r="B499" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C499" t="s">
         <v>1732</v>
@@ -21366,7 +21368,7 @@
         <v>521</v>
       </c>
       <c r="B500" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="C500" t="s">
         <v>1733</v>
@@ -21386,7 +21388,7 @@
         <v>522</v>
       </c>
       <c r="B501" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="C501" t="s">
         <v>1734</v>
@@ -21406,7 +21408,7 @@
         <v>523</v>
       </c>
       <c r="B502" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="C502" t="s">
         <v>1735</v>
@@ -21426,7 +21428,7 @@
         <v>524</v>
       </c>
       <c r="B503" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="C503" t="s">
         <v>1736</v>
@@ -21446,7 +21448,7 @@
         <v>525</v>
       </c>
       <c r="B504" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="C504">
         <v>77563</v>
@@ -21466,7 +21468,7 @@
         <v>526</v>
       </c>
       <c r="B505" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="C505" t="s">
         <v>1737</v>
@@ -21486,7 +21488,7 @@
         <v>527</v>
       </c>
       <c r="B506" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="C506" t="s">
         <v>1738</v>
@@ -21506,7 +21508,7 @@
         <v>528</v>
       </c>
       <c r="B507" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="C507" t="s">
         <v>1739</v>
@@ -21526,7 +21528,7 @@
         <v>529</v>
       </c>
       <c r="B508" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="C508" t="s">
         <v>1740</v>
@@ -21546,7 +21548,7 @@
         <v>530</v>
       </c>
       <c r="B509" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="C509" t="s">
         <v>1741</v>
@@ -21566,7 +21568,7 @@
         <v>531</v>
       </c>
       <c r="B510" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="C510" t="s">
         <v>1742</v>
@@ -21586,7 +21588,7 @@
         <v>532</v>
       </c>
       <c r="B511" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="C511" t="s">
         <v>1743</v>
@@ -21606,7 +21608,7 @@
         <v>533</v>
       </c>
       <c r="B512" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="C512" t="s">
         <v>1744</v>
@@ -21626,7 +21628,7 @@
         <v>534</v>
       </c>
       <c r="B513" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="C513" t="s">
         <v>1745</v>
@@ -21646,7 +21648,7 @@
         <v>535</v>
       </c>
       <c r="B514" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="C514" t="s">
         <v>1746</v>
@@ -21666,7 +21668,7 @@
         <v>536</v>
       </c>
       <c r="B515" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="C515" t="s">
         <v>1747</v>
@@ -21686,7 +21688,7 @@
         <v>537</v>
       </c>
       <c r="B516" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="C516" t="s">
         <v>1748</v>
@@ -21706,7 +21708,7 @@
         <v>538</v>
       </c>
       <c r="B517" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="C517" t="s">
         <v>1749</v>
@@ -21726,7 +21728,7 @@
         <v>539</v>
       </c>
       <c r="B518" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="C518" t="s">
         <v>1750</v>
@@ -21746,7 +21748,7 @@
         <v>540</v>
       </c>
       <c r="B519" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="C519" t="s">
         <v>1751</v>
@@ -21766,7 +21768,7 @@
         <v>541</v>
       </c>
       <c r="B520" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="C520" t="s">
         <v>1752</v>
@@ -21786,7 +21788,7 @@
         <v>542</v>
       </c>
       <c r="B521" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="C521" t="s">
         <v>1753</v>
@@ -21806,7 +21808,7 @@
         <v>543</v>
       </c>
       <c r="B522" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="C522" t="s">
         <v>1754</v>
@@ -21826,7 +21828,7 @@
         <v>544</v>
       </c>
       <c r="B523" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="C523" t="s">
         <v>1755</v>
@@ -21846,7 +21848,7 @@
         <v>545</v>
       </c>
       <c r="B524" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="C524" t="s">
         <v>1756</v>
@@ -21866,7 +21868,7 @@
         <v>546</v>
       </c>
       <c r="B525" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C525" t="s">
         <v>1757</v>
@@ -21886,7 +21888,7 @@
         <v>547</v>
       </c>
       <c r="B526" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="C526" t="s">
         <v>1758</v>
@@ -21906,7 +21908,7 @@
         <v>548</v>
       </c>
       <c r="B527" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="C527" t="s">
         <v>1759</v>
@@ -21926,7 +21928,7 @@
         <v>549</v>
       </c>
       <c r="B528" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="C528" t="s">
         <v>1760</v>
@@ -21946,7 +21948,7 @@
         <v>550</v>
       </c>
       <c r="B529" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="C529" t="s">
         <v>1761</v>
@@ -21966,7 +21968,7 @@
         <v>551</v>
       </c>
       <c r="B530" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="C530" t="s">
         <v>1762</v>
@@ -21986,7 +21988,7 @@
         <v>552</v>
       </c>
       <c r="B531" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="C531" t="s">
         <v>1763</v>
@@ -22006,7 +22008,7 @@
         <v>553</v>
       </c>
       <c r="B532" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="C532" t="s">
         <v>1764</v>
@@ -22026,7 +22028,7 @@
         <v>554</v>
       </c>
       <c r="B533" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C533" t="s">
         <v>1765</v>
@@ -22046,7 +22048,7 @@
         <v>555</v>
       </c>
       <c r="B534" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="C534" t="s">
         <v>1766</v>
@@ -22066,7 +22068,7 @@
         <v>556</v>
       </c>
       <c r="B535" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="C535" t="s">
         <v>1767</v>
@@ -22086,7 +22088,7 @@
         <v>557</v>
       </c>
       <c r="B536" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="C536">
         <v>75081</v>
@@ -22106,7 +22108,7 @@
         <v>558</v>
       </c>
       <c r="B537" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="C537" t="s">
         <v>1768</v>
@@ -22126,7 +22128,7 @@
         <v>559</v>
       </c>
       <c r="B538" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="C538" t="s">
         <v>1769</v>
@@ -22146,7 +22148,7 @@
         <v>560</v>
       </c>
       <c r="B539" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="C539" t="s">
         <v>1770</v>
@@ -22166,7 +22168,7 @@
         <v>561</v>
       </c>
       <c r="B540" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="C540" t="s">
         <v>1771</v>
@@ -22186,7 +22188,7 @@
         <v>562</v>
       </c>
       <c r="B541" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="C541" t="s">
         <v>1772</v>
@@ -22206,7 +22208,7 @@
         <v>563</v>
       </c>
       <c r="B542" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="C542" t="s">
         <v>1773</v>
@@ -22226,7 +22228,7 @@
         <v>564</v>
       </c>
       <c r="B543" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="C543" t="s">
         <v>1774</v>
@@ -22246,7 +22248,7 @@
         <v>565</v>
       </c>
       <c r="B544" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="C544" t="s">
         <v>1775</v>
@@ -22266,7 +22268,7 @@
         <v>566</v>
       </c>
       <c r="B545" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="C545" t="s">
         <v>1776</v>
@@ -22286,7 +22288,7 @@
         <v>567</v>
       </c>
       <c r="B546" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C546" t="s">
         <v>1777</v>
@@ -22306,7 +22308,7 @@
         <v>568</v>
       </c>
       <c r="B547" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="C547" t="s">
         <v>1778</v>
@@ -22326,7 +22328,7 @@
         <v>569</v>
       </c>
       <c r="B548" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="C548" t="s">
         <v>1779</v>
@@ -22346,7 +22348,7 @@
         <v>570</v>
       </c>
       <c r="B549" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="C549" t="s">
         <v>1780</v>
@@ -22366,7 +22368,7 @@
         <v>571</v>
       </c>
       <c r="B550" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="C550" t="s">
         <v>1781</v>
@@ -22386,7 +22388,7 @@
         <v>572</v>
       </c>
       <c r="B551" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="C551" t="s">
         <v>1782</v>
@@ -22406,7 +22408,7 @@
         <v>573</v>
       </c>
       <c r="B552" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="C552" t="s">
         <v>1783</v>
@@ -22426,7 +22428,7 @@
         <v>574</v>
       </c>
       <c r="B553" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="C553" t="s">
         <v>1784</v>
@@ -22446,7 +22448,7 @@
         <v>575</v>
       </c>
       <c r="B554" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="C554" t="s">
         <v>1785</v>
@@ -22466,7 +22468,7 @@
         <v>576</v>
       </c>
       <c r="B555" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C555" t="s">
         <v>1786</v>
@@ -22486,7 +22488,7 @@
         <v>577</v>
       </c>
       <c r="B556" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="C556" t="s">
         <v>1787</v>
@@ -22506,7 +22508,7 @@
         <v>578</v>
       </c>
       <c r="B557" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="C557" t="s">
         <v>1788</v>
@@ -22526,7 +22528,7 @@
         <v>579</v>
       </c>
       <c r="B558" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="C558" t="s">
         <v>1789</v>
@@ -22546,7 +22548,7 @@
         <v>580</v>
       </c>
       <c r="B559" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="C559" t="s">
         <v>1790</v>
@@ -22566,7 +22568,7 @@
         <v>581</v>
       </c>
       <c r="B560" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="C560" t="s">
         <v>1791</v>
@@ -22586,7 +22588,7 @@
         <v>582</v>
       </c>
       <c r="B561" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="C561" t="s">
         <v>1792</v>
@@ -22606,7 +22608,7 @@
         <v>583</v>
       </c>
       <c r="B562" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="C562" t="s">
         <v>1793</v>
@@ -22626,7 +22628,7 @@
         <v>584</v>
       </c>
       <c r="B563" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="C563" t="s">
         <v>1794</v>
@@ -22646,7 +22648,7 @@
         <v>585</v>
       </c>
       <c r="B564" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="C564">
         <v>75661</v>
@@ -22666,7 +22668,7 @@
         <v>586</v>
       </c>
       <c r="B565" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="C565" t="s">
         <v>1795</v>
@@ -22686,7 +22688,7 @@
         <v>587</v>
       </c>
       <c r="B566" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="C566" t="s">
         <v>1796</v>
@@ -22706,7 +22708,7 @@
         <v>588</v>
       </c>
       <c r="B567" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="C567" t="s">
         <v>1797</v>
@@ -22726,7 +22728,7 @@
         <v>589</v>
       </c>
       <c r="B568" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="C568" t="s">
         <v>1798</v>
@@ -22746,7 +22748,7 @@
         <v>590</v>
       </c>
       <c r="B569" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="C569" t="s">
         <v>1799</v>
@@ -22766,7 +22768,7 @@
         <v>591</v>
       </c>
       <c r="B570" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="C570" t="s">
         <v>1800</v>
@@ -22786,7 +22788,7 @@
         <v>592</v>
       </c>
       <c r="B571" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="C571" t="s">
         <v>1801</v>
@@ -22806,7 +22808,7 @@
         <v>593</v>
       </c>
       <c r="B572" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="C572" t="s">
         <v>1802</v>
@@ -22826,7 +22828,7 @@
         <v>594</v>
       </c>
       <c r="B573" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C573" t="s">
         <v>1803</v>
@@ -22846,7 +22848,7 @@
         <v>595</v>
       </c>
       <c r="B574" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="C574" t="s">
         <v>1804</v>
@@ -22866,7 +22868,7 @@
         <v>596</v>
       </c>
       <c r="B575" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="C575" t="s">
         <v>1805</v>
@@ -22886,7 +22888,7 @@
         <v>597</v>
       </c>
       <c r="B576" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="C576" t="s">
         <v>1806</v>
@@ -22906,7 +22908,7 @@
         <v>598</v>
       </c>
       <c r="B577" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="C577" t="s">
         <v>1807</v>
@@ -22926,7 +22928,7 @@
         <v>599</v>
       </c>
       <c r="B578" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="C578" t="s">
         <v>1808</v>
@@ -22946,7 +22948,7 @@
         <v>600</v>
       </c>
       <c r="B579" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="C579" t="s">
         <v>1809</v>
@@ -22966,7 +22968,7 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="C580" t="s">
         <v>1810</v>
@@ -22986,7 +22988,7 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="C581" t="s">
         <v>1811</v>
@@ -23006,7 +23008,7 @@
         <v>603</v>
       </c>
       <c r="B582" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="C582" t="s">
         <v>1812</v>
@@ -23026,7 +23028,7 @@
         <v>604</v>
       </c>
       <c r="B583" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="C583" t="s">
         <v>1813</v>
@@ -23046,7 +23048,7 @@
         <v>605</v>
       </c>
       <c r="B584" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="C584" t="s">
         <v>1814</v>
@@ -23066,7 +23068,7 @@
         <v>606</v>
       </c>
       <c r="B585" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="C585">
         <v>77074</v>
@@ -23086,7 +23088,7 @@
         <v>607</v>
       </c>
       <c r="B586" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="C586" t="s">
         <v>1815</v>
@@ -23106,7 +23108,7 @@
         <v>608</v>
       </c>
       <c r="B587" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="C587" t="s">
         <v>1816</v>
@@ -23126,7 +23128,7 @@
         <v>609</v>
       </c>
       <c r="B588" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="C588" t="s">
         <v>1817</v>
@@ -23146,7 +23148,7 @@
         <v>610</v>
       </c>
       <c r="B589" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="C589" t="s">
         <v>1818</v>
@@ -23166,7 +23168,7 @@
         <v>611</v>
       </c>
       <c r="B590" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="C590" t="s">
         <v>1819</v>
@@ -23186,7 +23188,7 @@
         <v>612</v>
       </c>
       <c r="B591" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="C591" t="s">
         <v>1820</v>
@@ -23206,7 +23208,7 @@
         <v>613</v>
       </c>
       <c r="B592" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="C592" t="s">
         <v>1821</v>
@@ -23226,7 +23228,7 @@
         <v>614</v>
       </c>
       <c r="B593" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="C593" t="s">
         <v>1822</v>
@@ -23246,7 +23248,7 @@
         <v>615</v>
       </c>
       <c r="B594" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="C594" t="s">
         <v>1823</v>
@@ -23266,7 +23268,7 @@
         <v>616</v>
       </c>
       <c r="B595" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="C595" t="s">
         <v>1824</v>
@@ -23286,7 +23288,7 @@
         <v>617</v>
       </c>
       <c r="B596" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="C596" t="s">
         <v>1825</v>
@@ -23306,7 +23308,7 @@
         <v>618</v>
       </c>
       <c r="B597" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="C597" t="s">
         <v>1826</v>
@@ -23326,7 +23328,7 @@
         <v>619</v>
       </c>
       <c r="B598" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="C598" t="s">
         <v>1827</v>
@@ -23346,7 +23348,7 @@
         <v>620</v>
       </c>
       <c r="B599" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="C599" t="s">
         <v>1828</v>
@@ -23366,7 +23368,7 @@
         <v>621</v>
       </c>
       <c r="B600" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="C600" t="s">
         <v>1829</v>
@@ -23386,7 +23388,7 @@
         <v>622</v>
       </c>
       <c r="B601" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="C601" t="s">
         <v>1830</v>
@@ -23406,7 +23408,7 @@
         <v>623</v>
       </c>
       <c r="B602" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="C602" t="s">
         <v>1831</v>
@@ -23426,7 +23428,7 @@
         <v>624</v>
       </c>
       <c r="B603" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="C603" t="s">
         <v>1832</v>
@@ -23446,7 +23448,7 @@
         <v>625</v>
       </c>
       <c r="B604" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="C604">
         <v>78872</v>
@@ -23466,7 +23468,7 @@
         <v>626</v>
       </c>
       <c r="B605" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="C605" t="s">
         <v>1833</v>
@@ -23486,7 +23488,7 @@
         <v>627</v>
       </c>
       <c r="B606" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="C606" t="s">
         <v>1834</v>
@@ -23506,7 +23508,7 @@
         <v>628</v>
       </c>
       <c r="B607" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="C607" t="s">
         <v>1835</v>
@@ -23526,7 +23528,7 @@
         <v>629</v>
       </c>
       <c r="B608" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="C608">
         <v>78236</v>
@@ -23546,7 +23548,7 @@
         <v>630</v>
       </c>
       <c r="B609" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="C609" t="s">
         <v>1836</v>
@@ -23566,7 +23568,7 @@
         <v>631</v>
       </c>
       <c r="B610" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="C610" t="s">
         <v>1837</v>
@@ -23586,7 +23588,7 @@
         <v>632</v>
       </c>
       <c r="B611" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="C611" t="s">
         <v>1838</v>
@@ -23606,7 +23608,7 @@
         <v>633</v>
       </c>
       <c r="B612" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="C612" t="s">
         <v>1839</v>
@@ -23626,7 +23628,7 @@
         <v>634</v>
       </c>
       <c r="B613" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="C613" t="s">
         <v>1840</v>
@@ -23646,7 +23648,7 @@
         <v>635</v>
       </c>
       <c r="B614" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="C614" t="s">
         <v>1841</v>
@@ -23666,7 +23668,7 @@
         <v>636</v>
       </c>
       <c r="B615" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="C615" t="s">
         <v>1842</v>
@@ -23686,7 +23688,7 @@
         <v>637</v>
       </c>
       <c r="B616" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="C616" t="s">
         <v>1843</v>
@@ -23706,7 +23708,7 @@
         <v>638</v>
       </c>
       <c r="B617" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="C617" t="s">
         <v>1844</v>
@@ -23726,7 +23728,7 @@
         <v>639</v>
       </c>
       <c r="B618" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="C618" t="s">
         <v>1845</v>
@@ -23746,7 +23748,7 @@
         <v>640</v>
       </c>
       <c r="B619" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="C619" t="s">
         <v>1846</v>
@@ -23766,7 +23768,7 @@
         <v>641</v>
       </c>
       <c r="B620" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="C620" t="s">
         <v>1847</v>
@@ -23786,7 +23788,7 @@
         <v>642</v>
       </c>
       <c r="B621" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="C621" t="s">
         <v>1848</v>
@@ -23806,7 +23808,7 @@
         <v>643</v>
       </c>
       <c r="B622" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="C622" t="s">
         <v>1849</v>
@@ -23826,7 +23828,7 @@
         <v>644</v>
       </c>
       <c r="B623" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="C623" t="s">
         <v>1850</v>
@@ -23846,7 +23848,7 @@
         <v>645</v>
       </c>
       <c r="B624" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="C624" t="s">
         <v>1851</v>
@@ -23866,7 +23868,7 @@
         <v>646</v>
       </c>
       <c r="B625" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="C625" t="s">
         <v>1852</v>
@@ -23886,7 +23888,7 @@
         <v>647</v>
       </c>
       <c r="B626" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="C626" t="s">
         <v>1853</v>
@@ -23906,7 +23908,7 @@
         <v>648</v>
       </c>
       <c r="B627" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="C627" t="s">
         <v>1854</v>
@@ -23926,7 +23928,7 @@
         <v>649</v>
       </c>
       <c r="B628" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="C628">
         <v>75243</v>
@@ -23946,7 +23948,7 @@
         <v>650</v>
       </c>
       <c r="B629" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="C629" t="s">
         <v>1855</v>
@@ -23966,7 +23968,7 @@
         <v>651</v>
       </c>
       <c r="B630" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="C630" t="s">
         <v>1856</v>
@@ -23986,7 +23988,7 @@
         <v>652</v>
       </c>
       <c r="B631" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="C631" t="s">
         <v>1857</v>
@@ -24006,7 +24008,7 @@
         <v>653</v>
       </c>
       <c r="B632" t="s">
-        <v>3062</v>
+        <v>3649</v>
       </c>
       <c r="C632" t="s">
         <v>1858</v>
@@ -24026,7 +24028,7 @@
         <v>654</v>
       </c>
       <c r="B633" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="C633" t="s">
         <v>1859</v>
@@ -24046,7 +24048,7 @@
         <v>655</v>
       </c>
       <c r="B634" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="C634" t="s">
         <v>1860</v>
@@ -24066,7 +24068,7 @@
         <v>656</v>
       </c>
       <c r="B635" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="C635" t="s">
         <v>1861</v>
@@ -24086,7 +24088,7 @@
         <v>657</v>
       </c>
       <c r="B636" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="C636" t="s">
         <v>1862</v>
@@ -24106,7 +24108,7 @@
         <v>658</v>
       </c>
       <c r="B637" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="C637" t="s">
         <v>1863</v>
@@ -24126,7 +24128,7 @@
         <v>659</v>
       </c>
       <c r="B638" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="C638" t="s">
         <v>1864</v>
@@ -24146,7 +24148,7 @@
         <v>660</v>
       </c>
       <c r="B639" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="C639" t="s">
         <v>1865</v>
@@ -24166,7 +24168,7 @@
         <v>661</v>
       </c>
       <c r="B640" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="C640" t="s">
         <v>1866</v>
@@ -24186,7 +24188,7 @@
         <v>662</v>
       </c>
       <c r="B641" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C641" t="s">
         <v>1867</v>
@@ -24206,7 +24208,7 @@
         <v>663</v>
       </c>
       <c r="B642" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="C642" t="s">
         <v>1868</v>
@@ -24226,7 +24228,7 @@
         <v>664</v>
       </c>
       <c r="B643" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="C643" t="s">
         <v>1869</v>
@@ -24246,7 +24248,7 @@
         <v>665</v>
       </c>
       <c r="B644" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="C644" t="s">
         <v>1870</v>
@@ -24266,7 +24268,7 @@
         <v>666</v>
       </c>
       <c r="B645" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="C645" t="s">
         <v>1871</v>
@@ -24286,7 +24288,7 @@
         <v>667</v>
       </c>
       <c r="B646" t="s">
-        <v>3076</v>
+        <v>3650</v>
       </c>
       <c r="C646">
         <v>75068</v>
@@ -24306,7 +24308,7 @@
         <v>668</v>
       </c>
       <c r="B647" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="C647" t="s">
         <v>1872</v>
@@ -24326,7 +24328,7 @@
         <v>669</v>
       </c>
       <c r="B648" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="C648" t="s">
         <v>1873</v>
@@ -24346,7 +24348,7 @@
         <v>670</v>
       </c>
       <c r="B649" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="C649" t="s">
         <v>1344</v>
@@ -24366,7 +24368,7 @@
         <v>671</v>
       </c>
       <c r="B650" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="C650" t="s">
         <v>1874</v>
@@ -24386,7 +24388,7 @@
         <v>672</v>
       </c>
       <c r="B651" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="C651" t="s">
         <v>1875</v>
@@ -24406,7 +24408,7 @@
         <v>673</v>
       </c>
       <c r="B652" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="C652" t="s">
         <v>1876</v>
@@ -24426,7 +24428,7 @@
         <v>674</v>
       </c>
       <c r="B653" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="C653" t="s">
         <v>1877</v>
@@ -24446,7 +24448,7 @@
         <v>675</v>
       </c>
       <c r="B654" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
       <c r="C654" t="s">
         <v>1878</v>
@@ -24466,7 +24468,7 @@
         <v>676</v>
       </c>
       <c r="B655" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
       <c r="C655" t="s">
         <v>1879</v>
@@ -24486,7 +24488,7 @@
         <v>677</v>
       </c>
       <c r="B656" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
       <c r="C656" t="s">
         <v>1880</v>
@@ -24506,7 +24508,7 @@
         <v>678</v>
       </c>
       <c r="B657" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="C657" t="s">
         <v>1881</v>
@@ -24526,7 +24528,7 @@
         <v>679</v>
       </c>
       <c r="B658" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
       <c r="C658" t="s">
         <v>1882</v>
@@ -24546,7 +24548,7 @@
         <v>680</v>
       </c>
       <c r="B659" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
       <c r="C659" t="s">
         <v>1883</v>
@@ -24566,7 +24568,7 @@
         <v>681</v>
       </c>
       <c r="B660" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="C660" t="s">
         <v>1884</v>
@@ -24586,7 +24588,7 @@
         <v>682</v>
       </c>
       <c r="B661" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
       <c r="C661" t="s">
         <v>1885</v>
@@ -24606,7 +24608,7 @@
         <v>683</v>
       </c>
       <c r="B662" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="C662" t="s">
         <v>1886</v>
@@ -24626,7 +24628,7 @@
         <v>684</v>
       </c>
       <c r="B663" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="C663" t="s">
         <v>1887</v>
@@ -24646,7 +24648,7 @@
         <v>685</v>
       </c>
       <c r="B664" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="C664" t="s">
         <v>1888</v>
@@ -24666,7 +24668,7 @@
         <v>686</v>
       </c>
       <c r="B665" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="C665" t="s">
         <v>1889</v>
@@ -24686,7 +24688,7 @@
         <v>687</v>
       </c>
       <c r="B666" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="C666">
         <v>75851</v>
@@ -24706,7 +24708,7 @@
         <v>688</v>
       </c>
       <c r="B667" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="C667" t="s">
         <v>1890</v>
@@ -24726,7 +24728,7 @@
         <v>689</v>
       </c>
       <c r="B668" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
       <c r="C668" t="s">
         <v>1891</v>
@@ -24746,7 +24748,7 @@
         <v>690</v>
       </c>
       <c r="B669" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
       <c r="C669" t="s">
         <v>1892</v>
@@ -24766,7 +24768,7 @@
         <v>691</v>
       </c>
       <c r="B670" t="s">
-        <v>3100</v>
+        <v>3095</v>
       </c>
       <c r="C670" t="s">
         <v>1893</v>
@@ -24786,7 +24788,7 @@
         <v>692</v>
       </c>
       <c r="B671" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="C671" t="s">
         <v>1894</v>
@@ -24806,7 +24808,7 @@
         <v>693</v>
       </c>
       <c r="B672" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="C672" t="s">
         <v>1895</v>
@@ -24826,7 +24828,7 @@
         <v>694</v>
       </c>
       <c r="B673" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
       <c r="C673" t="s">
         <v>1896</v>
@@ -24846,7 +24848,7 @@
         <v>695</v>
       </c>
       <c r="B674" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="C674" t="s">
         <v>1897</v>
@@ -24866,7 +24868,7 @@
         <v>696</v>
       </c>
       <c r="B675" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="C675" t="s">
         <v>1424</v>
@@ -24886,7 +24888,7 @@
         <v>697</v>
       </c>
       <c r="B676" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="C676" t="s">
         <v>1898</v>
@@ -24906,7 +24908,7 @@
         <v>698</v>
       </c>
       <c r="B677" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="C677" t="s">
         <v>1899</v>
@@ -24926,7 +24928,7 @@
         <v>699</v>
       </c>
       <c r="B678" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="C678" t="s">
         <v>1900</v>
@@ -24946,7 +24948,7 @@
         <v>700</v>
       </c>
       <c r="B679" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="C679" t="s">
         <v>1901</v>
@@ -24966,7 +24968,7 @@
         <v>701</v>
       </c>
       <c r="B680" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="C680" t="s">
         <v>1902</v>
@@ -24986,7 +24988,7 @@
         <v>702</v>
       </c>
       <c r="B681" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="C681" t="s">
         <v>1903</v>
@@ -25006,7 +25008,7 @@
         <v>703</v>
       </c>
       <c r="B682" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="C682" t="s">
         <v>1904</v>
@@ -25026,7 +25028,7 @@
         <v>704</v>
       </c>
       <c r="B683" t="s">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="C683" t="s">
         <v>1905</v>
@@ -25046,7 +25048,7 @@
         <v>705</v>
       </c>
       <c r="B684" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="C684" t="s">
         <v>1906</v>
@@ -25066,7 +25068,7 @@
         <v>706</v>
       </c>
       <c r="B685" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
       <c r="C685" t="s">
         <v>1907</v>
@@ -25086,7 +25088,7 @@
         <v>707</v>
       </c>
       <c r="B686" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="C686" t="s">
         <v>1908</v>
@@ -25106,7 +25108,7 @@
         <v>708</v>
       </c>
       <c r="B687" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="C687" t="s">
         <v>1909</v>
@@ -25126,7 +25128,7 @@
         <v>709</v>
       </c>
       <c r="B688" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="C688" t="s">
         <v>1910</v>
@@ -25146,7 +25148,7 @@
         <v>710</v>
       </c>
       <c r="B689" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="C689" t="s">
         <v>1911</v>
@@ -25166,7 +25168,7 @@
         <v>711</v>
       </c>
       <c r="B690" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
       <c r="C690" t="s">
         <v>1912</v>
@@ -25186,7 +25188,7 @@
         <v>712</v>
       </c>
       <c r="B691" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="C691" t="s">
         <v>1913</v>
@@ -25206,7 +25208,7 @@
         <v>713</v>
       </c>
       <c r="B692" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="C692" t="s">
         <v>1914</v>
@@ -25226,7 +25228,7 @@
         <v>714</v>
       </c>
       <c r="B693" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="C693" t="s">
         <v>1915</v>
@@ -25246,7 +25248,7 @@
         <v>715</v>
       </c>
       <c r="B694" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="C694" t="s">
         <v>1916</v>
@@ -25266,7 +25268,7 @@
         <v>716</v>
       </c>
       <c r="B695" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
       <c r="C695">
         <v>76856</v>
@@ -25286,7 +25288,7 @@
         <v>717</v>
       </c>
       <c r="B696" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
       <c r="C696" t="s">
         <v>1917</v>
@@ -25306,7 +25308,7 @@
         <v>718</v>
       </c>
       <c r="B697" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
       <c r="C697" t="s">
         <v>1918</v>
@@ -25326,7 +25328,7 @@
         <v>719</v>
       </c>
       <c r="B698" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
       <c r="C698" t="s">
         <v>1919</v>
@@ -25346,7 +25348,7 @@
         <v>720</v>
       </c>
       <c r="B699" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="C699" t="s">
         <v>1920</v>
@@ -25366,7 +25368,7 @@
         <v>721</v>
       </c>
       <c r="B700" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="C700" t="s">
         <v>1921</v>
@@ -25386,7 +25388,7 @@
         <v>722</v>
       </c>
       <c r="B701" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="C701" t="s">
         <v>1922</v>
@@ -25406,7 +25408,7 @@
         <v>723</v>
       </c>
       <c r="B702" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="C702" t="s">
         <v>1923</v>
@@ -25426,7 +25428,7 @@
         <v>724</v>
       </c>
       <c r="B703" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="C703" t="s">
         <v>1924</v>
@@ -25446,7 +25448,7 @@
         <v>725</v>
       </c>
       <c r="B704" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="C704" t="s">
         <v>1925</v>
@@ -25466,7 +25468,7 @@
         <v>726</v>
       </c>
       <c r="B705" t="s">
-        <v>3135</v>
+        <v>3651</v>
       </c>
       <c r="C705" t="s">
         <v>1926</v>
@@ -25486,7 +25488,7 @@
         <v>727</v>
       </c>
       <c r="B706" t="s">
-        <v>3136</v>
+        <v>3652</v>
       </c>
       <c r="C706" t="s">
         <v>1927</v>
@@ -25506,7 +25508,7 @@
         <v>728</v>
       </c>
       <c r="B707" t="s">
-        <v>3137</v>
+        <v>3130</v>
       </c>
       <c r="C707" t="s">
         <v>1928</v>
@@ -25526,7 +25528,7 @@
         <v>729</v>
       </c>
       <c r="B708" t="s">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="C708" t="s">
         <v>1929</v>
@@ -25546,7 +25548,7 @@
         <v>730</v>
       </c>
       <c r="B709" t="s">
-        <v>3139</v>
+        <v>3653</v>
       </c>
       <c r="C709" t="s">
         <v>1930</v>
@@ -25566,7 +25568,7 @@
         <v>731</v>
       </c>
       <c r="B710" t="s">
-        <v>3140</v>
+        <v>3132</v>
       </c>
       <c r="C710" t="s">
         <v>1931</v>
@@ -25586,7 +25588,7 @@
         <v>732</v>
       </c>
       <c r="B711" t="s">
-        <v>3141</v>
+        <v>3133</v>
       </c>
       <c r="C711" t="s">
         <v>1932</v>
@@ -25606,7 +25608,7 @@
         <v>733</v>
       </c>
       <c r="B712" t="s">
-        <v>3142</v>
+        <v>3134</v>
       </c>
       <c r="C712" t="s">
         <v>1933</v>
@@ -25626,7 +25628,7 @@
         <v>734</v>
       </c>
       <c r="B713" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
       <c r="C713" t="s">
         <v>1934</v>
@@ -25646,7 +25648,7 @@
         <v>735</v>
       </c>
       <c r="B714" t="s">
-        <v>3144</v>
+        <v>3136</v>
       </c>
       <c r="C714" t="s">
         <v>1935</v>
@@ -25666,7 +25668,7 @@
         <v>736</v>
       </c>
       <c r="B715" t="s">
-        <v>3145</v>
+        <v>3137</v>
       </c>
       <c r="C715" t="s">
         <v>1936</v>
@@ -25686,7 +25688,7 @@
         <v>737</v>
       </c>
       <c r="B716" t="s">
-        <v>3146</v>
+        <v>3138</v>
       </c>
       <c r="C716" t="s">
         <v>1937</v>
@@ -25706,7 +25708,7 @@
         <v>738</v>
       </c>
       <c r="B717" t="s">
-        <v>3147</v>
+        <v>3139</v>
       </c>
       <c r="C717" t="s">
         <v>1938</v>
@@ -25726,7 +25728,7 @@
         <v>739</v>
       </c>
       <c r="B718" t="s">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="C718" t="s">
         <v>1939</v>
@@ -25746,7 +25748,7 @@
         <v>740</v>
       </c>
       <c r="B719" t="s">
-        <v>3149</v>
+        <v>3141</v>
       </c>
       <c r="C719" t="s">
         <v>1940</v>
@@ -25766,7 +25768,7 @@
         <v>741</v>
       </c>
       <c r="B720" t="s">
-        <v>3150</v>
+        <v>3142</v>
       </c>
       <c r="C720" t="s">
         <v>1941</v>
@@ -25786,7 +25788,7 @@
         <v>742</v>
       </c>
       <c r="B721" t="s">
-        <v>3151</v>
+        <v>3143</v>
       </c>
       <c r="C721" t="s">
         <v>1942</v>
@@ -25806,7 +25808,7 @@
         <v>743</v>
       </c>
       <c r="B722" t="s">
-        <v>3152</v>
+        <v>3144</v>
       </c>
       <c r="C722" t="s">
         <v>1943</v>
@@ -25826,7 +25828,7 @@
         <v>744</v>
       </c>
       <c r="B723" t="s">
-        <v>3153</v>
+        <v>3145</v>
       </c>
       <c r="C723" t="s">
         <v>1944</v>
@@ -25846,7 +25848,7 @@
         <v>745</v>
       </c>
       <c r="B724" t="s">
-        <v>3154</v>
+        <v>3146</v>
       </c>
       <c r="C724" t="s">
         <v>1945</v>
@@ -25866,7 +25868,7 @@
         <v>746</v>
       </c>
       <c r="B725" t="s">
-        <v>3155</v>
+        <v>3147</v>
       </c>
       <c r="C725" t="s">
         <v>1946</v>
@@ -25886,7 +25888,7 @@
         <v>747</v>
       </c>
       <c r="B726" t="s">
-        <v>3156</v>
+        <v>3148</v>
       </c>
       <c r="C726" t="s">
         <v>1947</v>
@@ -25906,7 +25908,7 @@
         <v>748</v>
       </c>
       <c r="B727" t="s">
-        <v>3157</v>
+        <v>3149</v>
       </c>
       <c r="C727" t="s">
         <v>1948</v>
@@ -25926,7 +25928,7 @@
         <v>749</v>
       </c>
       <c r="B728" t="s">
-        <v>3158</v>
+        <v>3150</v>
       </c>
       <c r="C728" t="s">
         <v>1949</v>
@@ -25946,7 +25948,7 @@
         <v>750</v>
       </c>
       <c r="B729" t="s">
-        <v>3159</v>
+        <v>3151</v>
       </c>
       <c r="C729" t="s">
         <v>1950</v>
@@ -25966,7 +25968,7 @@
         <v>751</v>
       </c>
       <c r="B730" t="s">
-        <v>3160</v>
+        <v>3152</v>
       </c>
       <c r="C730" t="s">
         <v>1951</v>
@@ -25986,7 +25988,7 @@
         <v>752</v>
       </c>
       <c r="B731" t="s">
-        <v>3161</v>
+        <v>3153</v>
       </c>
       <c r="C731" t="s">
         <v>1952</v>
@@ -26006,7 +26008,7 @@
         <v>753</v>
       </c>
       <c r="B732" t="s">
-        <v>3162</v>
+        <v>3154</v>
       </c>
       <c r="C732" t="s">
         <v>1953</v>
@@ -26026,7 +26028,7 @@
         <v>754</v>
       </c>
       <c r="B733" t="s">
-        <v>3163</v>
+        <v>3155</v>
       </c>
       <c r="C733" t="s">
         <v>1954</v>
@@ -26046,7 +26048,7 @@
         <v>755</v>
       </c>
       <c r="B734" t="s">
-        <v>3164</v>
+        <v>3156</v>
       </c>
       <c r="C734" t="s">
         <v>1955</v>
@@ -26066,7 +26068,7 @@
         <v>756</v>
       </c>
       <c r="B735" t="s">
-        <v>3165</v>
+        <v>3157</v>
       </c>
       <c r="C735" t="s">
         <v>1956</v>
@@ -26086,7 +26088,7 @@
         <v>757</v>
       </c>
       <c r="B736" t="s">
-        <v>3166</v>
+        <v>3158</v>
       </c>
       <c r="C736" t="s">
         <v>1957</v>
@@ -26106,7 +26108,7 @@
         <v>758</v>
       </c>
       <c r="B737" t="s">
-        <v>3167</v>
+        <v>3159</v>
       </c>
       <c r="C737" t="s">
         <v>1958</v>
@@ -26126,7 +26128,7 @@
         <v>759</v>
       </c>
       <c r="B738" t="s">
-        <v>3168</v>
+        <v>3160</v>
       </c>
       <c r="C738" t="s">
         <v>1959</v>
@@ -26146,7 +26148,7 @@
         <v>760</v>
       </c>
       <c r="B739" t="s">
-        <v>3169</v>
+        <v>3161</v>
       </c>
       <c r="C739" t="s">
         <v>1960</v>
@@ -26166,7 +26168,7 @@
         <v>761</v>
       </c>
       <c r="B740" t="s">
-        <v>3170</v>
+        <v>3162</v>
       </c>
       <c r="C740" t="s">
         <v>1961</v>
@@ -26186,7 +26188,7 @@
         <v>762</v>
       </c>
       <c r="B741" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="C741" t="s">
         <v>1962</v>
@@ -26206,7 +26208,7 @@
         <v>763</v>
       </c>
       <c r="B742" t="s">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="C742" t="s">
         <v>1963</v>
@@ -26226,7 +26228,7 @@
         <v>764</v>
       </c>
       <c r="B743" t="s">
-        <v>3173</v>
+        <v>3165</v>
       </c>
       <c r="C743" t="s">
         <v>1964</v>
@@ -26246,7 +26248,7 @@
         <v>765</v>
       </c>
       <c r="B744" t="s">
-        <v>3174</v>
+        <v>3166</v>
       </c>
       <c r="C744">
         <v>77356</v>
@@ -26266,7 +26268,7 @@
         <v>766</v>
       </c>
       <c r="B745" t="s">
-        <v>3175</v>
+        <v>3167</v>
       </c>
       <c r="C745" t="s">
         <v>1965</v>
@@ -26286,7 +26288,7 @@
         <v>767</v>
       </c>
       <c r="B746" t="s">
-        <v>3176</v>
+        <v>3168</v>
       </c>
       <c r="C746" t="s">
         <v>1966</v>
@@ -26306,7 +26308,7 @@
         <v>768</v>
       </c>
       <c r="B747" t="s">
-        <v>3177</v>
+        <v>3169</v>
       </c>
       <c r="C747" t="s">
         <v>1967</v>
@@ -26326,7 +26328,7 @@
         <v>769</v>
       </c>
       <c r="B748" t="s">
-        <v>3178</v>
+        <v>3170</v>
       </c>
       <c r="C748" t="s">
         <v>1968</v>
@@ -26346,7 +26348,7 @@
         <v>770</v>
       </c>
       <c r="B749" t="s">
-        <v>3179</v>
+        <v>3171</v>
       </c>
       <c r="C749" t="s">
         <v>1969</v>
@@ -26366,7 +26368,7 @@
         <v>771</v>
       </c>
       <c r="B750" t="s">
-        <v>3180</v>
+        <v>3172</v>
       </c>
       <c r="C750" t="s">
         <v>1970</v>
@@ -26386,7 +26388,7 @@
         <v>772</v>
       </c>
       <c r="B751" t="s">
-        <v>3181</v>
+        <v>3173</v>
       </c>
       <c r="C751" t="s">
         <v>1971</v>
@@ -26406,7 +26408,7 @@
         <v>773</v>
       </c>
       <c r="B752" t="s">
-        <v>3182</v>
+        <v>3174</v>
       </c>
       <c r="C752" t="s">
         <v>1972</v>
@@ -26426,7 +26428,7 @@
         <v>774</v>
       </c>
       <c r="B753" t="s">
-        <v>3183</v>
+        <v>3175</v>
       </c>
       <c r="C753" t="s">
         <v>1973</v>
@@ -26446,7 +26448,7 @@
         <v>775</v>
       </c>
       <c r="B754" t="s">
-        <v>3184</v>
+        <v>3176</v>
       </c>
       <c r="C754" t="s">
         <v>1974</v>
@@ -26466,7 +26468,7 @@
         <v>776</v>
       </c>
       <c r="B755" t="s">
-        <v>3185</v>
+        <v>3177</v>
       </c>
       <c r="C755" t="s">
         <v>1975</v>
@@ -26486,7 +26488,7 @@
         <v>777</v>
       </c>
       <c r="B756" t="s">
-        <v>3186</v>
+        <v>3178</v>
       </c>
       <c r="C756" t="s">
         <v>1976</v>
@@ -26506,7 +26508,7 @@
         <v>778</v>
       </c>
       <c r="B757" t="s">
-        <v>3187</v>
+        <v>3179</v>
       </c>
       <c r="C757" t="s">
         <v>1977</v>
@@ -26526,7 +26528,7 @@
         <v>779</v>
       </c>
       <c r="B758" t="s">
-        <v>3188</v>
+        <v>3180</v>
       </c>
       <c r="C758" t="s">
         <v>1978</v>
@@ -26546,7 +26548,7 @@
         <v>780</v>
       </c>
       <c r="B759" t="s">
-        <v>3189</v>
+        <v>3181</v>
       </c>
       <c r="C759" t="s">
         <v>1979</v>
@@ -26566,7 +26568,7 @@
         <v>781</v>
       </c>
       <c r="B760" t="s">
-        <v>3190</v>
+        <v>3182</v>
       </c>
       <c r="C760" t="s">
         <v>1980</v>
@@ -26586,7 +26588,7 @@
         <v>782</v>
       </c>
       <c r="B761" t="s">
-        <v>3191</v>
+        <v>3183</v>
       </c>
       <c r="C761" t="s">
         <v>1981</v>
@@ -26606,7 +26608,7 @@
         <v>783</v>
       </c>
       <c r="B762" t="s">
-        <v>3192</v>
+        <v>3184</v>
       </c>
       <c r="C762" t="s">
         <v>1982</v>
@@ -26626,7 +26628,7 @@
         <v>784</v>
       </c>
       <c r="B763" t="s">
-        <v>3193</v>
+        <v>3185</v>
       </c>
       <c r="C763" t="s">
         <v>1983</v>
@@ -26646,7 +26648,7 @@
         <v>785</v>
       </c>
       <c r="B764" t="s">
-        <v>3194</v>
+        <v>3186</v>
       </c>
       <c r="C764" t="s">
         <v>1984</v>
@@ -26666,7 +26668,7 @@
         <v>786</v>
       </c>
       <c r="B765" t="s">
-        <v>3195</v>
+        <v>3187</v>
       </c>
       <c r="C765" t="s">
         <v>1985</v>
@@ -26686,7 +26688,7 @@
         <v>787</v>
       </c>
       <c r="B766" t="s">
-        <v>3196</v>
+        <v>3188</v>
       </c>
       <c r="C766" t="s">
         <v>1986</v>
@@ -26706,7 +26708,7 @@
         <v>788</v>
       </c>
       <c r="B767" t="s">
-        <v>3197</v>
+        <v>3189</v>
       </c>
       <c r="C767" t="s">
         <v>1987</v>
@@ -26726,7 +26728,7 @@
         <v>789</v>
       </c>
       <c r="B768" t="s">
-        <v>3198</v>
+        <v>3190</v>
       </c>
       <c r="C768" t="s">
         <v>1988</v>
@@ -26746,7 +26748,7 @@
         <v>790</v>
       </c>
       <c r="B769" t="s">
-        <v>3199</v>
+        <v>3191</v>
       </c>
       <c r="C769" t="s">
         <v>1989</v>
@@ -26766,7 +26768,7 @@
         <v>791</v>
       </c>
       <c r="B770" t="s">
-        <v>3200</v>
+        <v>3192</v>
       </c>
       <c r="C770" t="s">
         <v>1990</v>
@@ -26786,7 +26788,7 @@
         <v>792</v>
       </c>
       <c r="B771" t="s">
-        <v>3201</v>
+        <v>3193</v>
       </c>
       <c r="C771" t="s">
         <v>1991</v>
@@ -26806,7 +26808,7 @@
         <v>793</v>
       </c>
       <c r="B772" t="s">
-        <v>3202</v>
+        <v>3194</v>
       </c>
       <c r="C772" t="s">
         <v>1992</v>
@@ -26826,7 +26828,7 @@
         <v>794</v>
       </c>
       <c r="B773" t="s">
-        <v>3203</v>
+        <v>3195</v>
       </c>
       <c r="C773" t="s">
         <v>1993</v>
@@ -26846,7 +26848,7 @@
         <v>795</v>
       </c>
       <c r="B774" t="s">
-        <v>3204</v>
+        <v>3196</v>
       </c>
       <c r="C774" t="s">
         <v>1994</v>
@@ -26866,7 +26868,7 @@
         <v>796</v>
       </c>
       <c r="B775" t="s">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="C775" t="s">
         <v>1995</v>
@@ -26886,7 +26888,7 @@
         <v>797</v>
       </c>
       <c r="B776" t="s">
-        <v>3206</v>
+        <v>3198</v>
       </c>
       <c r="C776" t="s">
         <v>1996</v>
@@ -26906,7 +26908,7 @@
         <v>798</v>
       </c>
       <c r="B777" t="s">
-        <v>3207</v>
+        <v>3199</v>
       </c>
       <c r="C777" t="s">
         <v>1997</v>
@@ -26926,7 +26928,7 @@
         <v>799</v>
       </c>
       <c r="B778" t="s">
-        <v>3208</v>
+        <v>3200</v>
       </c>
       <c r="C778" t="s">
         <v>1998</v>
@@ -26946,7 +26948,7 @@
         <v>800</v>
       </c>
       <c r="B779" t="s">
-        <v>3209</v>
+        <v>3201</v>
       </c>
       <c r="C779" t="s">
         <v>1999</v>
@@ -26966,7 +26968,7 @@
         <v>801</v>
       </c>
       <c r="B780" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="C780" t="s">
         <v>2000</v>
@@ -26986,7 +26988,7 @@
         <v>802</v>
       </c>
       <c r="B781" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
       <c r="C781" t="s">
         <v>2001</v>
@@ -27006,7 +27008,7 @@
         <v>803</v>
       </c>
       <c r="B782" t="s">
-        <v>3212</v>
+        <v>3204</v>
       </c>
       <c r="C782" t="s">
         <v>2002</v>
@@ -27026,7 +27028,7 @@
         <v>804</v>
       </c>
       <c r="B783" t="s">
-        <v>3213</v>
+        <v>3205</v>
       </c>
       <c r="C783" t="s">
         <v>2003</v>
@@ -27046,7 +27048,7 @@
         <v>805</v>
       </c>
       <c r="B784" t="s">
-        <v>3214</v>
+        <v>3206</v>
       </c>
       <c r="C784" t="s">
         <v>2004</v>
@@ -27066,7 +27068,7 @@
         <v>806</v>
       </c>
       <c r="B785" t="s">
-        <v>3215</v>
+        <v>3207</v>
       </c>
       <c r="C785" t="s">
         <v>2005</v>
@@ -27086,7 +27088,7 @@
         <v>807</v>
       </c>
       <c r="B786" t="s">
-        <v>3216</v>
+        <v>3208</v>
       </c>
       <c r="C786" t="s">
         <v>2006</v>
@@ -27106,7 +27108,7 @@
         <v>808</v>
       </c>
       <c r="B787" t="s">
-        <v>3217</v>
+        <v>3209</v>
       </c>
       <c r="C787" t="s">
         <v>2007</v>
@@ -27126,7 +27128,7 @@
         <v>809</v>
       </c>
       <c r="B788" t="s">
-        <v>3218</v>
+        <v>3210</v>
       </c>
       <c r="C788" t="s">
         <v>2008</v>
@@ -27146,7 +27148,7 @@
         <v>810</v>
       </c>
       <c r="B789" t="s">
-        <v>3219</v>
+        <v>3211</v>
       </c>
       <c r="C789" t="s">
         <v>2009</v>
@@ -27166,7 +27168,7 @@
         <v>811</v>
       </c>
       <c r="B790" t="s">
-        <v>3220</v>
+        <v>3212</v>
       </c>
       <c r="C790" t="s">
         <v>2010</v>
@@ -27186,7 +27188,7 @@
         <v>812</v>
       </c>
       <c r="B791" t="s">
-        <v>3221</v>
+        <v>3213</v>
       </c>
       <c r="C791" t="s">
         <v>2011</v>
@@ -27206,7 +27208,7 @@
         <v>813</v>
       </c>
       <c r="B792" t="s">
-        <v>3222</v>
+        <v>3214</v>
       </c>
       <c r="C792" t="s">
         <v>2012</v>
@@ -27226,7 +27228,7 @@
         <v>814</v>
       </c>
       <c r="B793" t="s">
-        <v>3223</v>
+        <v>3215</v>
       </c>
       <c r="C793" t="s">
         <v>2013</v>
@@ -27246,7 +27248,7 @@
         <v>815</v>
       </c>
       <c r="B794" t="s">
-        <v>3224</v>
+        <v>3216</v>
       </c>
       <c r="C794" t="s">
         <v>2014</v>
@@ -27266,7 +27268,7 @@
         <v>816</v>
       </c>
       <c r="B795" t="s">
-        <v>3225</v>
+        <v>3217</v>
       </c>
       <c r="C795" t="s">
         <v>2015</v>
@@ -27286,7 +27288,7 @@
         <v>817</v>
       </c>
       <c r="B796" t="s">
-        <v>3226</v>
+        <v>3218</v>
       </c>
       <c r="C796" t="s">
         <v>2016</v>
@@ -27306,7 +27308,7 @@
         <v>818</v>
       </c>
       <c r="B797" t="s">
-        <v>3227</v>
+        <v>3219</v>
       </c>
       <c r="C797" t="s">
         <v>2017</v>
@@ -27326,7 +27328,7 @@
         <v>819</v>
       </c>
       <c r="B798" t="s">
-        <v>3228</v>
+        <v>3220</v>
       </c>
       <c r="C798" t="s">
         <v>2018</v>
@@ -27346,7 +27348,7 @@
         <v>820</v>
       </c>
       <c r="B799" t="s">
-        <v>3229</v>
+        <v>3221</v>
       </c>
       <c r="C799" t="s">
         <v>2019</v>
@@ -27366,7 +27368,7 @@
         <v>821</v>
       </c>
       <c r="B800" t="s">
-        <v>3230</v>
+        <v>3222</v>
       </c>
       <c r="C800" t="s">
         <v>2020</v>
@@ -27386,7 +27388,7 @@
         <v>822</v>
       </c>
       <c r="B801" t="s">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="C801" t="s">
         <v>2021</v>
@@ -27406,7 +27408,7 @@
         <v>823</v>
       </c>
       <c r="B802" t="s">
-        <v>3232</v>
+        <v>3224</v>
       </c>
       <c r="C802" t="s">
         <v>2022</v>
@@ -27426,7 +27428,7 @@
         <v>824</v>
       </c>
       <c r="B803" t="s">
-        <v>3233</v>
+        <v>3225</v>
       </c>
       <c r="C803" t="s">
         <v>2023</v>
@@ -27446,7 +27448,7 @@
         <v>825</v>
       </c>
       <c r="B804" t="s">
-        <v>3234</v>
+        <v>3654</v>
       </c>
       <c r="C804" t="s">
         <v>2024</v>
@@ -27466,7 +27468,7 @@
         <v>826</v>
       </c>
       <c r="B805" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="C805" t="s">
         <v>2025</v>
@@ -27486,7 +27488,7 @@
         <v>827</v>
       </c>
       <c r="B806" t="s">
-        <v>3236</v>
+        <v>3227</v>
       </c>
       <c r="C806" t="s">
         <v>2026</v>
@@ -27506,7 +27508,7 @@
         <v>828</v>
       </c>
       <c r="B807" t="s">
-        <v>3237</v>
+        <v>3228</v>
       </c>
       <c r="C807" t="s">
         <v>2027</v>
@@ -27526,7 +27528,7 @@
         <v>829</v>
       </c>
       <c r="B808" t="s">
-        <v>3238</v>
+        <v>3229</v>
       </c>
       <c r="C808" t="s">
         <v>2028</v>
@@ -27546,7 +27548,7 @@
         <v>830</v>
       </c>
       <c r="B809" t="s">
-        <v>3239</v>
+        <v>3656</v>
       </c>
       <c r="C809" t="s">
         <v>2029</v>
@@ -27566,7 +27568,7 @@
         <v>831</v>
       </c>
       <c r="B810" t="s">
-        <v>3240</v>
+        <v>3230</v>
       </c>
       <c r="C810" t="s">
         <v>2030</v>
@@ -27586,7 +27588,7 @@
         <v>832</v>
       </c>
       <c r="B811" t="s">
-        <v>3241</v>
+        <v>3231</v>
       </c>
       <c r="C811" t="s">
         <v>2031</v>
@@ -27606,7 +27608,7 @@
         <v>833</v>
       </c>
       <c r="B812" t="s">
-        <v>3242</v>
+        <v>3232</v>
       </c>
       <c r="C812" t="s">
         <v>2032</v>
@@ -27626,7 +27628,7 @@
         <v>834</v>
       </c>
       <c r="B813" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="C813" t="s">
         <v>2033</v>
@@ -27646,7 +27648,7 @@
         <v>835</v>
       </c>
       <c r="B814" t="s">
-        <v>3244</v>
+        <v>3234</v>
       </c>
       <c r="C814" t="s">
         <v>2034</v>
@@ -27666,7 +27668,7 @@
         <v>836</v>
       </c>
       <c r="B815" t="s">
-        <v>3245</v>
+        <v>3655</v>
       </c>
       <c r="C815">
         <v>76110</v>
@@ -27686,7 +27688,7 @@
         <v>837</v>
       </c>
       <c r="B816" t="s">
-        <v>3246</v>
+        <v>3235</v>
       </c>
       <c r="C816" t="s">
         <v>2035</v>
@@ -27706,7 +27708,7 @@
         <v>838</v>
       </c>
       <c r="B817" t="s">
-        <v>3247</v>
+        <v>3236</v>
       </c>
       <c r="C817" t="s">
         <v>2036</v>
@@ -27726,7 +27728,7 @@
         <v>839</v>
       </c>
       <c r="B818" t="s">
-        <v>3248</v>
+        <v>3237</v>
       </c>
       <c r="C818" t="s">
         <v>2037</v>
@@ -27746,7 +27748,7 @@
         <v>840</v>
       </c>
       <c r="B819" t="s">
-        <v>3249</v>
+        <v>3238</v>
       </c>
       <c r="C819" t="s">
         <v>2038</v>
@@ -27766,7 +27768,7 @@
         <v>841</v>
       </c>
       <c r="B820" t="s">
-        <v>3250</v>
+        <v>3239</v>
       </c>
       <c r="C820" t="s">
         <v>2039</v>
@@ -27786,7 +27788,7 @@
         <v>842</v>
       </c>
       <c r="B821" t="s">
-        <v>3251</v>
+        <v>3240</v>
       </c>
       <c r="C821" t="s">
         <v>2040</v>
@@ -27806,7 +27808,7 @@
         <v>843</v>
       </c>
       <c r="B822" t="s">
-        <v>3252</v>
+        <v>3241</v>
       </c>
       <c r="C822" t="s">
         <v>2041</v>
@@ -27826,7 +27828,7 @@
         <v>844</v>
       </c>
       <c r="B823" t="s">
-        <v>3253</v>
+        <v>3242</v>
       </c>
       <c r="C823" t="s">
         <v>2042</v>
@@ -27846,7 +27848,7 @@
         <v>845</v>
       </c>
       <c r="B824" t="s">
-        <v>3254</v>
+        <v>3243</v>
       </c>
       <c r="C824" t="s">
         <v>2043</v>
@@ -27866,7 +27868,7 @@
         <v>846</v>
       </c>
       <c r="B825" t="s">
-        <v>3255</v>
+        <v>3244</v>
       </c>
       <c r="C825" t="s">
         <v>2044</v>
@@ -27886,7 +27888,7 @@
         <v>847</v>
       </c>
       <c r="B826" t="s">
-        <v>3256</v>
+        <v>3245</v>
       </c>
       <c r="C826" t="s">
         <v>2045</v>
@@ -27906,7 +27908,7 @@
         <v>848</v>
       </c>
       <c r="B827" t="s">
-        <v>3257</v>
+        <v>3246</v>
       </c>
       <c r="C827" t="s">
         <v>2046</v>
@@ -27926,7 +27928,7 @@
         <v>849</v>
       </c>
       <c r="B828" t="s">
-        <v>3258</v>
+        <v>3247</v>
       </c>
       <c r="C828" t="s">
         <v>2047</v>
@@ -27946,7 +27948,7 @@
         <v>850</v>
       </c>
       <c r="B829" t="s">
-        <v>3259</v>
+        <v>3248</v>
       </c>
       <c r="C829" t="s">
         <v>2048</v>
@@ -27966,7 +27968,7 @@
         <v>851</v>
       </c>
       <c r="B830" t="s">
-        <v>3260</v>
+        <v>3249</v>
       </c>
       <c r="C830" t="s">
         <v>2049</v>
@@ -27986,7 +27988,7 @@
         <v>852</v>
       </c>
       <c r="B831" t="s">
-        <v>3261</v>
+        <v>3250</v>
       </c>
       <c r="C831" t="s">
         <v>2050</v>
@@ -28006,7 +28008,7 @@
         <v>853</v>
       </c>
       <c r="B832" t="s">
-        <v>3262</v>
+        <v>3251</v>
       </c>
       <c r="C832" t="s">
         <v>2051</v>
@@ -28026,7 +28028,7 @@
         <v>854</v>
       </c>
       <c r="B833" t="s">
-        <v>3263</v>
+        <v>3252</v>
       </c>
       <c r="C833" t="s">
         <v>2052</v>
@@ -28046,7 +28048,7 @@
         <v>855</v>
       </c>
       <c r="B834" t="s">
-        <v>3264</v>
+        <v>3253</v>
       </c>
       <c r="C834" t="s">
         <v>2053</v>
@@ -28066,7 +28068,7 @@
         <v>856</v>
       </c>
       <c r="B835" t="s">
-        <v>3265</v>
+        <v>3254</v>
       </c>
       <c r="C835" t="s">
         <v>2054</v>
@@ -28086,7 +28088,7 @@
         <v>857</v>
       </c>
       <c r="B836" t="s">
-        <v>3266</v>
+        <v>3255</v>
       </c>
       <c r="C836" t="s">
         <v>2055</v>
@@ -28106,7 +28108,7 @@
         <v>858</v>
       </c>
       <c r="B837" t="s">
-        <v>3267</v>
+        <v>3256</v>
       </c>
       <c r="C837" t="s">
         <v>2056</v>
@@ -28126,7 +28128,7 @@
         <v>859</v>
       </c>
       <c r="B838" t="s">
-        <v>3268</v>
+        <v>3257</v>
       </c>
       <c r="C838" t="s">
         <v>2057</v>
@@ -28146,7 +28148,7 @@
         <v>860</v>
       </c>
       <c r="B839" t="s">
-        <v>3269</v>
+        <v>3258</v>
       </c>
       <c r="C839" t="s">
         <v>2058</v>
@@ -28166,7 +28168,7 @@
         <v>861</v>
       </c>
       <c r="B840" t="s">
-        <v>3270</v>
+        <v>3259</v>
       </c>
       <c r="C840" t="s">
         <v>2059</v>
@@ -28186,7 +28188,7 @@
         <v>862</v>
       </c>
       <c r="B841" t="s">
-        <v>3271</v>
+        <v>3260</v>
       </c>
       <c r="C841" t="s">
         <v>2060</v>
@@ -28206,7 +28208,7 @@
         <v>863</v>
       </c>
       <c r="B842" t="s">
-        <v>3272</v>
+        <v>3261</v>
       </c>
       <c r="C842" t="s">
         <v>2061</v>
@@ -28226,7 +28228,7 @@
         <v>864</v>
       </c>
       <c r="B843" t="s">
-        <v>3273</v>
+        <v>3262</v>
       </c>
       <c r="C843" t="s">
         <v>2062</v>
@@ -28246,7 +28248,7 @@
         <v>865</v>
       </c>
       <c r="B844" t="s">
-        <v>3274</v>
+        <v>3263</v>
       </c>
       <c r="C844" t="s">
         <v>2063</v>
@@ -28266,7 +28268,7 @@
         <v>866</v>
       </c>
       <c r="B845" t="s">
-        <v>3275</v>
+        <v>3264</v>
       </c>
       <c r="C845" t="s">
         <v>2064</v>
@@ -28286,7 +28288,7 @@
         <v>867</v>
       </c>
       <c r="B846" t="s">
-        <v>3276</v>
+        <v>3265</v>
       </c>
       <c r="C846" t="s">
         <v>2065</v>
@@ -28306,7 +28308,7 @@
         <v>868</v>
       </c>
       <c r="B847" t="s">
-        <v>3277</v>
+        <v>3266</v>
       </c>
       <c r="C847">
         <v>75220</v>
@@ -28326,7 +28328,7 @@
         <v>869</v>
       </c>
       <c r="B848" t="s">
-        <v>3278</v>
+        <v>3267</v>
       </c>
       <c r="C848" t="s">
         <v>2066</v>
@@ -28346,7 +28348,7 @@
         <v>870</v>
       </c>
       <c r="B849" t="s">
-        <v>3279</v>
+        <v>3268</v>
       </c>
       <c r="C849" t="s">
         <v>2067</v>
@@ -28366,7 +28368,7 @@
         <v>871</v>
       </c>
       <c r="B850" t="s">
-        <v>3280</v>
+        <v>3269</v>
       </c>
       <c r="C850" t="s">
         <v>2068</v>
@@ -28386,7 +28388,7 @@
         <v>872</v>
       </c>
       <c r="B851" t="s">
-        <v>3281</v>
+        <v>3270</v>
       </c>
       <c r="C851" t="s">
         <v>2069</v>
@@ -28406,7 +28408,7 @@
         <v>873</v>
       </c>
       <c r="B852" t="s">
-        <v>3282</v>
+        <v>3271</v>
       </c>
       <c r="C852" t="s">
         <v>2070</v>
@@ -28426,7 +28428,7 @@
         <v>874</v>
       </c>
       <c r="B853" t="s">
-        <v>3283</v>
+        <v>3272</v>
       </c>
       <c r="C853" t="s">
         <v>2071</v>
@@ -28446,7 +28448,7 @@
         <v>875</v>
       </c>
       <c r="B854" t="s">
-        <v>3284</v>
+        <v>3273</v>
       </c>
       <c r="C854" t="s">
         <v>2072</v>
@@ -28466,7 +28468,7 @@
         <v>876</v>
       </c>
       <c r="B855" t="s">
-        <v>3285</v>
+        <v>3274</v>
       </c>
       <c r="C855" t="s">
         <v>2073</v>
@@ -28486,7 +28488,7 @@
         <v>877</v>
       </c>
       <c r="B856" t="s">
-        <v>3286</v>
+        <v>3275</v>
       </c>
       <c r="C856" t="s">
         <v>2074</v>
@@ -28506,7 +28508,7 @@
         <v>878</v>
       </c>
       <c r="B857" t="s">
-        <v>3287</v>
+        <v>3276</v>
       </c>
       <c r="C857" t="s">
         <v>2075</v>
@@ -28526,7 +28528,7 @@
         <v>879</v>
       </c>
       <c r="B858" t="s">
-        <v>3288</v>
+        <v>3277</v>
       </c>
       <c r="C858" t="s">
         <v>2076</v>
@@ -28546,7 +28548,7 @@
         <v>880</v>
       </c>
       <c r="B859" t="s">
-        <v>3289</v>
+        <v>3278</v>
       </c>
       <c r="C859" t="s">
         <v>2077</v>
@@ -28566,7 +28568,7 @@
         <v>881</v>
       </c>
       <c r="B860" t="s">
-        <v>3290</v>
+        <v>3279</v>
       </c>
       <c r="C860" t="s">
         <v>2078</v>
@@ -28586,7 +28588,7 @@
         <v>882</v>
       </c>
       <c r="B861" t="s">
-        <v>3291</v>
+        <v>3280</v>
       </c>
       <c r="C861" t="s">
         <v>2079</v>
@@ -28606,7 +28608,7 @@
         <v>883</v>
       </c>
       <c r="B862" t="s">
-        <v>3292</v>
+        <v>3281</v>
       </c>
       <c r="C862" t="s">
         <v>2080</v>
@@ -28626,7 +28628,7 @@
         <v>884</v>
       </c>
       <c r="B863" t="s">
-        <v>3293</v>
+        <v>3282</v>
       </c>
       <c r="C863" t="s">
         <v>2081</v>
@@ -28646,7 +28648,7 @@
         <v>885</v>
       </c>
       <c r="B864" t="s">
-        <v>3294</v>
+        <v>3283</v>
       </c>
       <c r="C864" t="s">
         <v>2082</v>
@@ -28666,7 +28668,7 @@
         <v>886</v>
       </c>
       <c r="B865" t="s">
-        <v>3295</v>
+        <v>3284</v>
       </c>
       <c r="C865" t="s">
         <v>2083</v>
@@ -28686,7 +28688,7 @@
         <v>887</v>
       </c>
       <c r="B866" t="s">
-        <v>3296</v>
+        <v>3285</v>
       </c>
       <c r="C866" t="s">
         <v>2084</v>
@@ -28706,7 +28708,7 @@
         <v>888</v>
       </c>
       <c r="B867" t="s">
-        <v>3297</v>
+        <v>3286</v>
       </c>
       <c r="C867" t="s">
         <v>2085</v>
@@ -28726,7 +28728,7 @@
         <v>889</v>
       </c>
       <c r="B868" t="s">
-        <v>3298</v>
+        <v>3287</v>
       </c>
       <c r="C868" t="s">
         <v>2086</v>
@@ -28746,7 +28748,7 @@
         <v>890</v>
       </c>
       <c r="B869" t="s">
-        <v>3299</v>
+        <v>3288</v>
       </c>
       <c r="C869" t="s">
         <v>2087</v>
@@ -28766,7 +28768,7 @@
         <v>891</v>
       </c>
       <c r="B870" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="C870" t="s">
         <v>2088</v>
@@ -28786,7 +28788,7 @@
         <v>892</v>
       </c>
       <c r="B871" t="s">
-        <v>3301</v>
+        <v>3290</v>
       </c>
       <c r="C871" t="s">
         <v>2089</v>
@@ -28806,7 +28808,7 @@
         <v>893</v>
       </c>
       <c r="B872" t="s">
-        <v>3302</v>
+        <v>3291</v>
       </c>
       <c r="C872" t="s">
         <v>2090</v>
@@ -28826,7 +28828,7 @@
         <v>894</v>
       </c>
       <c r="B873" t="s">
-        <v>3303</v>
+        <v>3292</v>
       </c>
       <c r="C873" t="s">
         <v>2091</v>
@@ -28846,7 +28848,7 @@
         <v>895</v>
       </c>
       <c r="B874" t="s">
-        <v>3304</v>
+        <v>3293</v>
       </c>
       <c r="C874">
         <v>78364</v>
@@ -28866,7 +28868,7 @@
         <v>896</v>
       </c>
       <c r="B875" t="s">
-        <v>3305</v>
+        <v>3294</v>
       </c>
       <c r="C875" t="s">
         <v>2092</v>
@@ -28886,7 +28888,7 @@
         <v>897</v>
       </c>
       <c r="B876" t="s">
-        <v>3306</v>
+        <v>3295</v>
       </c>
       <c r="C876" t="s">
         <v>2093</v>
@@ -28906,7 +28908,7 @@
         <v>898</v>
       </c>
       <c r="B877" t="s">
-        <v>3307</v>
+        <v>3296</v>
       </c>
       <c r="C877" t="s">
         <v>2094</v>
@@ -28926,7 +28928,7 @@
         <v>899</v>
       </c>
       <c r="B878" t="s">
-        <v>3308</v>
+        <v>3297</v>
       </c>
       <c r="C878" t="s">
         <v>2095</v>
@@ -28946,7 +28948,7 @@
         <v>900</v>
       </c>
       <c r="B879" t="s">
-        <v>3309</v>
+        <v>3298</v>
       </c>
       <c r="C879" t="s">
         <v>2096</v>
@@ -28966,7 +28968,7 @@
         <v>901</v>
       </c>
       <c r="B880" t="s">
-        <v>3310</v>
+        <v>3299</v>
       </c>
       <c r="C880" t="s">
         <v>2097</v>
@@ -28986,7 +28988,7 @@
         <v>902</v>
       </c>
       <c r="B881" t="s">
-        <v>3311</v>
+        <v>3300</v>
       </c>
       <c r="C881" t="s">
         <v>2098</v>
@@ -29006,7 +29008,7 @@
         <v>903</v>
       </c>
       <c r="B882" t="s">
-        <v>3312</v>
+        <v>3301</v>
       </c>
       <c r="C882" t="s">
         <v>2099</v>
@@ -29026,7 +29028,7 @@
         <v>904</v>
       </c>
       <c r="B883" t="s">
-        <v>3313</v>
+        <v>3302</v>
       </c>
       <c r="C883" t="s">
         <v>2100</v>
@@ -29046,7 +29048,7 @@
         <v>905</v>
       </c>
       <c r="B884" t="s">
-        <v>3314</v>
+        <v>3303</v>
       </c>
       <c r="C884" t="s">
         <v>2101</v>
@@ -29066,7 +29068,7 @@
         <v>906</v>
       </c>
       <c r="B885" t="s">
-        <v>3315</v>
+        <v>3304</v>
       </c>
       <c r="C885" t="s">
         <v>2102</v>
@@ -29086,7 +29088,7 @@
         <v>907</v>
       </c>
       <c r="B886" t="s">
-        <v>3316</v>
+        <v>3305</v>
       </c>
       <c r="C886" t="s">
         <v>2103</v>
@@ -29106,7 +29108,7 @@
         <v>908</v>
       </c>
       <c r="B887" t="s">
-        <v>3317</v>
+        <v>3306</v>
       </c>
       <c r="C887" t="s">
         <v>2104</v>
@@ -29126,7 +29128,7 @@
         <v>909</v>
       </c>
       <c r="B888" t="s">
-        <v>3318</v>
+        <v>3307</v>
       </c>
       <c r="C888" t="s">
         <v>2105</v>
@@ -29146,7 +29148,7 @@
         <v>910</v>
       </c>
       <c r="B889" t="s">
-        <v>3319</v>
+        <v>3308</v>
       </c>
       <c r="C889" t="s">
         <v>2433</v>
@@ -29166,7 +29168,7 @@
         <v>911</v>
       </c>
       <c r="B890" t="s">
-        <v>3320</v>
+        <v>3309</v>
       </c>
       <c r="C890" t="s">
         <v>2106</v>
@@ -29186,7 +29188,7 @@
         <v>912</v>
       </c>
       <c r="B891" t="s">
-        <v>3321</v>
+        <v>3310</v>
       </c>
       <c r="C891" t="s">
         <v>2107</v>
@@ -29206,7 +29208,7 @@
         <v>913</v>
       </c>
       <c r="B892" t="s">
-        <v>3322</v>
+        <v>3311</v>
       </c>
       <c r="C892" t="s">
         <v>2108</v>
@@ -29226,7 +29228,7 @@
         <v>914</v>
       </c>
       <c r="B893" t="s">
-        <v>3323</v>
+        <v>3312</v>
       </c>
       <c r="C893" t="s">
         <v>2109</v>
@@ -29246,7 +29248,7 @@
         <v>915</v>
       </c>
       <c r="B894" t="s">
-        <v>3324</v>
+        <v>3313</v>
       </c>
       <c r="C894" t="s">
         <v>2110</v>
@@ -29266,7 +29268,7 @@
         <v>916</v>
       </c>
       <c r="B895" t="s">
-        <v>3325</v>
+        <v>3314</v>
       </c>
       <c r="C895" t="s">
         <v>2111</v>
@@ -29286,7 +29288,7 @@
         <v>917</v>
       </c>
       <c r="B896" t="s">
-        <v>3326</v>
+        <v>3315</v>
       </c>
       <c r="C896" t="s">
         <v>2112</v>
@@ -29306,7 +29308,7 @@
         <v>918</v>
       </c>
       <c r="B897" t="s">
-        <v>3327</v>
+        <v>3316</v>
       </c>
       <c r="C897" t="s">
         <v>2113</v>
@@ -29326,7 +29328,7 @@
         <v>919</v>
       </c>
       <c r="B898" t="s">
-        <v>3328</v>
+        <v>3317</v>
       </c>
       <c r="C898" t="s">
         <v>2114</v>
@@ -29346,7 +29348,7 @@
         <v>920</v>
       </c>
       <c r="B899" t="s">
-        <v>3329</v>
+        <v>3318</v>
       </c>
       <c r="C899" t="s">
         <v>2115</v>
@@ -29366,7 +29368,7 @@
         <v>921</v>
       </c>
       <c r="B900" t="s">
-        <v>3330</v>
+        <v>3319</v>
       </c>
       <c r="C900" t="s">
         <v>2116</v>
@@ -29386,7 +29388,7 @@
         <v>922</v>
       </c>
       <c r="B901" t="s">
-        <v>3331</v>
+        <v>3320</v>
       </c>
       <c r="C901" t="s">
         <v>2117</v>
@@ -29406,7 +29408,7 @@
         <v>923</v>
       </c>
       <c r="B902" t="s">
-        <v>3332</v>
+        <v>3321</v>
       </c>
       <c r="C902" t="s">
         <v>2118</v>
@@ -29426,7 +29428,7 @@
         <v>924</v>
       </c>
       <c r="B903" t="s">
-        <v>3333</v>
+        <v>3322</v>
       </c>
       <c r="C903" t="s">
         <v>2119</v>
@@ -29446,7 +29448,7 @@
         <v>925</v>
       </c>
       <c r="B904" t="s">
-        <v>3334</v>
+        <v>3323</v>
       </c>
       <c r="C904" t="s">
         <v>2120</v>
@@ -29466,7 +29468,7 @@
         <v>926</v>
       </c>
       <c r="B905" t="s">
-        <v>3335</v>
+        <v>3324</v>
       </c>
       <c r="C905" t="s">
         <v>2121</v>
@@ -29486,7 +29488,7 @@
         <v>927</v>
       </c>
       <c r="B906" t="s">
-        <v>3336</v>
+        <v>3325</v>
       </c>
       <c r="C906" t="s">
         <v>2122</v>
@@ -29506,7 +29508,7 @@
         <v>928</v>
       </c>
       <c r="B907" t="s">
-        <v>3337</v>
+        <v>3326</v>
       </c>
       <c r="C907" t="s">
         <v>2123</v>
@@ -29526,7 +29528,7 @@
         <v>929</v>
       </c>
       <c r="B908" t="s">
-        <v>3338</v>
+        <v>3327</v>
       </c>
       <c r="C908" t="s">
         <v>2124</v>
@@ -29546,7 +29548,7 @@
         <v>930</v>
       </c>
       <c r="B909" t="s">
-        <v>3339</v>
+        <v>3328</v>
       </c>
       <c r="C909" t="s">
         <v>2125</v>
@@ -29566,7 +29568,7 @@
         <v>931</v>
       </c>
       <c r="B910" t="s">
-        <v>3340</v>
+        <v>3329</v>
       </c>
       <c r="C910" t="s">
         <v>2126</v>
@@ -29586,7 +29588,7 @@
         <v>931</v>
       </c>
       <c r="B911" t="s">
-        <v>3340</v>
+        <v>3329</v>
       </c>
       <c r="C911" t="s">
         <v>2126</v>
@@ -29606,7 +29608,7 @@
         <v>932</v>
       </c>
       <c r="B912" t="s">
-        <v>3341</v>
+        <v>3330</v>
       </c>
       <c r="C912" t="s">
         <v>2127</v>
@@ -29626,7 +29628,7 @@
         <v>933</v>
       </c>
       <c r="B913" t="s">
-        <v>3342</v>
+        <v>3331</v>
       </c>
       <c r="C913" t="s">
         <v>2128</v>
@@ -29646,7 +29648,7 @@
         <v>934</v>
       </c>
       <c r="B914" t="s">
-        <v>3343</v>
+        <v>3332</v>
       </c>
       <c r="C914" t="s">
         <v>2129</v>
@@ -29666,7 +29668,7 @@
         <v>935</v>
       </c>
       <c r="B915" t="s">
-        <v>3344</v>
+        <v>3333</v>
       </c>
       <c r="C915" t="s">
         <v>2130</v>
@@ -29686,7 +29688,7 @@
         <v>936</v>
       </c>
       <c r="B916" t="s">
-        <v>3345</v>
+        <v>3334</v>
       </c>
       <c r="C916" t="s">
         <v>2131</v>
@@ -29706,7 +29708,7 @@
         <v>937</v>
       </c>
       <c r="B917" t="s">
-        <v>3346</v>
+        <v>3335</v>
       </c>
       <c r="C917" t="s">
         <v>2132</v>
@@ -29726,7 +29728,7 @@
         <v>938</v>
       </c>
       <c r="B918" t="s">
-        <v>3347</v>
+        <v>3336</v>
       </c>
       <c r="C918" t="s">
         <v>2133</v>
@@ -29746,7 +29748,7 @@
         <v>939</v>
       </c>
       <c r="B919" t="s">
-        <v>3348</v>
+        <v>3337</v>
       </c>
       <c r="C919" t="s">
         <v>2134</v>
@@ -29766,7 +29768,7 @@
         <v>940</v>
       </c>
       <c r="B920" t="s">
-        <v>3349</v>
+        <v>3338</v>
       </c>
       <c r="C920" t="s">
         <v>2135</v>
@@ -29786,7 +29788,7 @@
         <v>941</v>
       </c>
       <c r="B921" t="s">
-        <v>3350</v>
+        <v>3339</v>
       </c>
       <c r="C921" t="s">
         <v>2136</v>
@@ -29806,7 +29808,7 @@
         <v>942</v>
       </c>
       <c r="B922" t="s">
-        <v>3351</v>
+        <v>3340</v>
       </c>
       <c r="C922" t="s">
         <v>2137</v>
@@ -29826,7 +29828,7 @@
         <v>943</v>
       </c>
       <c r="B923" t="s">
-        <v>3352</v>
+        <v>3341</v>
       </c>
       <c r="C923" t="s">
         <v>2138</v>
@@ -29846,7 +29848,7 @@
         <v>944</v>
       </c>
       <c r="B924" t="s">
-        <v>3353</v>
+        <v>3342</v>
       </c>
       <c r="C924" t="s">
         <v>2139</v>
@@ -29866,7 +29868,7 @@
         <v>945</v>
       </c>
       <c r="B925" t="s">
-        <v>3354</v>
+        <v>3343</v>
       </c>
       <c r="C925" t="s">
         <v>2140</v>
@@ -29886,7 +29888,7 @@
         <v>946</v>
       </c>
       <c r="B926" t="s">
-        <v>3355</v>
+        <v>3344</v>
       </c>
       <c r="C926" t="s">
         <v>2141</v>
@@ -29906,7 +29908,7 @@
         <v>947</v>
       </c>
       <c r="B927" t="s">
-        <v>3356</v>
+        <v>3345</v>
       </c>
       <c r="C927" t="s">
         <v>2142</v>
@@ -29926,7 +29928,7 @@
         <v>948</v>
       </c>
       <c r="B928" t="s">
-        <v>3357</v>
+        <v>3346</v>
       </c>
       <c r="C928" t="s">
         <v>2143</v>
@@ -29946,7 +29948,7 @@
         <v>949</v>
       </c>
       <c r="B929" t="s">
-        <v>3358</v>
+        <v>3347</v>
       </c>
       <c r="C929" t="s">
         <v>2144</v>
@@ -29966,7 +29968,7 @@
         <v>950</v>
       </c>
       <c r="B930" t="s">
-        <v>3359</v>
+        <v>3348</v>
       </c>
       <c r="C930" t="s">
         <v>2145</v>
@@ -29986,7 +29988,7 @@
         <v>951</v>
       </c>
       <c r="B931" t="s">
-        <v>3360</v>
+        <v>3349</v>
       </c>
       <c r="C931" t="s">
         <v>2146</v>
@@ -30006,7 +30008,7 @@
         <v>952</v>
       </c>
       <c r="B932" t="s">
-        <v>3361</v>
+        <v>3350</v>
       </c>
       <c r="C932" t="s">
         <v>2147</v>
@@ -30026,7 +30028,7 @@
         <v>953</v>
       </c>
       <c r="B933" t="s">
-        <v>3362</v>
+        <v>3351</v>
       </c>
       <c r="C933" t="s">
         <v>2148</v>
@@ -30046,7 +30048,7 @@
         <v>954</v>
       </c>
       <c r="B934" t="s">
-        <v>3363</v>
+        <v>3352</v>
       </c>
       <c r="C934" t="s">
         <v>2149</v>
@@ -30066,7 +30068,7 @@
         <v>955</v>
       </c>
       <c r="B935" t="s">
-        <v>3364</v>
+        <v>3353</v>
       </c>
       <c r="C935" t="s">
         <v>2150</v>
@@ -30086,7 +30088,7 @@
         <v>956</v>
       </c>
       <c r="B936" t="s">
-        <v>3365</v>
+        <v>3354</v>
       </c>
       <c r="C936" t="s">
         <v>2151</v>
@@ -30106,7 +30108,7 @@
         <v>957</v>
       </c>
       <c r="B937" t="s">
-        <v>3366</v>
+        <v>3355</v>
       </c>
       <c r="C937" t="s">
         <v>2152</v>
@@ -30126,7 +30128,7 @@
         <v>958</v>
       </c>
       <c r="B938" t="s">
-        <v>3367</v>
+        <v>3356</v>
       </c>
       <c r="C938" t="s">
         <v>2153</v>
@@ -30146,7 +30148,7 @@
         <v>959</v>
       </c>
       <c r="B939" t="s">
-        <v>3368</v>
+        <v>3357</v>
       </c>
       <c r="C939" t="s">
         <v>2154</v>
@@ -30166,7 +30168,7 @@
         <v>960</v>
       </c>
       <c r="B940" t="s">
-        <v>3369</v>
+        <v>3358</v>
       </c>
       <c r="C940" t="s">
         <v>2155</v>
@@ -30186,7 +30188,7 @@
         <v>961</v>
       </c>
       <c r="B941" t="s">
-        <v>3370</v>
+        <v>3359</v>
       </c>
       <c r="C941" t="s">
         <v>2156</v>
@@ -30206,7 +30208,7 @@
         <v>962</v>
       </c>
       <c r="B942" t="s">
-        <v>3371</v>
+        <v>3360</v>
       </c>
       <c r="C942" t="s">
         <v>2157</v>
@@ -30226,7 +30228,7 @@
         <v>963</v>
       </c>
       <c r="B943" t="s">
-        <v>3372</v>
+        <v>3361</v>
       </c>
       <c r="C943" t="s">
         <v>2158</v>
@@ -30246,7 +30248,7 @@
         <v>964</v>
       </c>
       <c r="B944" t="s">
-        <v>3373</v>
+        <v>3362</v>
       </c>
       <c r="C944" t="s">
         <v>2159</v>
@@ -30266,7 +30268,7 @@
         <v>965</v>
       </c>
       <c r="B945" t="s">
-        <v>3374</v>
+        <v>3363</v>
       </c>
       <c r="C945" t="s">
         <v>2160</v>
@@ -30286,7 +30288,7 @@
         <v>966</v>
       </c>
       <c r="B946" t="s">
-        <v>3375</v>
+        <v>3364</v>
       </c>
       <c r="C946" t="s">
         <v>2161</v>
@@ -30306,7 +30308,7 @@
         <v>967</v>
       </c>
       <c r="B947" t="s">
-        <v>3376</v>
+        <v>3365</v>
       </c>
       <c r="C947" t="s">
         <v>2162</v>
@@ -30326,7 +30328,7 @@
         <v>968</v>
       </c>
       <c r="B948" t="s">
-        <v>3377</v>
+        <v>3366</v>
       </c>
       <c r="C948" t="s">
         <v>2163</v>
@@ -30346,7 +30348,7 @@
         <v>969</v>
       </c>
       <c r="B949" t="s">
-        <v>3378</v>
+        <v>3367</v>
       </c>
       <c r="C949" t="s">
         <v>2164</v>
@@ -30366,7 +30368,7 @@
         <v>970</v>
       </c>
       <c r="B950" t="s">
-        <v>3379</v>
+        <v>3368</v>
       </c>
       <c r="C950" t="s">
         <v>2165</v>
@@ -30386,7 +30388,7 @@
         <v>971</v>
       </c>
       <c r="B951" t="s">
-        <v>3380</v>
+        <v>3369</v>
       </c>
       <c r="C951" t="s">
         <v>2166</v>
@@ -30406,7 +30408,7 @@
         <v>972</v>
       </c>
       <c r="B952" t="s">
-        <v>3381</v>
+        <v>3370</v>
       </c>
       <c r="C952" t="s">
         <v>2167</v>
@@ -30426,7 +30428,7 @@
         <v>973</v>
       </c>
       <c r="B953" t="s">
-        <v>3382</v>
+        <v>3371</v>
       </c>
       <c r="C953" t="s">
         <v>2168</v>
@@ -30446,7 +30448,7 @@
         <v>974</v>
       </c>
       <c r="B954" t="s">
-        <v>3383</v>
+        <v>3372</v>
       </c>
       <c r="C954" t="s">
         <v>2169</v>
@@ -30466,7 +30468,7 @@
         <v>975</v>
       </c>
       <c r="B955" t="s">
-        <v>3384</v>
+        <v>3373</v>
       </c>
       <c r="C955" t="s">
         <v>2170</v>
@@ -30486,7 +30488,7 @@
         <v>976</v>
       </c>
       <c r="B956" t="s">
-        <v>3385</v>
+        <v>3374</v>
       </c>
       <c r="C956" t="s">
         <v>2171</v>
@@ -30506,7 +30508,7 @@
         <v>977</v>
       </c>
       <c r="B957" t="s">
-        <v>3386</v>
+        <v>3375</v>
       </c>
       <c r="C957" t="s">
         <v>2172</v>
@@ -30526,7 +30528,7 @@
         <v>978</v>
       </c>
       <c r="B958" t="s">
-        <v>3387</v>
+        <v>3376</v>
       </c>
       <c r="C958" t="s">
         <v>2173</v>
@@ -30546,7 +30548,7 @@
         <v>979</v>
       </c>
       <c r="B959" t="s">
-        <v>3388</v>
+        <v>3377</v>
       </c>
       <c r="C959" t="s">
         <v>2174</v>
@@ -30566,7 +30568,7 @@
         <v>980</v>
       </c>
       <c r="B960" t="s">
-        <v>3389</v>
+        <v>3378</v>
       </c>
       <c r="C960" t="s">
         <v>2175</v>
@@ -30586,7 +30588,7 @@
         <v>981</v>
       </c>
       <c r="B961" t="s">
-        <v>3390</v>
+        <v>3379</v>
       </c>
       <c r="C961" t="s">
         <v>2176</v>
@@ -30606,7 +30608,7 @@
         <v>982</v>
       </c>
       <c r="B962" t="s">
-        <v>3391</v>
+        <v>3380</v>
       </c>
       <c r="C962" t="s">
         <v>2177</v>
@@ -30626,7 +30628,7 @@
         <v>983</v>
       </c>
       <c r="B963" t="s">
-        <v>3392</v>
+        <v>3381</v>
       </c>
       <c r="C963" t="s">
         <v>2178</v>
@@ -30646,7 +30648,7 @@
         <v>984</v>
       </c>
       <c r="B964" t="s">
-        <v>3393</v>
+        <v>3382</v>
       </c>
       <c r="C964" t="s">
         <v>2179</v>
@@ -30666,7 +30668,7 @@
         <v>985</v>
       </c>
       <c r="B965" t="s">
-        <v>3394</v>
+        <v>3383</v>
       </c>
       <c r="C965" t="s">
         <v>2180</v>
@@ -30686,7 +30688,7 @@
         <v>986</v>
       </c>
       <c r="B966" t="s">
-        <v>3395</v>
+        <v>3384</v>
       </c>
       <c r="C966" t="s">
         <v>2181</v>
@@ -30706,7 +30708,7 @@
         <v>987</v>
       </c>
       <c r="B967" t="s">
-        <v>3396</v>
+        <v>3385</v>
       </c>
       <c r="C967" t="s">
         <v>2182</v>
@@ -30726,7 +30728,7 @@
         <v>988</v>
       </c>
       <c r="B968" t="s">
-        <v>3397</v>
+        <v>3386</v>
       </c>
       <c r="C968" t="s">
         <v>2183</v>
@@ -30746,7 +30748,7 @@
         <v>989</v>
       </c>
       <c r="B969" t="s">
-        <v>3398</v>
+        <v>3387</v>
       </c>
       <c r="C969" t="s">
         <v>2184</v>
@@ -30766,7 +30768,7 @@
         <v>990</v>
       </c>
       <c r="B970" t="s">
-        <v>3399</v>
+        <v>3388</v>
       </c>
       <c r="C970" t="s">
         <v>2185</v>
@@ -30786,7 +30788,7 @@
         <v>991</v>
       </c>
       <c r="B971" t="s">
-        <v>3400</v>
+        <v>3389</v>
       </c>
       <c r="C971" t="s">
         <v>2186</v>
@@ -30806,7 +30808,7 @@
         <v>992</v>
       </c>
       <c r="B972" t="s">
-        <v>3401</v>
+        <v>3390</v>
       </c>
       <c r="C972" t="s">
         <v>2187</v>
@@ -30826,7 +30828,7 @@
         <v>993</v>
       </c>
       <c r="B973" t="s">
-        <v>3402</v>
+        <v>3391</v>
       </c>
       <c r="C973" t="s">
         <v>2188</v>
@@ -30846,7 +30848,7 @@
         <v>994</v>
       </c>
       <c r="B974" t="s">
-        <v>3403</v>
+        <v>3392</v>
       </c>
       <c r="C974" t="s">
         <v>2189</v>
@@ -30866,7 +30868,7 @@
         <v>995</v>
       </c>
       <c r="B975" t="s">
-        <v>3404</v>
+        <v>3393</v>
       </c>
       <c r="C975" t="s">
         <v>2190</v>
@@ -30886,7 +30888,7 @@
         <v>996</v>
       </c>
       <c r="B976" t="s">
-        <v>3405</v>
+        <v>3394</v>
       </c>
       <c r="C976" t="s">
         <v>2191</v>
@@ -30906,7 +30908,7 @@
         <v>997</v>
       </c>
       <c r="B977" t="s">
-        <v>3406</v>
+        <v>3395</v>
       </c>
       <c r="C977" t="s">
         <v>2192</v>
@@ -30926,7 +30928,7 @@
         <v>998</v>
       </c>
       <c r="B978" t="s">
-        <v>3407</v>
+        <v>3396</v>
       </c>
       <c r="C978" t="s">
         <v>2193</v>
@@ -30946,7 +30948,7 @@
         <v>999</v>
       </c>
       <c r="B979" t="s">
-        <v>3408</v>
+        <v>3397</v>
       </c>
       <c r="C979" t="s">
         <v>2194</v>
@@ -30966,7 +30968,7 @@
         <v>1000</v>
       </c>
       <c r="B980" t="s">
-        <v>3409</v>
+        <v>3398</v>
       </c>
       <c r="C980" t="s">
         <v>2195</v>
@@ -30986,7 +30988,7 @@
         <v>1001</v>
       </c>
       <c r="B981" t="s">
-        <v>3410</v>
+        <v>3399</v>
       </c>
       <c r="C981" t="s">
         <v>2196</v>
@@ -31006,7 +31008,7 @@
         <v>1002</v>
       </c>
       <c r="B982" t="s">
-        <v>3411</v>
+        <v>3400</v>
       </c>
       <c r="C982" t="s">
         <v>2197</v>
@@ -31026,7 +31028,7 @@
         <v>1003</v>
       </c>
       <c r="B983" t="s">
-        <v>3412</v>
+        <v>3401</v>
       </c>
       <c r="C983" t="s">
         <v>2198</v>
@@ -31046,7 +31048,7 @@
         <v>1004</v>
       </c>
       <c r="B984" t="s">
-        <v>3413</v>
+        <v>3402</v>
       </c>
       <c r="C984" t="s">
         <v>2199</v>
@@ -31066,7 +31068,7 @@
         <v>1005</v>
       </c>
       <c r="B985" t="s">
-        <v>3414</v>
+        <v>3403</v>
       </c>
       <c r="C985" t="s">
         <v>2200</v>
@@ -31086,7 +31088,7 @@
         <v>1006</v>
       </c>
       <c r="B986" t="s">
-        <v>3415</v>
+        <v>3404</v>
       </c>
       <c r="C986" t="s">
         <v>2201</v>
@@ -31106,7 +31108,7 @@
         <v>1007</v>
       </c>
       <c r="B987" t="s">
-        <v>3416</v>
+        <v>3405</v>
       </c>
       <c r="C987" t="s">
         <v>2202</v>
@@ -31126,7 +31128,7 @@
         <v>1008</v>
       </c>
       <c r="B988" t="s">
-        <v>3417</v>
+        <v>3406</v>
       </c>
       <c r="C988" t="s">
         <v>2203</v>
@@ -31146,7 +31148,7 @@
         <v>1009</v>
       </c>
       <c r="B989" t="s">
-        <v>3418</v>
+        <v>3407</v>
       </c>
       <c r="C989" t="s">
         <v>2204</v>
@@ -31166,7 +31168,7 @@
         <v>1010</v>
       </c>
       <c r="B990" t="s">
-        <v>3419</v>
+        <v>3408</v>
       </c>
       <c r="C990" t="s">
         <v>2205</v>
@@ -31186,7 +31188,7 @@
         <v>1011</v>
       </c>
       <c r="B991" t="s">
-        <v>3420</v>
+        <v>3409</v>
       </c>
       <c r="C991" t="s">
         <v>2206</v>
@@ -31206,7 +31208,7 @@
         <v>1012</v>
       </c>
       <c r="B992" t="s">
-        <v>3421</v>
+        <v>3410</v>
       </c>
       <c r="C992" t="s">
         <v>2207</v>
@@ -31226,7 +31228,7 @@
         <v>1013</v>
       </c>
       <c r="B993" t="s">
-        <v>3422</v>
+        <v>3411</v>
       </c>
       <c r="C993" t="s">
         <v>2208</v>
@@ -31246,7 +31248,7 @@
         <v>1014</v>
       </c>
       <c r="B994" t="s">
-        <v>3423</v>
+        <v>3412</v>
       </c>
       <c r="C994" t="s">
         <v>2209</v>
@@ -31266,7 +31268,7 @@
         <v>1015</v>
       </c>
       <c r="B995" t="s">
-        <v>3424</v>
+        <v>3413</v>
       </c>
       <c r="C995" t="s">
         <v>2210</v>
@@ -31286,7 +31288,7 @@
         <v>1016</v>
       </c>
       <c r="B996" t="s">
-        <v>3425</v>
+        <v>3414</v>
       </c>
       <c r="C996" t="s">
         <v>2211</v>
@@ -31306,7 +31308,7 @@
         <v>1017</v>
       </c>
       <c r="B997" t="s">
-        <v>3426</v>
+        <v>3415</v>
       </c>
       <c r="C997" t="s">
         <v>2212</v>
@@ -31326,7 +31328,7 @@
         <v>1018</v>
       </c>
       <c r="B998" t="s">
-        <v>3427</v>
+        <v>3416</v>
       </c>
       <c r="C998" t="s">
         <v>2213</v>
@@ -31346,7 +31348,7 @@
         <v>1019</v>
       </c>
       <c r="B999" t="s">
-        <v>3428</v>
+        <v>3657</v>
       </c>
       <c r="C999" t="s">
         <v>2214</v>
@@ -31366,7 +31368,7 @@
         <v>1020</v>
       </c>
       <c r="B1000" t="s">
-        <v>3429</v>
+        <v>3417</v>
       </c>
       <c r="C1000" t="s">
         <v>2215</v>
@@ -31386,7 +31388,7 @@
         <v>1021</v>
       </c>
       <c r="B1001" t="s">
-        <v>3430</v>
+        <v>3418</v>
       </c>
       <c r="C1001" t="s">
         <v>2216</v>
@@ -31406,7 +31408,7 @@
         <v>1022</v>
       </c>
       <c r="B1002" t="s">
-        <v>3431</v>
+        <v>3419</v>
       </c>
       <c r="C1002" t="s">
         <v>2217</v>
@@ -31426,7 +31428,7 @@
         <v>1023</v>
       </c>
       <c r="B1003" t="s">
-        <v>3432</v>
+        <v>3420</v>
       </c>
       <c r="C1003" t="s">
         <v>2218</v>
@@ -31446,7 +31448,7 @@
         <v>1024</v>
       </c>
       <c r="B1004" t="s">
-        <v>3433</v>
+        <v>3421</v>
       </c>
       <c r="C1004" t="s">
         <v>2219</v>
@@ -31466,7 +31468,7 @@
         <v>1025</v>
       </c>
       <c r="B1005" t="s">
-        <v>3434</v>
+        <v>3422</v>
       </c>
       <c r="C1005" t="s">
         <v>2220</v>
@@ -31486,7 +31488,7 @@
         <v>1026</v>
       </c>
       <c r="B1006" t="s">
-        <v>3435</v>
+        <v>3423</v>
       </c>
       <c r="C1006" t="s">
         <v>2221</v>
@@ -31506,7 +31508,7 @@
         <v>1027</v>
       </c>
       <c r="B1007" t="s">
-        <v>3436</v>
+        <v>3424</v>
       </c>
       <c r="C1007" t="s">
         <v>2222</v>
@@ -31526,7 +31528,7 @@
         <v>1028</v>
       </c>
       <c r="B1008" t="s">
-        <v>3437</v>
+        <v>3425</v>
       </c>
       <c r="C1008" t="s">
         <v>2223</v>
@@ -31546,7 +31548,7 @@
         <v>1029</v>
       </c>
       <c r="B1009" t="s">
-        <v>3438</v>
+        <v>3426</v>
       </c>
       <c r="C1009" t="s">
         <v>2224</v>
@@ -31566,7 +31568,7 @@
         <v>1030</v>
       </c>
       <c r="B1010" t="s">
-        <v>3439</v>
+        <v>3427</v>
       </c>
       <c r="C1010" t="s">
         <v>2225</v>
@@ -31586,7 +31588,7 @@
         <v>1031</v>
       </c>
       <c r="B1011" t="s">
-        <v>3440</v>
+        <v>3428</v>
       </c>
       <c r="C1011" t="s">
         <v>2226</v>
@@ -31606,7 +31608,7 @@
         <v>1032</v>
       </c>
       <c r="B1012" t="s">
-        <v>3441</v>
+        <v>3429</v>
       </c>
       <c r="C1012" t="s">
         <v>2227</v>
@@ -31626,7 +31628,7 @@
         <v>1033</v>
       </c>
       <c r="B1013" t="s">
-        <v>3442</v>
+        <v>3430</v>
       </c>
       <c r="C1013" t="s">
         <v>2228</v>
@@ -31646,7 +31648,7 @@
         <v>1034</v>
       </c>
       <c r="B1014" t="s">
-        <v>3443</v>
+        <v>3431</v>
       </c>
       <c r="C1014" t="s">
         <v>2229</v>
@@ -31666,7 +31668,7 @@
         <v>1035</v>
       </c>
       <c r="B1015" t="s">
-        <v>3444</v>
+        <v>3432</v>
       </c>
       <c r="C1015" t="s">
         <v>2230</v>
@@ -31686,7 +31688,7 @@
         <v>1036</v>
       </c>
       <c r="B1016" t="s">
-        <v>3445</v>
+        <v>3433</v>
       </c>
       <c r="C1016" t="s">
         <v>1558</v>
@@ -31706,7 +31708,7 @@
         <v>1037</v>
       </c>
       <c r="B1017" t="s">
-        <v>3446</v>
+        <v>3434</v>
       </c>
       <c r="C1017" t="s">
         <v>2231</v>
@@ -31726,7 +31728,7 @@
         <v>1038</v>
       </c>
       <c r="B1018" t="s">
-        <v>3447</v>
+        <v>3435</v>
       </c>
       <c r="C1018" t="s">
         <v>2232</v>
@@ -31746,7 +31748,7 @@
         <v>1039</v>
       </c>
       <c r="B1019" t="s">
-        <v>3448</v>
+        <v>3436</v>
       </c>
       <c r="C1019" t="s">
         <v>2233</v>
@@ -31766,7 +31768,7 @@
         <v>1040</v>
       </c>
       <c r="B1020" t="s">
-        <v>3449</v>
+        <v>3437</v>
       </c>
       <c r="C1020" t="s">
         <v>2234</v>
@@ -31786,7 +31788,7 @@
         <v>1041</v>
       </c>
       <c r="B1021" t="s">
-        <v>3450</v>
+        <v>3438</v>
       </c>
       <c r="C1021" t="s">
         <v>2235</v>
@@ -31806,7 +31808,7 @@
         <v>1042</v>
       </c>
       <c r="B1022" t="s">
-        <v>3451</v>
+        <v>3439</v>
       </c>
       <c r="C1022" t="s">
         <v>2236</v>
@@ -31826,7 +31828,7 @@
         <v>1043</v>
       </c>
       <c r="B1023" t="s">
-        <v>3452</v>
+        <v>3440</v>
       </c>
       <c r="C1023" t="s">
         <v>2237</v>
@@ -31846,7 +31848,7 @@
         <v>1044</v>
       </c>
       <c r="B1024" t="s">
-        <v>3453</v>
+        <v>3441</v>
       </c>
       <c r="C1024" t="s">
         <v>2238</v>
@@ -31866,7 +31868,7 @@
         <v>1045</v>
       </c>
       <c r="B1025" t="s">
-        <v>3454</v>
+        <v>3442</v>
       </c>
       <c r="C1025" t="s">
         <v>2239</v>
@@ -31886,7 +31888,7 @@
         <v>1046</v>
       </c>
       <c r="B1026" t="s">
-        <v>3455</v>
+        <v>3443</v>
       </c>
       <c r="C1026" t="s">
         <v>2240</v>
@@ -31906,7 +31908,7 @@
         <v>1047</v>
       </c>
       <c r="B1027" t="s">
-        <v>3456</v>
+        <v>3444</v>
       </c>
       <c r="C1027" t="s">
         <v>2241</v>
@@ -31926,7 +31928,7 @@
         <v>1048</v>
       </c>
       <c r="B1028" t="s">
-        <v>3457</v>
+        <v>3445</v>
       </c>
       <c r="C1028" t="s">
         <v>2242</v>
@@ -31946,7 +31948,7 @@
         <v>1049</v>
       </c>
       <c r="B1029" t="s">
-        <v>3458</v>
+        <v>3446</v>
       </c>
       <c r="C1029" t="s">
         <v>2243</v>
@@ -31966,7 +31968,7 @@
         <v>1050</v>
       </c>
       <c r="B1030" t="s">
-        <v>3459</v>
+        <v>3447</v>
       </c>
       <c r="C1030" t="s">
         <v>2244</v>
@@ -31986,7 +31988,7 @@
         <v>1051</v>
       </c>
       <c r="B1031" t="s">
-        <v>3460</v>
+        <v>3658</v>
       </c>
       <c r="C1031">
         <v>76111</v>
@@ -32006,7 +32008,7 @@
         <v>1052</v>
       </c>
       <c r="B1032" t="s">
-        <v>3461</v>
+        <v>3448</v>
       </c>
       <c r="C1032" t="s">
         <v>2245</v>
@@ -32026,7 +32028,7 @@
         <v>1053</v>
       </c>
       <c r="B1033" t="s">
-        <v>3462</v>
+        <v>3449</v>
       </c>
       <c r="C1033" t="s">
         <v>2246</v>
@@ -32046,7 +32048,7 @@
         <v>1054</v>
       </c>
       <c r="B1034" t="s">
-        <v>3463</v>
+        <v>3450</v>
       </c>
       <c r="C1034" t="s">
         <v>2247</v>
@@ -32066,7 +32068,7 @@
         <v>1055</v>
       </c>
       <c r="B1035" t="s">
-        <v>3464</v>
+        <v>3451</v>
       </c>
       <c r="C1035" t="s">
         <v>2248</v>
@@ -32086,7 +32088,7 @@
         <v>1056</v>
       </c>
       <c r="B1036" t="s">
-        <v>3465</v>
+        <v>3452</v>
       </c>
       <c r="C1036" t="s">
         <v>2249</v>
@@ -32106,7 +32108,7 @@
         <v>1057</v>
       </c>
       <c r="B1037" t="s">
-        <v>3466</v>
+        <v>3453</v>
       </c>
       <c r="C1037" t="s">
         <v>2250</v>
@@ -32126,7 +32128,7 @@
         <v>1058</v>
       </c>
       <c r="B1038" t="s">
-        <v>3467</v>
+        <v>3454</v>
       </c>
       <c r="C1038" t="s">
         <v>2251</v>
@@ -32146,7 +32148,7 @@
         <v>1059</v>
       </c>
       <c r="B1039" t="s">
-        <v>3468</v>
+        <v>3455</v>
       </c>
       <c r="C1039" t="s">
         <v>2252</v>
@@ -32166,7 +32168,7 @@
         <v>1060</v>
       </c>
       <c r="B1040" t="s">
-        <v>3469</v>
+        <v>3456</v>
       </c>
       <c r="C1040" t="s">
         <v>2253</v>
@@ -32186,7 +32188,7 @@
         <v>1061</v>
       </c>
       <c r="B1041" t="s">
-        <v>3470</v>
+        <v>3457</v>
       </c>
       <c r="C1041" t="s">
         <v>2254</v>
@@ -32206,7 +32208,7 @@
         <v>1062</v>
       </c>
       <c r="B1042" t="s">
-        <v>3471</v>
+        <v>3458</v>
       </c>
       <c r="C1042" t="s">
         <v>2255</v>
@@ -32226,7 +32228,7 @@
         <v>1063</v>
       </c>
       <c r="B1043" t="s">
-        <v>3472</v>
+        <v>3459</v>
       </c>
       <c r="C1043" t="s">
         <v>2256</v>
@@ -32246,7 +32248,7 @@
         <v>1064</v>
       </c>
       <c r="B1044" t="s">
-        <v>3473</v>
+        <v>3460</v>
       </c>
       <c r="C1044" t="s">
         <v>2257</v>
@@ -32266,7 +32268,7 @@
         <v>1065</v>
       </c>
       <c r="B1045" t="s">
-        <v>3474</v>
+        <v>3461</v>
       </c>
       <c r="C1045" t="s">
         <v>2258</v>
@@ -32286,7 +32288,7 @@
         <v>1066</v>
       </c>
       <c r="B1046" t="s">
-        <v>3475</v>
+        <v>3462</v>
       </c>
       <c r="C1046" t="s">
         <v>2259</v>
@@ -32306,7 +32308,7 @@
         <v>1067</v>
       </c>
       <c r="B1047" t="s">
-        <v>3476</v>
+        <v>3463</v>
       </c>
       <c r="C1047" t="s">
         <v>2260</v>
@@ -32326,7 +32328,7 @@
         <v>1068</v>
       </c>
       <c r="B1048" t="s">
-        <v>3477</v>
+        <v>3464</v>
       </c>
       <c r="C1048" t="s">
         <v>2261</v>
@@ -32346,7 +32348,7 @@
         <v>1069</v>
       </c>
       <c r="B1049" t="s">
-        <v>3478</v>
+        <v>3465</v>
       </c>
       <c r="C1049" t="s">
         <v>2262</v>
@@ -32366,7 +32368,7 @@
         <v>1070</v>
       </c>
       <c r="B1050" t="s">
-        <v>3479</v>
+        <v>3466</v>
       </c>
       <c r="C1050" t="s">
         <v>2263</v>
@@ -32386,7 +32388,7 @@
         <v>1071</v>
       </c>
       <c r="B1051" t="s">
-        <v>3480</v>
+        <v>3467</v>
       </c>
       <c r="C1051" t="s">
         <v>2264</v>
@@ -32406,7 +32408,7 @@
         <v>1072</v>
       </c>
       <c r="B1052" t="s">
-        <v>3481</v>
+        <v>3468</v>
       </c>
       <c r="C1052" t="s">
         <v>2265</v>
@@ -32426,7 +32428,7 @@
         <v>1073</v>
       </c>
       <c r="B1053" t="s">
-        <v>3482</v>
+        <v>3469</v>
       </c>
       <c r="C1053" t="s">
         <v>2266</v>
@@ -32446,7 +32448,7 @@
         <v>1074</v>
       </c>
       <c r="B1054" t="s">
-        <v>3483</v>
+        <v>3470</v>
       </c>
       <c r="C1054" t="s">
         <v>2267</v>
@@ -32466,7 +32468,7 @@
         <v>1075</v>
       </c>
       <c r="B1055" t="s">
-        <v>3484</v>
+        <v>3471</v>
       </c>
       <c r="C1055" t="s">
         <v>2268</v>
@@ -32486,7 +32488,7 @@
         <v>1076</v>
       </c>
       <c r="B1056" t="s">
-        <v>3485</v>
+        <v>3472</v>
       </c>
       <c r="C1056" t="s">
         <v>2269</v>
@@ -32506,7 +32508,7 @@
         <v>1077</v>
       </c>
       <c r="B1057" t="s">
-        <v>3486</v>
+        <v>3473</v>
       </c>
       <c r="C1057" t="s">
         <v>2270</v>
@@ -32526,7 +32528,7 @@
         <v>1078</v>
       </c>
       <c r="B1058" t="s">
-        <v>3487</v>
+        <v>3474</v>
       </c>
       <c r="C1058" t="s">
         <v>2271</v>
@@ -32546,7 +32548,7 @@
         <v>1079</v>
       </c>
       <c r="B1059" t="s">
-        <v>3488</v>
+        <v>3475</v>
       </c>
       <c r="C1059" t="s">
         <v>2272</v>
@@ -32566,7 +32568,7 @@
         <v>1080</v>
       </c>
       <c r="B1060" t="s">
-        <v>3489</v>
+        <v>3476</v>
       </c>
       <c r="C1060" t="s">
         <v>2273</v>
@@ -32586,7 +32588,7 @@
         <v>1081</v>
       </c>
       <c r="B1061" t="s">
-        <v>3490</v>
+        <v>3477</v>
       </c>
       <c r="C1061" t="s">
         <v>2274</v>
@@ -32606,7 +32608,7 @@
         <v>1082</v>
       </c>
       <c r="B1062" t="s">
-        <v>3491</v>
+        <v>3478</v>
       </c>
       <c r="C1062" t="s">
         <v>2275</v>
@@ -32626,7 +32628,7 @@
         <v>1083</v>
       </c>
       <c r="B1063" t="s">
-        <v>3492</v>
+        <v>3479</v>
       </c>
       <c r="C1063" t="s">
         <v>2276</v>
@@ -32646,7 +32648,7 @@
         <v>1084</v>
       </c>
       <c r="B1064" t="s">
-        <v>3493</v>
+        <v>3480</v>
       </c>
       <c r="C1064" t="s">
         <v>2277</v>
@@ -32666,7 +32668,7 @@
         <v>1085</v>
       </c>
       <c r="B1065" t="s">
-        <v>3494</v>
+        <v>3481</v>
       </c>
       <c r="C1065" t="s">
         <v>2278</v>
@@ -32686,7 +32688,7 @@
         <v>1086</v>
       </c>
       <c r="B1066" t="s">
-        <v>3495</v>
+        <v>3482</v>
       </c>
       <c r="C1066" t="s">
         <v>2279</v>
@@ -32706,7 +32708,7 @@
         <v>1087</v>
       </c>
       <c r="B1067" t="s">
-        <v>3496</v>
+        <v>3483</v>
       </c>
       <c r="C1067">
         <v>76574</v>
@@ -32726,7 +32728,7 @@
         <v>1088</v>
       </c>
       <c r="B1068" t="s">
-        <v>3497</v>
+        <v>3484</v>
       </c>
       <c r="C1068" t="s">
         <v>2280</v>
@@ -32746,7 +32748,7 @@
         <v>1089</v>
       </c>
       <c r="B1069" t="s">
-        <v>3498</v>
+        <v>3485</v>
       </c>
       <c r="C1069" t="s">
         <v>2281</v>
@@ -32766,7 +32768,7 @@
         <v>1090</v>
       </c>
       <c r="B1070" t="s">
-        <v>3499</v>
+        <v>3486</v>
       </c>
       <c r="C1070" t="s">
         <v>2282</v>
@@ -32786,7 +32788,7 @@
         <v>1091</v>
       </c>
       <c r="B1071" t="s">
-        <v>3500</v>
+        <v>3487</v>
       </c>
       <c r="C1071" t="s">
         <v>2283</v>
@@ -32806,7 +32808,7 @@
         <v>1092</v>
       </c>
       <c r="B1072" t="s">
-        <v>3501</v>
+        <v>3488</v>
       </c>
       <c r="C1072" t="s">
         <v>2284</v>
@@ -32826,7 +32828,7 @@
         <v>1093</v>
       </c>
       <c r="B1073" t="s">
-        <v>3502</v>
+        <v>3489</v>
       </c>
       <c r="C1073" t="s">
         <v>2285</v>
@@ -32846,7 +32848,7 @@
         <v>1094</v>
       </c>
       <c r="B1074" t="s">
-        <v>3503</v>
+        <v>3490</v>
       </c>
       <c r="C1074" t="s">
         <v>2286</v>
@@ -32866,7 +32868,7 @@
         <v>1095</v>
       </c>
       <c r="B1075" t="s">
-        <v>3504</v>
+        <v>3491</v>
       </c>
       <c r="C1075" t="s">
         <v>2287</v>
@@ -32886,7 +32888,7 @@
         <v>1096</v>
       </c>
       <c r="B1076" t="s">
-        <v>3505</v>
+        <v>3492</v>
       </c>
       <c r="C1076" t="s">
         <v>2288</v>
@@ -32906,7 +32908,7 @@
         <v>1097</v>
       </c>
       <c r="B1077" t="s">
-        <v>3506</v>
+        <v>3493</v>
       </c>
       <c r="C1077" t="s">
         <v>2289</v>
@@ -32926,7 +32928,7 @@
         <v>1098</v>
       </c>
       <c r="B1078" t="s">
-        <v>3507</v>
+        <v>3494</v>
       </c>
       <c r="C1078" t="s">
         <v>2290</v>
@@ -32946,7 +32948,7 @@
         <v>1099</v>
       </c>
       <c r="B1079" t="s">
-        <v>3508</v>
+        <v>3495</v>
       </c>
       <c r="C1079" t="s">
         <v>2090</v>
@@ -32966,7 +32968,7 @@
         <v>1100</v>
       </c>
       <c r="B1080" t="s">
-        <v>3509</v>
+        <v>3496</v>
       </c>
       <c r="C1080" t="s">
         <v>2291</v>
@@ -32986,7 +32988,7 @@
         <v>1101</v>
       </c>
       <c r="B1081" t="s">
-        <v>3510</v>
+        <v>3497</v>
       </c>
       <c r="C1081" t="s">
         <v>2292</v>
@@ -33006,7 +33008,7 @@
         <v>1102</v>
       </c>
       <c r="B1082" t="s">
-        <v>3511</v>
+        <v>3498</v>
       </c>
       <c r="C1082" t="s">
         <v>2293</v>
@@ -33026,7 +33028,7 @@
         <v>1103</v>
       </c>
       <c r="B1083" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="C1083" t="s">
         <v>2294</v>
@@ -33046,7 +33048,7 @@
         <v>1104</v>
       </c>
       <c r="B1084" t="s">
-        <v>3513</v>
+        <v>3500</v>
       </c>
       <c r="C1084" t="s">
         <v>2295</v>
@@ -33066,7 +33068,7 @@
         <v>1105</v>
       </c>
       <c r="B1085" t="s">
-        <v>3514</v>
+        <v>3501</v>
       </c>
       <c r="C1085" t="s">
         <v>2296</v>
@@ -33086,7 +33088,7 @@
         <v>1106</v>
       </c>
       <c r="B1086" t="s">
-        <v>3515</v>
+        <v>3502</v>
       </c>
       <c r="C1086" t="s">
         <v>2297</v>
@@ -33106,7 +33108,7 @@
         <v>1107</v>
       </c>
       <c r="B1087" t="s">
-        <v>3516</v>
+        <v>3503</v>
       </c>
       <c r="C1087" t="s">
         <v>2298</v>
@@ -33126,7 +33128,7 @@
         <v>1108</v>
       </c>
       <c r="B1088" t="s">
-        <v>3517</v>
+        <v>3504</v>
       </c>
       <c r="C1088" t="s">
         <v>2299</v>
@@ -33146,7 +33148,7 @@
         <v>1109</v>
       </c>
       <c r="B1089" t="s">
-        <v>3518</v>
+        <v>3505</v>
       </c>
       <c r="C1089">
         <v>77075</v>
@@ -33166,7 +33168,7 @@
         <v>1110</v>
       </c>
       <c r="B1090" t="s">
-        <v>3519</v>
+        <v>3506</v>
       </c>
       <c r="C1090" t="s">
         <v>2300</v>
@@ -33186,7 +33188,7 @@
         <v>1111</v>
       </c>
       <c r="B1091" t="s">
-        <v>3520</v>
+        <v>3507</v>
       </c>
       <c r="C1091" t="s">
         <v>2301</v>
@@ -33206,7 +33208,7 @@
         <v>1112</v>
       </c>
       <c r="B1092" t="s">
-        <v>3521</v>
+        <v>3508</v>
       </c>
       <c r="C1092" t="s">
         <v>2302</v>
@@ -33226,7 +33228,7 @@
         <v>1113</v>
       </c>
       <c r="B1093" t="s">
-        <v>3522</v>
+        <v>3509</v>
       </c>
       <c r="C1093" t="s">
         <v>2303</v>
@@ -33246,7 +33248,7 @@
         <v>1114</v>
       </c>
       <c r="B1094" t="s">
-        <v>3523</v>
+        <v>3510</v>
       </c>
       <c r="C1094" t="s">
         <v>2304</v>
@@ -33266,7 +33268,7 @@
         <v>1115</v>
       </c>
       <c r="B1095" t="s">
-        <v>3524</v>
+        <v>3511</v>
       </c>
       <c r="C1095" t="s">
         <v>2305</v>
@@ -33286,7 +33288,7 @@
         <v>1116</v>
       </c>
       <c r="B1096" t="s">
-        <v>3525</v>
+        <v>3512</v>
       </c>
       <c r="C1096" t="s">
         <v>2306</v>
@@ -33306,7 +33308,7 @@
         <v>1117</v>
       </c>
       <c r="B1097" t="s">
-        <v>3526</v>
+        <v>3513</v>
       </c>
       <c r="C1097">
         <v>77004</v>
@@ -33326,7 +33328,7 @@
         <v>1118</v>
       </c>
       <c r="B1098" t="s">
-        <v>3527</v>
+        <v>3514</v>
       </c>
       <c r="C1098">
         <v>77029</v>
@@ -33346,7 +33348,7 @@
         <v>1119</v>
       </c>
       <c r="B1099" t="s">
-        <v>3528</v>
+        <v>3515</v>
       </c>
       <c r="C1099" t="s">
         <v>2307</v>
@@ -33366,7 +33368,7 @@
         <v>1120</v>
       </c>
       <c r="B1100" t="s">
-        <v>3529</v>
+        <v>3516</v>
       </c>
       <c r="C1100" t="s">
         <v>2308</v>
@@ -33386,7 +33388,7 @@
         <v>1121</v>
       </c>
       <c r="B1101" t="s">
-        <v>3530</v>
+        <v>3517</v>
       </c>
       <c r="C1101" t="s">
         <v>2309</v>
@@ -33406,7 +33408,7 @@
         <v>1122</v>
       </c>
       <c r="B1102" t="s">
-        <v>3531</v>
+        <v>3518</v>
       </c>
       <c r="C1102" t="s">
         <v>2310</v>
@@ -33426,7 +33428,7 @@
         <v>1123</v>
       </c>
       <c r="B1103" t="s">
-        <v>3532</v>
+        <v>3519</v>
       </c>
       <c r="C1103" t="s">
         <v>2311</v>
@@ -33446,7 +33448,7 @@
         <v>1124</v>
       </c>
       <c r="B1104" t="s">
-        <v>3533</v>
+        <v>3520</v>
       </c>
       <c r="C1104" t="s">
         <v>2312</v>
@@ -33466,7 +33468,7 @@
         <v>1125</v>
       </c>
       <c r="B1105" t="s">
-        <v>3534</v>
+        <v>3521</v>
       </c>
       <c r="C1105" t="s">
         <v>2313</v>
@@ -33486,7 +33488,7 @@
         <v>1126</v>
       </c>
       <c r="B1106" t="s">
-        <v>3535</v>
+        <v>3522</v>
       </c>
       <c r="C1106" t="s">
         <v>2314</v>
@@ -33506,7 +33508,7 @@
         <v>1127</v>
       </c>
       <c r="B1107" t="s">
-        <v>3536</v>
+        <v>3523</v>
       </c>
       <c r="C1107" t="s">
         <v>2315</v>
@@ -33526,7 +33528,7 @@
         <v>1128</v>
       </c>
       <c r="B1108" t="s">
-        <v>3537</v>
+        <v>3524</v>
       </c>
       <c r="C1108" t="s">
         <v>2316</v>
@@ -33546,7 +33548,7 @@
         <v>1129</v>
       </c>
       <c r="B1109" t="s">
-        <v>3538</v>
+        <v>3525</v>
       </c>
       <c r="C1109" t="s">
         <v>2317</v>
@@ -33566,7 +33568,7 @@
         <v>1130</v>
       </c>
       <c r="B1110" t="s">
-        <v>3539</v>
+        <v>3526</v>
       </c>
       <c r="C1110" t="s">
         <v>2318</v>
@@ -33586,7 +33588,7 @@
         <v>1131</v>
       </c>
       <c r="B1111" t="s">
-        <v>3540</v>
+        <v>3527</v>
       </c>
       <c r="C1111" t="s">
         <v>2319</v>
@@ -33606,7 +33608,7 @@
         <v>1132</v>
       </c>
       <c r="B1112" t="s">
-        <v>3541</v>
+        <v>3528</v>
       </c>
       <c r="C1112" t="s">
         <v>2320</v>
@@ -33626,7 +33628,7 @@
         <v>1133</v>
       </c>
       <c r="B1113" t="s">
-        <v>3542</v>
+        <v>3529</v>
       </c>
       <c r="C1113" t="s">
         <v>2321</v>
@@ -33646,7 +33648,7 @@
         <v>1134</v>
       </c>
       <c r="B1114" t="s">
-        <v>3543</v>
+        <v>3530</v>
       </c>
       <c r="C1114" t="s">
         <v>2322</v>
@@ -33666,7 +33668,7 @@
         <v>1135</v>
       </c>
       <c r="B1115" t="s">
-        <v>3544</v>
+        <v>3531</v>
       </c>
       <c r="C1115" t="s">
         <v>2323</v>
@@ -33686,7 +33688,7 @@
         <v>1136</v>
       </c>
       <c r="B1116" t="s">
-        <v>3545</v>
+        <v>3532</v>
       </c>
       <c r="C1116" t="s">
         <v>2324</v>
@@ -33706,7 +33708,7 @@
         <v>1137</v>
       </c>
       <c r="B1117" t="s">
-        <v>3546</v>
+        <v>3533</v>
       </c>
       <c r="C1117" t="s">
         <v>2325</v>
@@ -33726,7 +33728,7 @@
         <v>1138</v>
       </c>
       <c r="B1118" t="s">
-        <v>3547</v>
+        <v>3534</v>
       </c>
       <c r="C1118" t="s">
         <v>2326</v>
@@ -33746,7 +33748,7 @@
         <v>1139</v>
       </c>
       <c r="B1119" t="s">
-        <v>3548</v>
+        <v>3535</v>
       </c>
       <c r="C1119" t="s">
         <v>2327</v>
@@ -33766,7 +33768,7 @@
         <v>1140</v>
       </c>
       <c r="B1120" t="s">
-        <v>3549</v>
+        <v>3536</v>
       </c>
       <c r="C1120" t="s">
         <v>2328</v>
@@ -33786,7 +33788,7 @@
         <v>1141</v>
       </c>
       <c r="B1121" t="s">
-        <v>3550</v>
+        <v>3537</v>
       </c>
       <c r="C1121" t="s">
         <v>2329</v>
@@ -33806,7 +33808,7 @@
         <v>1142</v>
       </c>
       <c r="B1122" t="s">
-        <v>3551</v>
+        <v>3538</v>
       </c>
       <c r="C1122" t="s">
         <v>2330</v>
@@ -33826,7 +33828,7 @@
         <v>1143</v>
       </c>
       <c r="B1123" t="s">
-        <v>3552</v>
+        <v>3659</v>
       </c>
       <c r="C1123" t="s">
         <v>2331</v>
@@ -33846,7 +33848,7 @@
         <v>1144</v>
       </c>
       <c r="B1124" t="s">
-        <v>3553</v>
+        <v>3539</v>
       </c>
       <c r="C1124" t="s">
         <v>2332</v>
@@ -33866,7 +33868,7 @@
         <v>1145</v>
       </c>
       <c r="B1125" t="s">
-        <v>3554</v>
+        <v>3540</v>
       </c>
       <c r="C1125" t="s">
         <v>2333</v>
@@ -33886,7 +33888,7 @@
         <v>1146</v>
       </c>
       <c r="B1126" t="s">
-        <v>3555</v>
+        <v>3541</v>
       </c>
       <c r="C1126" t="s">
         <v>2334</v>
@@ -33906,7 +33908,7 @@
         <v>1147</v>
       </c>
       <c r="B1127" t="s">
-        <v>3556</v>
+        <v>3542</v>
       </c>
       <c r="C1127" t="s">
         <v>2335</v>
@@ -33926,7 +33928,7 @@
         <v>1148</v>
       </c>
       <c r="B1128" t="s">
-        <v>3557</v>
+        <v>3543</v>
       </c>
       <c r="C1128" t="s">
         <v>2336</v>
@@ -33946,7 +33948,7 @@
         <v>1149</v>
       </c>
       <c r="B1129" t="s">
-        <v>3558</v>
+        <v>3544</v>
       </c>
       <c r="C1129" t="s">
         <v>2337</v>
@@ -33966,7 +33968,7 @@
         <v>1150</v>
       </c>
       <c r="B1130" t="s">
-        <v>3559</v>
+        <v>3545</v>
       </c>
       <c r="C1130" t="s">
         <v>2338</v>
@@ -33986,7 +33988,7 @@
         <v>1151</v>
       </c>
       <c r="B1131" t="s">
-        <v>3560</v>
+        <v>3546</v>
       </c>
       <c r="C1131" t="s">
         <v>2339</v>
@@ -34006,7 +34008,7 @@
         <v>1152</v>
       </c>
       <c r="B1132" t="s">
-        <v>3561</v>
+        <v>3547</v>
       </c>
       <c r="C1132" t="s">
         <v>2340</v>
@@ -34026,7 +34028,7 @@
         <v>1153</v>
       </c>
       <c r="B1133" t="s">
-        <v>3562</v>
+        <v>3548</v>
       </c>
       <c r="C1133" t="s">
         <v>2341</v>
@@ -34046,7 +34048,7 @@
         <v>1154</v>
       </c>
       <c r="B1134" t="s">
-        <v>3563</v>
+        <v>3549</v>
       </c>
       <c r="C1134" t="s">
         <v>2342</v>
@@ -34066,7 +34068,7 @@
         <v>1155</v>
       </c>
       <c r="B1135" t="s">
-        <v>3564</v>
+        <v>3550</v>
       </c>
       <c r="C1135" t="s">
         <v>2343</v>
@@ -34086,7 +34088,7 @@
         <v>1156</v>
       </c>
       <c r="B1136" t="s">
-        <v>3565</v>
+        <v>3551</v>
       </c>
       <c r="C1136">
         <v>75207</v>
@@ -34106,7 +34108,7 @@
         <v>1157</v>
       </c>
       <c r="B1137" t="s">
-        <v>3566</v>
+        <v>3552</v>
       </c>
       <c r="C1137" t="s">
         <v>2344</v>
@@ -34126,7 +34128,7 @@
         <v>1158</v>
       </c>
       <c r="B1138" t="s">
-        <v>3567</v>
+        <v>3553</v>
       </c>
       <c r="C1138" t="s">
         <v>2345</v>
@@ -34146,7 +34148,7 @@
         <v>1159</v>
       </c>
       <c r="B1139" t="s">
-        <v>3568</v>
+        <v>3554</v>
       </c>
       <c r="C1139" t="s">
         <v>2346</v>
@@ -34166,7 +34168,7 @@
         <v>1160</v>
       </c>
       <c r="B1140" t="s">
-        <v>3569</v>
+        <v>3555</v>
       </c>
       <c r="C1140" t="s">
         <v>2347</v>
@@ -34186,7 +34188,7 @@
         <v>1161</v>
       </c>
       <c r="B1141" t="s">
-        <v>3570</v>
+        <v>3556</v>
       </c>
       <c r="C1141" t="s">
         <v>2348</v>
@@ -34206,7 +34208,7 @@
         <v>1162</v>
       </c>
       <c r="B1142" t="s">
-        <v>3571</v>
+        <v>3557</v>
       </c>
       <c r="C1142" t="s">
         <v>2349</v>
@@ -34226,7 +34228,7 @@
         <v>1163</v>
       </c>
       <c r="B1143" t="s">
-        <v>3572</v>
+        <v>3558</v>
       </c>
       <c r="C1143" t="s">
         <v>2350</v>
@@ -34246,7 +34248,7 @@
         <v>1164</v>
       </c>
       <c r="B1144" t="s">
-        <v>3573</v>
+        <v>3559</v>
       </c>
       <c r="C1144" t="s">
         <v>2351</v>
@@ -34266,7 +34268,7 @@
         <v>1165</v>
       </c>
       <c r="B1145" t="s">
-        <v>3574</v>
+        <v>3560</v>
       </c>
       <c r="C1145" t="s">
         <v>2352</v>
@@ -34286,7 +34288,7 @@
         <v>1166</v>
       </c>
       <c r="B1146" t="s">
-        <v>3575</v>
+        <v>3561</v>
       </c>
       <c r="C1146" t="s">
         <v>2353</v>
@@ -34306,7 +34308,7 @@
         <v>1167</v>
       </c>
       <c r="B1147" t="s">
-        <v>3576</v>
+        <v>3562</v>
       </c>
       <c r="C1147" t="s">
         <v>2354</v>
@@ -34326,7 +34328,7 @@
         <v>1168</v>
       </c>
       <c r="B1148" t="s">
-        <v>3577</v>
+        <v>3563</v>
       </c>
       <c r="C1148" t="s">
         <v>2355</v>
@@ -34346,7 +34348,7 @@
         <v>1169</v>
       </c>
       <c r="B1149" t="s">
-        <v>3578</v>
+        <v>3564</v>
       </c>
       <c r="C1149" t="s">
         <v>2356</v>
@@ -34366,7 +34368,7 @@
         <v>1170</v>
       </c>
       <c r="B1150" t="s">
-        <v>3579</v>
+        <v>3565</v>
       </c>
       <c r="C1150" t="s">
         <v>2357</v>
@@ -34386,7 +34388,7 @@
         <v>1171</v>
       </c>
       <c r="B1151" t="s">
-        <v>3580</v>
+        <v>3566</v>
       </c>
       <c r="C1151" t="s">
         <v>2358</v>
@@ -34406,7 +34408,7 @@
         <v>1172</v>
       </c>
       <c r="B1152" t="s">
-        <v>3581</v>
+        <v>3567</v>
       </c>
       <c r="C1152" t="s">
         <v>2359</v>
@@ -34426,7 +34428,7 @@
         <v>1173</v>
       </c>
       <c r="B1153" t="s">
-        <v>3582</v>
+        <v>3568</v>
       </c>
       <c r="C1153" t="s">
         <v>2360</v>
@@ -34446,7 +34448,7 @@
         <v>1174</v>
       </c>
       <c r="B1154" t="s">
-        <v>3583</v>
+        <v>3569</v>
       </c>
       <c r="C1154" t="s">
         <v>2361</v>
@@ -34466,7 +34468,7 @@
         <v>1175</v>
       </c>
       <c r="B1155" t="s">
-        <v>3584</v>
+        <v>3570</v>
       </c>
       <c r="C1155" t="s">
         <v>2362</v>
@@ -34486,7 +34488,7 @@
         <v>1176</v>
       </c>
       <c r="B1156" t="s">
-        <v>3585</v>
+        <v>3571</v>
       </c>
       <c r="C1156" t="s">
         <v>2363</v>
@@ -34506,7 +34508,7 @@
         <v>1177</v>
       </c>
       <c r="B1157" t="s">
-        <v>3586</v>
+        <v>3572</v>
       </c>
       <c r="C1157" t="s">
         <v>2364</v>
@@ -34526,7 +34528,7 @@
         <v>1178</v>
       </c>
       <c r="B1158" t="s">
-        <v>3587</v>
+        <v>3573</v>
       </c>
       <c r="C1158" t="s">
         <v>2365</v>
@@ -34546,7 +34548,7 @@
         <v>1179</v>
       </c>
       <c r="B1159" t="s">
-        <v>3588</v>
+        <v>3574</v>
       </c>
       <c r="C1159">
         <v>78959</v>
@@ -34566,7 +34568,7 @@
         <v>1180</v>
       </c>
       <c r="B1160" t="s">
-        <v>3589</v>
+        <v>3575</v>
       </c>
       <c r="C1160" t="s">
         <v>2366</v>
@@ -34586,7 +34588,7 @@
         <v>1181</v>
       </c>
       <c r="B1161" t="s">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="C1161" t="s">
         <v>2367</v>
@@ -34606,7 +34608,7 @@
         <v>1182</v>
       </c>
       <c r="B1162" t="s">
-        <v>3591</v>
+        <v>3577</v>
       </c>
       <c r="C1162" t="s">
         <v>2368</v>
@@ -34626,7 +34628,7 @@
         <v>1183</v>
       </c>
       <c r="B1163" t="s">
-        <v>3592</v>
+        <v>3578</v>
       </c>
       <c r="C1163" t="s">
         <v>2369</v>
@@ -34646,7 +34648,7 @@
         <v>1184</v>
       </c>
       <c r="B1164" t="s">
-        <v>3593</v>
+        <v>3579</v>
       </c>
       <c r="C1164" t="s">
         <v>2370</v>
@@ -34666,7 +34668,7 @@
         <v>1185</v>
       </c>
       <c r="B1165" t="s">
-        <v>3594</v>
+        <v>3580</v>
       </c>
       <c r="C1165" t="s">
         <v>2371</v>
@@ -34686,7 +34688,7 @@
         <v>1186</v>
       </c>
       <c r="B1166" t="s">
-        <v>3595</v>
+        <v>3581</v>
       </c>
       <c r="C1166" t="s">
         <v>2372</v>
@@ -34706,7 +34708,7 @@
         <v>1187</v>
       </c>
       <c r="B1167" t="s">
-        <v>3596</v>
+        <v>3582</v>
       </c>
       <c r="C1167" t="s">
         <v>2373</v>
@@ -34726,7 +34728,7 @@
         <v>1188</v>
       </c>
       <c r="B1168" t="s">
-        <v>3597</v>
+        <v>3583</v>
       </c>
       <c r="C1168" t="s">
         <v>2374</v>
@@ -34746,7 +34748,7 @@
         <v>1189</v>
       </c>
       <c r="B1169" t="s">
-        <v>3598</v>
+        <v>3584</v>
       </c>
       <c r="C1169" t="s">
         <v>2375</v>
@@ -34766,7 +34768,7 @@
         <v>1190</v>
       </c>
       <c r="B1170" t="s">
-        <v>3599</v>
+        <v>3585</v>
       </c>
       <c r="C1170" t="s">
         <v>2376</v>
@@ -34786,7 +34788,7 @@
         <v>1191</v>
       </c>
       <c r="B1171" t="s">
-        <v>3600</v>
+        <v>3586</v>
       </c>
       <c r="C1171" t="s">
         <v>2377</v>
@@ -34806,7 +34808,7 @@
         <v>1192</v>
       </c>
       <c r="B1172" t="s">
-        <v>3601</v>
+        <v>3587</v>
       </c>
       <c r="C1172" t="s">
         <v>2378</v>
@@ -34826,7 +34828,7 @@
         <v>1193</v>
       </c>
       <c r="B1173" t="s">
-        <v>3602</v>
+        <v>3588</v>
       </c>
       <c r="C1173" t="s">
         <v>2379</v>
@@ -34846,7 +34848,7 @@
         <v>1194</v>
       </c>
       <c r="B1174" t="s">
-        <v>3603</v>
+        <v>3660</v>
       </c>
       <c r="C1174" t="s">
         <v>2380</v>
@@ -34866,7 +34868,7 @@
         <v>1195</v>
       </c>
       <c r="B1175" t="s">
-        <v>3604</v>
+        <v>3589</v>
       </c>
       <c r="C1175" t="s">
         <v>2381</v>
@@ -34886,7 +34888,7 @@
         <v>1196</v>
       </c>
       <c r="B1176" t="s">
-        <v>3605</v>
+        <v>3590</v>
       </c>
       <c r="C1176" t="s">
         <v>2382</v>
@@ -34906,7 +34908,7 @@
         <v>1197</v>
       </c>
       <c r="B1177" t="s">
-        <v>3606</v>
+        <v>3591</v>
       </c>
       <c r="C1177" t="s">
         <v>2383</v>
@@ -34926,7 +34928,7 @@
         <v>1198</v>
       </c>
       <c r="B1178" t="s">
-        <v>3607</v>
+        <v>3592</v>
       </c>
       <c r="C1178" t="s">
         <v>2384</v>
@@ -34946,7 +34948,7 @@
         <v>1199</v>
       </c>
       <c r="B1179" t="s">
-        <v>3608</v>
+        <v>3593</v>
       </c>
       <c r="C1179">
         <v>76691</v>
@@ -34966,7 +34968,7 @@
         <v>1200</v>
       </c>
       <c r="B1180" t="s">
-        <v>3609</v>
+        <v>3594</v>
       </c>
       <c r="C1180" t="s">
         <v>2385</v>
@@ -34986,7 +34988,7 @@
         <v>1201</v>
       </c>
       <c r="B1181" t="s">
-        <v>3610</v>
+        <v>3595</v>
       </c>
       <c r="C1181" t="s">
         <v>2386</v>
@@ -35006,7 +35008,7 @@
         <v>1202</v>
       </c>
       <c r="B1182" t="s">
-        <v>3611</v>
+        <v>3596</v>
       </c>
       <c r="C1182" t="s">
         <v>2387</v>
@@ -35026,7 +35028,7 @@
         <v>1203</v>
       </c>
       <c r="B1183" t="s">
-        <v>3612</v>
+        <v>3597</v>
       </c>
       <c r="C1183" t="s">
         <v>2388</v>
@@ -35046,7 +35048,7 @@
         <v>1204</v>
       </c>
       <c r="B1184" t="s">
-        <v>3613</v>
+        <v>3598</v>
       </c>
       <c r="C1184" t="s">
         <v>2389</v>
@@ -35066,7 +35068,7 @@
         <v>1205</v>
       </c>
       <c r="B1185" t="s">
-        <v>3614</v>
+        <v>3661</v>
       </c>
       <c r="C1185" t="s">
         <v>2390</v>
@@ -35086,7 +35088,7 @@
         <v>1206</v>
       </c>
       <c r="B1186" t="s">
-        <v>3615</v>
+        <v>3599</v>
       </c>
       <c r="C1186" t="s">
         <v>2391</v>
@@ -35106,7 +35108,7 @@
         <v>1207</v>
       </c>
       <c r="B1187" t="s">
-        <v>3616</v>
+        <v>3600</v>
       </c>
       <c r="C1187" t="s">
         <v>2392</v>
@@ -35126,7 +35128,7 @@
         <v>1208</v>
       </c>
       <c r="B1188" t="s">
-        <v>3617</v>
+        <v>3601</v>
       </c>
       <c r="C1188">
         <v>79096</v>
@@ -35146,7 +35148,7 @@
         <v>1209</v>
       </c>
       <c r="B1189" t="s">
-        <v>3618</v>
+        <v>3602</v>
       </c>
       <c r="C1189" t="s">
         <v>2393</v>
@@ -35166,7 +35168,7 @@
         <v>1210</v>
       </c>
       <c r="B1190" t="s">
-        <v>3619</v>
+        <v>3603</v>
       </c>
       <c r="C1190" t="s">
         <v>2394</v>
@@ -35186,7 +35188,7 @@
         <v>1211</v>
       </c>
       <c r="B1191" t="s">
-        <v>3620</v>
+        <v>3604</v>
       </c>
       <c r="C1191" t="s">
         <v>2395</v>
@@ -35206,7 +35208,7 @@
         <v>1212</v>
       </c>
       <c r="B1192" t="s">
-        <v>3621</v>
+        <v>3605</v>
       </c>
       <c r="C1192">
         <v>79379</v>
@@ -35226,7 +35228,7 @@
         <v>1213</v>
       </c>
       <c r="B1193" t="s">
-        <v>3622</v>
+        <v>3606</v>
       </c>
       <c r="C1193" t="s">
         <v>2396</v>
@@ -35246,7 +35248,7 @@
         <v>1214</v>
       </c>
       <c r="B1194" t="s">
-        <v>3623</v>
+        <v>3607</v>
       </c>
       <c r="C1194" t="s">
         <v>2397</v>
@@ -35266,7 +35268,7 @@
         <v>1215</v>
       </c>
       <c r="B1195" t="s">
-        <v>3624</v>
+        <v>3608</v>
       </c>
       <c r="C1195" t="s">
         <v>2398</v>
@@ -35286,7 +35288,7 @@
         <v>1216</v>
       </c>
       <c r="B1196" t="s">
-        <v>3625</v>
+        <v>3609</v>
       </c>
       <c r="C1196" t="s">
         <v>2399</v>
@@ -35306,7 +35308,7 @@
         <v>1217</v>
       </c>
       <c r="B1197" t="s">
-        <v>3626</v>
+        <v>3610</v>
       </c>
       <c r="C1197" t="s">
         <v>2400</v>
@@ -35326,7 +35328,7 @@
         <v>1218</v>
       </c>
       <c r="B1198" t="s">
-        <v>3627</v>
+        <v>3611</v>
       </c>
       <c r="C1198" t="s">
         <v>2401</v>
@@ -35346,7 +35348,7 @@
         <v>1219</v>
       </c>
       <c r="B1199" t="s">
-        <v>3628</v>
+        <v>3612</v>
       </c>
       <c r="C1199" t="s">
         <v>2402</v>
@@ -35366,7 +35368,7 @@
         <v>1220</v>
       </c>
       <c r="B1200" t="s">
-        <v>3629</v>
+        <v>3613</v>
       </c>
       <c r="C1200" t="s">
         <v>2403</v>
@@ -35386,7 +35388,7 @@
         <v>1221</v>
       </c>
       <c r="B1201" t="s">
-        <v>3630</v>
+        <v>3614</v>
       </c>
       <c r="C1201" t="s">
         <v>2404</v>
@@ -35406,7 +35408,7 @@
         <v>1222</v>
       </c>
       <c r="B1202" t="s">
-        <v>3631</v>
+        <v>3615</v>
       </c>
       <c r="C1202" t="s">
         <v>2405</v>
@@ -35426,7 +35428,7 @@
         <v>1223</v>
       </c>
       <c r="B1203" t="s">
-        <v>3632</v>
+        <v>3616</v>
       </c>
       <c r="C1203" t="s">
         <v>2406</v>
@@ -35446,7 +35448,7 @@
         <v>1224</v>
       </c>
       <c r="B1204" t="s">
-        <v>3633</v>
+        <v>3617</v>
       </c>
       <c r="C1204">
         <v>79381</v>
@@ -35466,7 +35468,7 @@
         <v>1225</v>
       </c>
       <c r="B1205" t="s">
-        <v>3634</v>
+        <v>3618</v>
       </c>
       <c r="C1205" t="s">
         <v>2407</v>
@@ -35486,7 +35488,7 @@
         <v>1226</v>
       </c>
       <c r="B1206" t="s">
-        <v>3635</v>
+        <v>3619</v>
       </c>
       <c r="C1206" t="s">
         <v>2408</v>
@@ -35506,7 +35508,7 @@
         <v>1227</v>
       </c>
       <c r="B1207" t="s">
-        <v>3636</v>
+        <v>3620</v>
       </c>
       <c r="C1207" t="s">
         <v>2409</v>
@@ -35526,7 +35528,7 @@
         <v>1228</v>
       </c>
       <c r="B1208" t="s">
-        <v>3637</v>
+        <v>3621</v>
       </c>
       <c r="C1208" t="s">
         <v>2410</v>
@@ -35546,7 +35548,7 @@
         <v>1229</v>
       </c>
       <c r="B1209" t="s">
-        <v>3638</v>
+        <v>3622</v>
       </c>
       <c r="C1209" t="s">
         <v>2411</v>
@@ -35566,7 +35568,7 @@
         <v>1230</v>
       </c>
       <c r="B1210" t="s">
-        <v>3639</v>
+        <v>3623</v>
       </c>
       <c r="C1210" t="s">
         <v>2412</v>
@@ -35586,7 +35588,7 @@
         <v>1231</v>
       </c>
       <c r="B1211" t="s">
-        <v>3640</v>
+        <v>3624</v>
       </c>
       <c r="C1211" t="s">
         <v>2413</v>
@@ -35606,7 +35608,7 @@
         <v>1232</v>
       </c>
       <c r="B1212" t="s">
-        <v>3641</v>
+        <v>3625</v>
       </c>
       <c r="C1212" t="s">
         <v>2414</v>
@@ -35626,7 +35628,7 @@
         <v>1233</v>
       </c>
       <c r="B1213" t="s">
-        <v>3642</v>
+        <v>3626</v>
       </c>
       <c r="C1213" t="s">
         <v>2415</v>
@@ -35646,7 +35648,7 @@
         <v>1234</v>
       </c>
       <c r="B1214" t="s">
-        <v>3643</v>
+        <v>3627</v>
       </c>
       <c r="C1214" t="s">
         <v>2416</v>
@@ -35666,7 +35668,7 @@
         <v>1235</v>
       </c>
       <c r="B1215" t="s">
-        <v>3644</v>
+        <v>3628</v>
       </c>
       <c r="C1215" t="s">
         <v>2417</v>
@@ -35686,7 +35688,7 @@
         <v>1236</v>
       </c>
       <c r="B1216" t="s">
-        <v>3645</v>
+        <v>3629</v>
       </c>
       <c r="C1216" t="s">
         <v>2418</v>
@@ -35706,7 +35708,7 @@
         <v>1237</v>
       </c>
       <c r="B1217" t="s">
-        <v>3646</v>
+        <v>3630</v>
       </c>
       <c r="C1217" t="s">
         <v>2419</v>
@@ -35726,7 +35728,7 @@
         <v>1238</v>
       </c>
       <c r="B1218" t="s">
-        <v>3647</v>
+        <v>3631</v>
       </c>
       <c r="C1218" t="s">
         <v>2420</v>
@@ -35746,7 +35748,7 @@
         <v>1239</v>
       </c>
       <c r="B1219" t="s">
-        <v>3648</v>
+        <v>3632</v>
       </c>
       <c r="C1219" t="s">
         <v>2421</v>
@@ -35766,7 +35768,7 @@
         <v>1240</v>
       </c>
       <c r="B1220" t="s">
-        <v>3649</v>
+        <v>3633</v>
       </c>
       <c r="C1220" t="s">
         <v>2422</v>
@@ -35786,7 +35788,7 @@
         <v>1241</v>
       </c>
       <c r="B1221" t="s">
-        <v>3650</v>
+        <v>3634</v>
       </c>
       <c r="C1221" t="s">
         <v>2423</v>
@@ -35806,7 +35808,7 @@
         <v>1242</v>
       </c>
       <c r="B1222" t="s">
-        <v>3651</v>
+        <v>3635</v>
       </c>
       <c r="C1222" t="s">
         <v>2423</v>
@@ -35826,7 +35828,7 @@
         <v>1243</v>
       </c>
       <c r="B1223" t="s">
-        <v>3652</v>
+        <v>3636</v>
       </c>
       <c r="C1223" t="s">
         <v>2424</v>
@@ -35846,7 +35848,7 @@
         <v>1244</v>
       </c>
       <c r="B1224" t="s">
-        <v>3653</v>
+        <v>3637</v>
       </c>
       <c r="C1224" t="s">
         <v>2425</v>
@@ -35866,7 +35868,7 @@
         <v>1245</v>
       </c>
       <c r="B1225" t="s">
-        <v>3654</v>
+        <v>3638</v>
       </c>
       <c r="C1225" t="s">
         <v>2426</v>
@@ -35886,7 +35888,7 @@
         <v>1246</v>
       </c>
       <c r="B1226" t="s">
-        <v>3655</v>
+        <v>3639</v>
       </c>
       <c r="C1226" t="s">
         <v>2427</v>
@@ -35906,7 +35908,7 @@
         <v>1247</v>
       </c>
       <c r="B1227" t="s">
-        <v>3656</v>
+        <v>3640</v>
       </c>
       <c r="C1227" t="s">
         <v>2428</v>
@@ -35926,7 +35928,7 @@
         <v>1248</v>
       </c>
       <c r="B1228" t="s">
-        <v>3657</v>
+        <v>3641</v>
       </c>
       <c r="C1228" t="s">
         <v>2429</v>
@@ -35946,7 +35948,7 @@
         <v>1249</v>
       </c>
       <c r="B1229" t="s">
-        <v>3658</v>
+        <v>3642</v>
       </c>
       <c r="C1229" t="s">
         <v>2430</v>
@@ -35966,7 +35968,7 @@
         <v>1250</v>
       </c>
       <c r="B1230" t="s">
-        <v>3659</v>
+        <v>3643</v>
       </c>
       <c r="C1230" t="s">
         <v>2431</v>
@@ -35986,7 +35988,7 @@
         <v>1251</v>
       </c>
       <c r="B1231" t="s">
-        <v>3660</v>
+        <v>3644</v>
       </c>
       <c r="C1231" t="s">
         <v>2432</v>
@@ -36003,5 +36005,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>